--- a/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
+++ b/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2CF542-F07E-4730-B6F4-A21CB958FE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C8321-A32E-43C5-9C3D-0A5076103D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="611">
   <si>
     <t>type</t>
   </si>
@@ -563,15 +563,6 @@
     <t>profession</t>
   </si>
   <si>
-    <t xml:space="preserve">1= Étudiant ; 2 = agriculteur ; 3 = Berger ; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 = Pêcheur ; 5 = travail de bureau (y compris Gouvernement/secteur public/ONG) ; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 = commerçant ; 7 = ménagère ; </t>
-  </si>
-  <si>
     <t xml:space="preserve">8 = Rien - Retraite, chômage, handicap, trop jeune </t>
   </si>
   <si>
@@ -638,48 +629,15 @@
     <t>note2</t>
   </si>
   <si>
-    <t>numero_menage</t>
-  </si>
-  <si>
-    <t>nbre_personne_ds_menage</t>
-  </si>
-  <si>
-    <t>vis_ds_cummunaute_12_mois</t>
-  </si>
-  <si>
-    <t>src_eau_potable_maison_autre</t>
-  </si>
-  <si>
-    <t>${src_eau_potable_maison} = 'Autre'</t>
-  </si>
-  <si>
-    <t>profession_autre</t>
-  </si>
-  <si>
-    <t>${profession} = 'Autre'</t>
-  </si>
-  <si>
     <t>commentaires</t>
   </si>
   <si>
     <t>tps_allez_retout_eau_douce</t>
   </si>
   <si>
-    <t>src_eau_se_desseche</t>
-  </si>
-  <si>
-    <t>se_baigne_eau_douce</t>
-  </si>
-  <si>
     <t>select_one tps_allez_retout_eau_douce</t>
   </si>
   <si>
-    <t>lessive_eau_douce</t>
-  </si>
-  <si>
-    <t>Q12. Sexe de l’enfant enquêté</t>
-  </si>
-  <si>
     <t>Q13. Age de l’enfant enquêté</t>
   </si>
   <si>
@@ -710,24 +668,9 @@
     <t>nbr_fois_vas_ecole</t>
   </si>
   <si>
-    <t>repondant_a_maison</t>
-  </si>
-  <si>
-    <t>repondant_repond_lui_meme</t>
-  </si>
-  <si>
-    <t>repondant_a_chaussure</t>
-  </si>
-  <si>
     <t>raison_repondant_pas_com_2024</t>
   </si>
   <si>
-    <t>repondant_dans_com_2024</t>
-  </si>
-  <si>
-    <t>plan_eau_douce_com</t>
-  </si>
-  <si>
     <t>Masculin</t>
   </si>
   <si>
@@ -767,12 +710,6 @@
     <t>6 = Autres (précisez)</t>
   </si>
   <si>
-    <t>niveau_etude_other</t>
-  </si>
-  <si>
-    <t>${niveau_etude} = 'Autre'</t>
-  </si>
-  <si>
     <t>1 = Rarement/non inscrit</t>
   </si>
   <si>
@@ -785,45 +722,18 @@
     <t>4 = Toujours</t>
   </si>
   <si>
-    <t>${repondant_repond_lui_meme} = 'Non'</t>
-  </si>
-  <si>
     <t>Q19.a. Est-ce que le répondant est né dans cet communauté?</t>
   </si>
   <si>
-    <t>repondant_ne_dans_com</t>
-  </si>
-  <si>
-    <t>vis_dans_com_moins_1_an</t>
-  </si>
-  <si>
     <t>Q19.c. Depuis combien de mois le répondant vit-il dans cette communauté ?</t>
   </si>
   <si>
     <t>Q19.d. Depuis combien d'année le répondant vit-il dans cette communauté ?</t>
   </si>
   <si>
-    <t>mois_repondant_est_dans_com</t>
-  </si>
-  <si>
-    <t>annee_repondant_est_dans_com</t>
-  </si>
-  <si>
-    <t>${repondant_ne_dans_com} = 'Oui'</t>
-  </si>
-  <si>
     <t>Q19.b. Le répondant vis dans la communauté depuis moins d'une année? ?</t>
   </si>
   <si>
-    <t>${repondant_ne_dans_com} = 'Oui' and ${vis_dans_com_moins_1_an} = 'Oui'</t>
-  </si>
-  <si>
-    <t>${repondant_ne_dans_com} = 'Oui' and ${vis_dans_com_moins_1_an} = 'Non'</t>
-  </si>
-  <si>
-    <t>${repondant_dans_com_2024} = 'Oui'</t>
-  </si>
-  <si>
     <t>Q20. Le répondant était-il dans la communauté en avril 2024 ?</t>
   </si>
   <si>
@@ -929,12 +839,6 @@
     <t>Q33. Quelles sont les effets secondaires que le répondant a eus après avoir avalé les médicaments ?</t>
   </si>
   <si>
-    <t>repondant_savait_tdm</t>
-  </si>
-  <si>
-    <t>${repondant_savait_tdm} = 'Oui'</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 = Plus d’une semaine avant </t>
   </si>
   <si>
@@ -989,21 +893,9 @@
     <t xml:space="preserve">66 = Autre (spécifiez) </t>
   </si>
   <si>
-    <t>comment_entendu_tdm_autre</t>
-  </si>
-  <si>
     <t>Q24.a. Veuillez préciser les autres moyen d'information ?</t>
   </si>
   <si>
-    <t>${comment_entendu_tdm} = 'Autre'</t>
-  </si>
-  <si>
-    <t>propose_pzq</t>
-  </si>
-  <si>
-    <t>${propose_pzq} 'Non'</t>
-  </si>
-  <si>
     <t>raison_pas_propose_pzq</t>
   </si>
   <si>
@@ -1064,15 +956,9 @@
     <t>select_one raison_pas_propose_pzq</t>
   </si>
   <si>
-    <t>raison_pas_propose_pzq_autre</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q26.a. Veuillez préciser les autres raisons </t>
   </si>
   <si>
-    <t>${raison_pas_propose_pzq} 'Autre'</t>
-  </si>
-  <si>
     <t>qui_a_donne_pzq</t>
   </si>
   <si>
@@ -1106,18 +992,6 @@
     <t>99 = pas de réponse</t>
   </si>
   <si>
-    <t>qui_a_donne_pzq_autre</t>
-  </si>
-  <si>
-    <t>${qui_a_donne_pzq} = 'Autre'</t>
-  </si>
-  <si>
-    <t>avale_pzq</t>
-  </si>
-  <si>
-    <t>${avale_pzq} = 'Non'</t>
-  </si>
-  <si>
     <t>raison_pas_avale_pzq</t>
   </si>
   <si>
@@ -1160,9 +1034,6 @@
     <t>select_one raison_pas_avale_pzq</t>
   </si>
   <si>
-    <t>${avale_pzq} = 'Oui'</t>
-  </si>
-  <si>
     <t>raison_avale_pzq</t>
   </si>
   <si>
@@ -1187,21 +1058,9 @@
     <t>7 = Pas de réponse</t>
   </si>
   <si>
-    <t>avale_pzq_devant_distributeur</t>
-  </si>
-  <si>
     <t>effet_secondaire_pzq</t>
   </si>
   <si>
-    <t>${effet_secondaire_pzq} = 'Oui'</t>
-  </si>
-  <si>
-    <t>${effet_secondaire_pzq} = 'Non'</t>
-  </si>
-  <si>
-    <t>type_effet_secondaire_pzq</t>
-  </si>
-  <si>
     <t>select_one effet_secondaire_pzq</t>
   </si>
   <si>
@@ -1217,21 +1076,9 @@
     <t>select_one raison_avale_pzq</t>
   </si>
   <si>
-    <t>raison_pas_avale_pzq_autre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${raison_pas_avale_pzq} = 'Autre' </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q29.a. Pourquoi le répondant n’a-t-il pas avalé les comprimés </t>
   </si>
   <si>
-    <t>raison_avale_pzq_autre</t>
-  </si>
-  <si>
-    <t>${raison_avale_pzq} = 'Autre'</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q30.a. Pourquoi le répondant a-t-il avalé le médicament ? </t>
   </si>
   <si>
@@ -1259,9 +1106,6 @@
     <t>select_one nb_fois_participe_tdm_sch</t>
   </si>
   <si>
-    <t>${nb_fois_participe_tdm_sch} = '0 = Jamais '</t>
-  </si>
-  <si>
     <t>pourquoi_jamais_participe</t>
   </si>
   <si>
@@ -1286,15 +1130,9 @@
     <t>99 = Ne sait pas/Pas de réponse</t>
   </si>
   <si>
-    <t>pourquoi_jamais_participe_autre</t>
-  </si>
-  <si>
     <t>Q35.a. Veuillez spécifier les autres raison</t>
   </si>
   <si>
-    <t>${pourquoi_jamais_participe} = 'Autre'</t>
-  </si>
-  <si>
     <t>Q36. Le répondant a-t-il déjà entendu parler de la schistosomiase (bilharziose) ?</t>
   </si>
   <si>
@@ -1328,9 +1166,6 @@
     <t>select_one entendu_parler_sch</t>
   </si>
   <si>
-    <t>${entendu_parler_sch} = 'Oui'</t>
-  </si>
-  <si>
     <t>(1) École (hors du TDM)</t>
   </si>
   <si>
@@ -1370,15 +1205,9 @@
     <t>select_one ou_entendu_parler_sch</t>
   </si>
   <si>
-    <t>ou_entendu_parler_sch_autre</t>
-  </si>
-  <si>
     <t>Q37.a. Veuillez préciser les autres lieux</t>
   </si>
   <si>
-    <t>${ou_entendu_parler_sch_autre} = 'Autre'</t>
-  </si>
-  <si>
     <t>(1) Défécation en plein air / ne pas utiliser les latrines</t>
   </si>
   <si>
@@ -1451,12 +1280,6 @@
     <t>select_multiple transmission_sch</t>
   </si>
   <si>
-    <t>transmission_sch_autre</t>
-  </si>
-  <si>
-    <t>selected(${transmission_sch}, 'Autre')</t>
-  </si>
-  <si>
     <t>(1) Pas de symptômes</t>
   </si>
   <si>
@@ -1541,18 +1364,12 @@
     <t>select_multiple symptome_sch</t>
   </si>
   <si>
-    <t>symptome_sch_autre</t>
-  </si>
-  <si>
     <t>Q38.a. veuillez préciser les autres transmissions</t>
   </si>
   <si>
     <t>Q39.a Veuillez énoncer les autres symptômes</t>
   </si>
   <si>
-    <t>selected(${symptome_sch}, 'Autre')</t>
-  </si>
-  <si>
     <t>(1) Cette maladie ne peut être empêchée</t>
   </si>
   <si>
@@ -1610,12 +1427,6 @@
     <t>prevention_sch</t>
   </si>
   <si>
-    <t>prevention_sch_autre</t>
-  </si>
-  <si>
-    <t>$selected(${prevention_sch}, 'Autre')</t>
-  </si>
-  <si>
     <t xml:space="preserve">(1) Ne peut pas être traité </t>
   </si>
   <si>
@@ -1673,25 +1484,410 @@
     <t>Q41.a. Veuillez préciser les autres traitements</t>
   </si>
   <si>
-    <t>traitement_pzq_autre</t>
-  </si>
-  <si>
-    <t>selected(${traitement_pzq}, 'Autre')</t>
-  </si>
-  <si>
     <t>Q42. L'enfant est-il sélectionner pour le test à la bandelette urinaire</t>
+  </si>
+  <si>
+    <t>select_one grading</t>
+  </si>
+  <si>
+    <t>Q43. Graduation de la microhématurie</t>
+  </si>
+  <si>
+    <t>q0_numero_menage</t>
+  </si>
+  <si>
+    <t>q1_nbre_personne_ds_menage</t>
+  </si>
+  <si>
+    <t>q2_vis_ds_cummunaute_12_mois</t>
+  </si>
+  <si>
+    <t>q3_src_eau_potable_maison</t>
+  </si>
+  <si>
+    <t>q3_src_eau_potable_maison_autre</t>
+  </si>
+  <si>
+    <t>q4_toilette_maison</t>
+  </si>
+  <si>
+    <t>q5_condition_toilette</t>
+  </si>
+  <si>
+    <t>q6_existe_dispositif_lavage_main</t>
+  </si>
+  <si>
+    <t>q7_profession</t>
+  </si>
+  <si>
+    <t>q7_profession_autre</t>
+  </si>
+  <si>
+    <t>q7_plan_eau_douce_com</t>
+  </si>
+  <si>
+    <t>q8_tps_allez_retout_eau_douce</t>
+  </si>
+  <si>
+    <t>q9_src_eau_se_desseche</t>
+  </si>
+  <si>
+    <t>q10_se_baigne_eau_douce</t>
+  </si>
+  <si>
+    <t>q11_lessive_eau_douce</t>
+  </si>
+  <si>
+    <t>q12_sex</t>
+  </si>
+  <si>
+    <t>q13_age</t>
+  </si>
+  <si>
+    <t>q14_niveau_etude</t>
+  </si>
+  <si>
+    <t>q14_niveau_etude_other</t>
+  </si>
+  <si>
+    <t>q15_nbr_fois_vas_ecole</t>
+  </si>
+  <si>
+    <t>q16_repondant_a_maison</t>
+  </si>
+  <si>
+    <t>q17_repondant_repond_lui_meme</t>
+  </si>
+  <si>
+    <t>q18_repondant_a_chaussure</t>
+  </si>
+  <si>
+    <t>q19_repondant_ne_dans_com</t>
+  </si>
+  <si>
+    <t>q19_vis_dans_com_moins_1_an</t>
+  </si>
+  <si>
+    <t>q19_mois_repondant_est_dans_com</t>
+  </si>
+  <si>
+    <t>q19_annee_repondant_est_dans_com</t>
+  </si>
+  <si>
+    <t>q20_repondant_dans_com_2024</t>
+  </si>
+  <si>
+    <t>q21_raison_repondant_pas_com_2024</t>
+  </si>
+  <si>
+    <t>q22_repondant_savait_tdm</t>
+  </si>
+  <si>
+    <t>q23_moment_recu_info</t>
+  </si>
+  <si>
+    <t>q24_comment_entendu_tdm</t>
+  </si>
+  <si>
+    <t>q24_comment_entendu_tdm_autre</t>
+  </si>
+  <si>
+    <t>q25_propose_pzq</t>
+  </si>
+  <si>
+    <t>q26_raison_pas_propose_pzq</t>
+  </si>
+  <si>
+    <t>q26_raison_pas_propose_pzq_autre</t>
+  </si>
+  <si>
+    <t>q27_qui_a_donne_pzq</t>
+  </si>
+  <si>
+    <t>q27_qui_a_donne_pzq_autre</t>
+  </si>
+  <si>
+    <t>q28_avale_pzq</t>
+  </si>
+  <si>
+    <t>q29_raison_pas_avale_pzq</t>
+  </si>
+  <si>
+    <t>q29_raison_pas_avale_pzq_autre</t>
+  </si>
+  <si>
+    <t>q30_raison_avale_pzq</t>
+  </si>
+  <si>
+    <t>q30_raison_avale_pzq_autre</t>
+  </si>
+  <si>
+    <t>q31_avale_pzq_devant_distributeur</t>
+  </si>
+  <si>
+    <t>q32_effet_secondaire_pzq</t>
+  </si>
+  <si>
+    <t>q33_type_effet_secondaire_pzq</t>
+  </si>
+  <si>
+    <t>q34_nb_fois_participe_tdm_sch</t>
+  </si>
+  <si>
+    <t>q35_pourquoi_jamais_participe</t>
+  </si>
+  <si>
+    <t>q35_pourquoi_jamais_participe_autre</t>
+  </si>
+  <si>
+    <t>q36_entendu_parler_sch</t>
+  </si>
+  <si>
+    <t>q37_ou_entendu_parler_sch</t>
+  </si>
+  <si>
+    <t>q37_ou_entendu_parler_sch_autre</t>
+  </si>
+  <si>
+    <t>q38_transmission_sch</t>
+  </si>
+  <si>
+    <t>q38_transmission_sch_autre</t>
+  </si>
+  <si>
+    <t>q39_symptome_sch</t>
+  </si>
+  <si>
+    <t>q39_symptome_sch_autre</t>
+  </si>
+  <si>
+    <t>q40_prevention_sch</t>
+  </si>
+  <si>
+    <t>q40_prevention_sch_autre</t>
+  </si>
+  <si>
+    <t>q41_traitement_pzq</t>
+  </si>
+  <si>
+    <t>q41_traitement_pzq_autre</t>
+  </si>
+  <si>
+    <t>q42_selectionner_bandelette</t>
+  </si>
+  <si>
+    <t>q43_gradation</t>
+  </si>
+  <si>
+    <t>grading</t>
+  </si>
+  <si>
+    <t>Negatif</t>
+  </si>
+  <si>
+    <t>Négatif</t>
+  </si>
+  <si>
+    <t>Trace.hemolysee</t>
+  </si>
+  <si>
+    <t>Trace hémolysée</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>(1) Moins de 15 minutes aller-retour</t>
+  </si>
+  <si>
+    <t>(2) Plus de 15 minutes aller-retour</t>
+  </si>
+  <si>
+    <t>${q3_src_eau_potable_maison} = 'Autre'</t>
+  </si>
+  <si>
+    <t>${q7_profession} = 'Autre'</t>
+  </si>
+  <si>
+    <t>${q14_niveau_etude} = 'Autre'</t>
+  </si>
+  <si>
+    <t>${q19_repondant_ne_dans_com} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${q19_repondant_ne_dans_com} = 'Oui' and ${q19_vis_dans_com_moins_1_an} = 'Non'</t>
+  </si>
+  <si>
+    <t>${q19_repondant_ne_dans_com} = 'Oui' and ${q19_vis_dans_com_moins_1_an} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${q20_repondant_dans_com_2024} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${q22_repondant_savait_tdm} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${q24_comment_entendu_tdm} = 'Autre'</t>
+  </si>
+  <si>
+    <t>${q27_qui_a_donne_pzq} = 'Autre'</t>
+  </si>
+  <si>
+    <t>${q28_avale_pzq} = 'Non'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${q29_raison_pas_avale_pzq} = 'Autre' </t>
+  </si>
+  <si>
+    <t>${q30_raison_avale_pzq} = 'Autre'</t>
+  </si>
+  <si>
+    <t>${q28_avale_pzq} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${q32_effet_secondaire_pzq} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${q32_effet_secondaire_pzq} = 'Non'</t>
+  </si>
+  <si>
+    <t>${q35_pourquoi_jamais_participe} = 'Autre'</t>
+  </si>
+  <si>
+    <t>${q36_entendu_parler_sch} = 'Oui'</t>
+  </si>
+  <si>
+    <t>selected(${q38_transmission_sch}, 'Autre')</t>
+  </si>
+  <si>
+    <t>selected(${q39_symptome_sch}, 'Autre')</t>
+  </si>
+  <si>
+    <t>selected(${q41_traitement_pzq}, 'Autre')</t>
+  </si>
+  <si>
+    <t>${q25_propose_pzq} = 'Non'</t>
+  </si>
+  <si>
+    <t>${q26_raison_pas_propose_pzq}  = 'Autre'</t>
+  </si>
+  <si>
+    <t>selected(${q40_prevention_sch}, 'Autre')</t>
+  </si>
+  <si>
+    <t>${q37_ou_entendu_parler_sch} = 'Autre'</t>
+  </si>
+  <si>
+    <t>q1_nbre_eas_ds_menage</t>
+  </si>
+  <si>
+    <t>Q1.a. Combien d'enfant d'âge scolaire vivent dans le ménage ?</t>
+  </si>
+  <si>
+    <t>q4_toilette_maison_autre</t>
+  </si>
+  <si>
+    <t>Q4.a. Veuillez préciser les autres type de toilette?</t>
+  </si>
+  <si>
+    <t>${q4_toilette_maison} = 'Autre'</t>
+  </si>
+  <si>
+    <t>1= Étudiant ;</t>
+  </si>
+  <si>
+    <t>2 = agriculteur ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 = Berger ; </t>
+  </si>
+  <si>
+    <t>4 = Pêcheur ;</t>
+  </si>
+  <si>
+    <t>6 = commerçant ;</t>
+  </si>
+  <si>
+    <t>7 = ménagère ;</t>
+  </si>
+  <si>
+    <t>5 = travail de bureau (y compris Gouvernement/secteur public/ONG) ;</t>
+  </si>
+  <si>
+    <t>${q25_propose_pzq} = 'Oui'</t>
+  </si>
+  <si>
+    <t>0 = Jamais</t>
+  </si>
+  <si>
+    <t>${q34_nb_fois_participe_tdm_sch} = '0 = Jamais'</t>
+  </si>
+  <si>
+    <t>${q42_selectionner_bandelette} = 'Oui'</t>
+  </si>
+  <si>
+    <t>concat(substr(${arrondissement} , 0, 2), '_', if(${last-saved#q0_numero_menage}!=null,${last-saved#q0_numero_menage} + 1,1))</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>tg_sch_p_2404_v3_1</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>q12_code_id</t>
+  </si>
+  <si>
+    <t>Q12.a. Code participant</t>
+  </si>
+  <si>
+    <t>Q12.b. Sexe de l’enfant enquêté</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>${q1_nbre_eas_ds_menage}</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>concat(${q0_numero_menage}, '_', position(..))</t>
+  </si>
+  <si>
+    <t>. &lt;= ${q1_nbre_personne_ds_menage}</t>
+  </si>
+  <si>
+    <t>Le nombre d'enfant dâge scolaire ne peut pas dépasser le nombre de personnes vivant dans le ménage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1768,8 +1964,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1782,8 +1992,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1856,60 +2078,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2206,10 +2473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -2222,14 +2490,14 @@
     <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="28.375" style="5" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.125" style="5" customWidth="1"/>
     <col min="12" max="12" width="9.875" style="5" customWidth="1"/>
     <col min="13" max="16384" width="10.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2266,13 +2534,16 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="21" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>128</v>
@@ -2287,12 +2558,12 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
@@ -2307,7 +2578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -2321,7 +2592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
@@ -2335,7 +2606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>109</v>
       </c>
@@ -2349,10 +2620,10 @@
         <v>14</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
         <v>110</v>
       </c>
@@ -2366,10 +2637,10 @@
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
         <v>113</v>
       </c>
@@ -2389,15 +2660,15 @@
         <v>20</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -2409,7 +2680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
         <v>125</v>
       </c>
@@ -2423,12 +2694,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>139</v>
@@ -2437,15 +2708,15 @@
         <v>14</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="21" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>129</v>
@@ -2460,12 +2731,12 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>130</v>
@@ -2473,13 +2744,16 @@
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="I13" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>201</v>
+        <v>486</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>131</v>
@@ -2488,12 +2762,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="15" spans="1:13">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>202</v>
+        <v>487</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>132</v>
@@ -2521,7 +2815,7 @@
         <v>140</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>136</v>
@@ -2535,7 +2829,7 @@
         <v>135</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>203</v>
+        <v>489</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>156</v>
@@ -2544,7 +2838,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>204</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2552,7 +2846,7 @@
         <v>141</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>162</v>
+        <v>490</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>137</v>
@@ -2563,33 +2857,33 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>163</v>
+        <v>584</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>284</v>
+        <v>585</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H21" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>169</v>
+        <v>491</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -2597,13 +2891,16 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>174</v>
+        <v>492</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>138</v>
+        <v>255</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -2611,58 +2908,58 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>205</v>
+        <v>493</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="A25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>208</v>
+        <v>495</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -2670,13 +2967,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="5" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>209</v>
+        <v>496</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -2684,13 +2981,13 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>210</v>
+        <v>497</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -2698,360 +2995,365 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>212</v>
+        <v>498</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="A31" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:13" s="24" customFormat="1">
+      <c r="A33" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="24" customFormat="1" ht="31.5">
+      <c r="A34" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="B35" s="5" t="s">
-        <v>243</v>
+        <v>500</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>215</v>
+        <v>604</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>223</v>
+        <v>501</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>224</v>
+        <v>502</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>225</v>
+        <v>503</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="H38" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>226</v>
+        <v>504</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>251</v>
+        <v>505</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>252</v>
+        <v>506</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>258</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>255</v>
+        <v>507</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>256</v>
+        <v>508</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>228</v>
+        <v>509</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>227</v>
+        <v>510</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-    </row>
-    <row r="47" spans="1:12">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>297</v>
+        <v>512</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>304</v>
+        <v>513</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>298</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>298</v>
-      </c>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="5" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>317</v>
+        <v>514</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="5" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>320</v>
+        <v>515</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H51" s="5" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="5" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>322</v>
+        <v>516</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>321</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3059,27 +3361,30 @@
         <v>135</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>342</v>
+        <v>517</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>344</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="5" t="s">
-        <v>346</v>
+        <v>187</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>345</v>
+        <v>518</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>290</v>
+        <v>251</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -3087,53 +3392,53 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="5" t="s">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>356</v>
+        <v>519</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>357</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="5" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>358</v>
+        <v>520</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H56" s="5" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="5" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>360</v>
+        <v>521</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>359</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3141,401 +3446,480 @@
         <v>135</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>393</v>
+        <v>522</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>394</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="5" t="s">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>375</v>
+        <v>523</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>293</v>
+        <v>261</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H59" s="5" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="5" t="s">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>396</v>
+        <v>524</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>398</v>
+        <v>262</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>397</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="5" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>383</v>
+        <v>525</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>374</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="5" t="s">
-        <v>190</v>
+        <v>345</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>384</v>
+        <v>526</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>374</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="5" t="s">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>387</v>
+        <v>527</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>385</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
+      <c r="A64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="5" t="s">
-        <v>406</v>
+        <v>187</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>405</v>
+        <v>529</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>399</v>
+        <v>265</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>386</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="5" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>408</v>
+        <v>530</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>401</v>
+        <v>266</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>407</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="E67" s="5" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
+      <c r="H68" s="5" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="5" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>419</v>
+        <v>350</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H69" s="5" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="5" t="s">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>442</v>
+        <v>533</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>430</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>446</v>
-      </c>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="5" t="s">
-        <v>470</v>
+        <v>375</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="5" t="s">
-        <v>430</v>
-      </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="5" t="s">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>502</v>
+        <v>366</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>472</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="5" t="s">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>430</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="5" t="s">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>503</v>
+        <v>367</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="5" t="s">
-        <v>542</v>
+        <v>135</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>430</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="5" t="s">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>543</v>
+        <v>368</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="5" t="s">
-        <v>541</v>
+        <v>135</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>540</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>430</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="5" t="s">
-        <v>135</v>
+        <v>479</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>544</v>
+        <v>369</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="H80" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="5" t="s">
+      <c r="B85" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="5" t="s">
+    <row r="86" spans="1:8">
+      <c r="A86" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="5" t="s">
+    <row r="88" spans="1:8">
+      <c r="A88" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3547,11 +3931,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A226" sqref="A226:A233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -3729,10 +4113,10 @@
         <v>133</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -3744,10 +4128,10 @@
         <v>133</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -3906,7 +4290,7 @@
         <v>123</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -4020,7 +4404,7 @@
         <v>123</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="20"/>
@@ -4238,11 +4622,11 @@
       <c r="A48" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>175</v>
+      <c r="B48" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>587</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
@@ -4253,11 +4637,11 @@
       <c r="A49" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>176</v>
+      <c r="B49" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>588</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
@@ -4269,10 +4653,10 @@
         <v>174</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>177</v>
+        <v>589</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>177</v>
+        <v>589</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
@@ -4284,10 +4668,10 @@
         <v>174</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>178</v>
+        <v>590</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>178</v>
+        <v>590</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
@@ -4298,11 +4682,11 @@
       <c r="A52" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>179</v>
+      <c r="B52" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>593</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
@@ -4310,9 +4694,15 @@
       <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="A53" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>591</v>
+      </c>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -4320,13 +4710,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>186</v>
+        <v>174</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>592</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="20"/>
@@ -4335,13 +4725,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
@@ -4350,13 +4740,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="20"/>
@@ -4374,13 +4764,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>230</v>
+        <v>186</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="20"/>
@@ -4389,13 +4779,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>231</v>
+        <v>186</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="20"/>
@@ -4403,24 +4793,24 @@
       <c r="G59" s="20"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
+      <c r="A60" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="D60" s="19"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B61" s="19">
-        <v>5</v>
-      </c>
-      <c r="C61" s="19">
-        <v>5</v>
-      </c>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -4428,13 +4818,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B62" s="19">
-        <v>6</v>
-      </c>
-      <c r="C62" s="19">
-        <v>6</v>
+        <v>198</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>555</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="20"/>
@@ -4443,13 +4833,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B63" s="19">
-        <v>7</v>
-      </c>
-      <c r="C63" s="19">
-        <v>7</v>
+        <v>198</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>556</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="20"/>
@@ -4457,24 +4847,24 @@
       <c r="G63" s="20"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="D64" s="19"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>237</v>
-      </c>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -4482,13 +4872,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="19" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="20"/>
@@ -4497,13 +4887,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="19" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="20"/>
@@ -4511,15 +4901,9 @@
       <c r="G67" s="20"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>240</v>
-      </c>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -4527,13 +4911,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>241</v>
+        <v>207</v>
+      </c>
+      <c r="B69" s="19">
+        <v>5</v>
+      </c>
+      <c r="C69" s="19">
+        <v>5</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="20"/>
@@ -4542,13 +4926,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>242</v>
+        <v>207</v>
+      </c>
+      <c r="B70" s="19">
+        <v>6</v>
+      </c>
+      <c r="C70" s="19">
+        <v>6</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="20"/>
@@ -4556,24 +4940,24 @@
       <c r="G70" s="20"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="19">
+        <v>7</v>
+      </c>
+      <c r="C71" s="19">
+        <v>7</v>
+      </c>
       <c r="D71" s="19"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>245</v>
-      </c>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -4581,13 +4965,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="19" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="20"/>
@@ -4596,13 +4980,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="19" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="20"/>
@@ -4611,13 +4995,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="19" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
@@ -4625,9 +5009,15 @@
       <c r="G75" s="20"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
+      <c r="A76" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>221</v>
+      </c>
       <c r="D76" s="19"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
@@ -4635,13 +5025,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="19" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="20"/>
@@ -4650,13 +5040,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="19" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="20"/>
@@ -4664,15 +5054,9 @@
       <c r="G78" s="20"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>265</v>
-      </c>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -4680,13 +5064,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="19" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="20"/>
@@ -4695,13 +5079,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="19" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="20"/>
@@ -4710,13 +5094,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="19" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="20"/>
@@ -4725,13 +5109,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="19" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="20"/>
@@ -4739,24 +5123,24 @@
       <c r="G83" s="20"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>270</v>
-      </c>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
+      <c r="A85" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="D85" s="19"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -4764,13 +5148,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="19" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="20"/>
@@ -4779,13 +5163,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="19" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="20"/>
@@ -4794,13 +5178,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="19" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="20"/>
@@ -4809,13 +5193,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="19" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="20"/>
@@ -4823,9 +5207,15 @@
       <c r="G89" s="20"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+      <c r="A90" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="D90" s="19"/>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -4833,13 +5223,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="19" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="20"/>
@@ -4848,13 +5238,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="19" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>308</v>
+        <v>123</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="20"/>
@@ -4862,15 +5252,9 @@
       <c r="G92" s="20"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>309</v>
-      </c>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -4878,13 +5262,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="19" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="20"/>
@@ -4893,13 +5277,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="19" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="20"/>
@@ -4908,13 +5292,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="19" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="20"/>
@@ -4923,13 +5307,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="19" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="20"/>
@@ -4937,15 +5321,9 @@
       <c r="G97" s="20"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>314</v>
-      </c>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="19"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -4953,13 +5331,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="19" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="20"/>
@@ -4968,13 +5346,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="19" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="20"/>
@@ -4982,9 +5360,15 @@
       <c r="G100" s="20"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="A101" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>277</v>
+      </c>
       <c r="D101" s="19"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -4992,13 +5376,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="19" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="20"/>
@@ -5007,13 +5391,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="19" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="20"/>
@@ -5022,13 +5406,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="19" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="20"/>
@@ -5037,13 +5421,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="19" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="20"/>
@@ -5052,13 +5436,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="19" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="20"/>
@@ -5067,13 +5451,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="19" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="20"/>
@@ -5082,13 +5466,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="19" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="20"/>
@@ -5096,15 +5480,9 @@
       <c r="G108" s="20"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>330</v>
-      </c>
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="19"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -5112,13 +5490,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="20"/>
@@ -5127,13 +5505,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="20"/>
@@ -5142,13 +5520,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="20"/>
@@ -5157,13 +5535,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="20"/>
@@ -5172,13 +5550,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="20"/>
@@ -5187,13 +5565,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="20"/>
@@ -5202,13 +5580,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="20"/>
@@ -5217,13 +5595,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="20"/>
@@ -5232,13 +5610,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="20"/>
@@ -5247,127 +5625,133 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="19" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="D119" s="15"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
+        <v>296</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="19"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
+      <c r="A120" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D120" s="19"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="19" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="D121" s="15"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
+        <v>298</v>
+      </c>
+      <c r="D121" s="19"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="19" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="15"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
+        <v>299</v>
+      </c>
+      <c r="D122" s="19"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="19" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="D123" s="15"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
+        <v>300</v>
+      </c>
+      <c r="D123" s="19"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="19" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="D124" s="15"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
+        <v>301</v>
+      </c>
+      <c r="D124" s="19"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="19" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D125" s="15"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
+        <v>302</v>
+      </c>
+      <c r="D125" s="19"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="19" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="D126" s="15"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
+        <v>303</v>
+      </c>
+      <c r="D126" s="19"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="19" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>355</v>
+        <v>123</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="16"/>
@@ -5385,13 +5769,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="19" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
@@ -5400,13 +5784,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="19" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="16"/>
@@ -5415,13 +5799,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="19" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="16"/>
@@ -5430,13 +5814,13 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="19" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="16"/>
@@ -5445,13 +5829,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="19" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="16"/>
@@ -5460,13 +5844,13 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="19" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>364</v>
+        <v>123</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="16"/>
@@ -5475,13 +5859,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="19" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -5489,15 +5873,9 @@
       <c r="G135" s="16"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>366</v>
-      </c>
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
@@ -5505,13 +5883,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="19" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="16"/>
@@ -5520,13 +5898,13 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="19" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -5535,13 +5913,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="19" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="16"/>
@@ -5550,13 +5928,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="19" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="16"/>
@@ -5565,13 +5943,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="19" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="16"/>
@@ -5580,13 +5958,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="19" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="16"/>
@@ -5594,9 +5972,15 @@
       <c r="G142" s="16"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
+      <c r="A143" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>323</v>
+      </c>
       <c r="D143" s="15"/>
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
@@ -5604,13 +5988,13 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="19" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="16"/>
@@ -5619,13 +6003,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="19" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="16"/>
@@ -5634,13 +6018,13 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="19" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="16"/>
@@ -5649,13 +6033,13 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="19" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="16"/>
@@ -5664,13 +6048,13 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="19" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="16"/>
@@ -5679,13 +6063,13 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="19" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="16"/>
@@ -5694,13 +6078,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="19" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>382</v>
+        <v>123</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="16"/>
@@ -5708,24 +6092,24 @@
       <c r="G150" s="16"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="B151" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>316</v>
-      </c>
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="19"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
+      <c r="A152" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>333</v>
+      </c>
       <c r="D152" s="15"/>
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
@@ -5733,13 +6117,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="19" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="16"/>
@@ -5748,13 +6132,13 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="19" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="16"/>
@@ -5763,13 +6147,13 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="19" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="16"/>
@@ -5777,9 +6161,15 @@
       <c r="G155" s="16"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
+      <c r="A156" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>337</v>
+      </c>
       <c r="D156" s="15"/>
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
@@ -5787,13 +6177,13 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="19" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="16"/>
@@ -5802,13 +6192,13 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="19" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="16"/>
@@ -5817,13 +6207,13 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="19" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>404</v>
+        <v>123</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="16"/>
@@ -5831,24 +6221,24 @@
       <c r="G159" s="16"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>302</v>
-      </c>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
       <c r="D160" s="15"/>
       <c r="E160" s="16"/>
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="19"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
+      <c r="A161" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>342</v>
+      </c>
       <c r="D161" s="15"/>
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
@@ -5856,13 +6246,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="19" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -5871,13 +6261,13 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="19" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -5885,15 +6275,9 @@
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="B164" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>412</v>
-      </c>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="15"/>
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
@@ -5901,13 +6285,13 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>413</v>
+        <v>354</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>595</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
@@ -5916,13 +6300,13 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="19" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="16"/>
@@ -5931,13 +6315,13 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="19" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="16"/>
@@ -5945,24 +6329,24 @@
       <c r="G167" s="16"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="19"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
+      <c r="A168" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>270</v>
+      </c>
       <c r="D168" s="15"/>
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>425</v>
-      </c>
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="15"/>
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
@@ -5970,13 +6354,13 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="19" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="16"/>
@@ -5985,13 +6369,13 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="19" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="16"/>
@@ -6000,13 +6384,13 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="19" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="16"/>
@@ -6014,9 +6398,15 @@
       <c r="G172" s="16"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="19"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
+      <c r="A173" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>361</v>
+      </c>
       <c r="D173" s="15"/>
       <c r="E173" s="16"/>
       <c r="F173" s="16"/>
@@ -6024,13 +6414,13 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="19" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>431</v>
+        <v>123</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="16"/>
@@ -6039,13 +6429,13 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="19" t="s">
-        <v>442</v>
+        <v>356</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="16"/>
@@ -6053,15 +6443,9 @@
       <c r="G175" s="16"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>433</v>
-      </c>
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="15"/>
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
@@ -6069,13 +6453,13 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="19" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="16"/>
@@ -6084,13 +6468,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="19" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="16"/>
@@ -6099,13 +6483,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="19" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="16"/>
@@ -6114,13 +6498,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="19" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>437</v>
+        <v>155</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>437</v>
+        <v>155</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="16"/>
@@ -6128,15 +6512,9 @@
       <c r="G180" s="16"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B181" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C181" s="19" t="s">
-        <v>438</v>
-      </c>
+      <c r="A181" s="19"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
       <c r="D181" s="15"/>
       <c r="E181" s="16"/>
       <c r="F181" s="16"/>
@@ -6144,13 +6522,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="19" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>439</v>
+        <v>376</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>439</v>
+        <v>376</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="16"/>
@@ -6159,13 +6537,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="19" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="16"/>
@@ -6174,13 +6552,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="19" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>123</v>
+        <v>378</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="16"/>
@@ -6188,9 +6566,15 @@
       <c r="G184" s="16"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="19"/>
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
+      <c r="A185" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>379</v>
+      </c>
       <c r="D185" s="15"/>
       <c r="E185" s="16"/>
       <c r="F185" s="16"/>
@@ -6198,13 +6582,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="19" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>458</v>
+        <v>380</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="16"/>
@@ -6213,13 +6597,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="19" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>459</v>
+        <v>381</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="16"/>
@@ -6228,13 +6612,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="19" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>460</v>
+        <v>382</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>449</v>
+        <v>382</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="16"/>
@@ -6243,13 +6627,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="19" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
@@ -6258,13 +6642,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="19" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>462</v>
+        <v>384</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -6273,13 +6657,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="19" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="16"/>
@@ -6288,13 +6672,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="19" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>464</v>
+        <v>123</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -6302,15 +6686,9 @@
       <c r="G192" s="16"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="C193" s="19" t="s">
-        <v>454</v>
-      </c>
+      <c r="A193" s="19"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
       <c r="D193" s="15"/>
       <c r="E193" s="16"/>
       <c r="F193" s="16"/>
@@ -6318,13 +6696,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="19" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>455</v>
+        <v>390</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="16"/>
@@ -6333,13 +6711,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="19" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
@@ -6348,13 +6726,13 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="19" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>468</v>
+        <v>403</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="16"/>
@@ -6363,13 +6741,13 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="19" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="16"/>
@@ -6377,9 +6755,15 @@
       <c r="G197" s="16"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="19"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
+      <c r="A198" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>394</v>
+      </c>
       <c r="D198" s="15"/>
       <c r="E198" s="16"/>
       <c r="F198" s="16"/>
@@ -6387,13 +6771,13 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="19" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>486</v>
+        <v>406</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>473</v>
+        <v>395</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="16"/>
@@ -6402,13 +6786,13 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="19" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>487</v>
+        <v>407</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>474</v>
+        <v>396</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="16"/>
@@ -6417,13 +6801,13 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="19" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>488</v>
+        <v>408</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>475</v>
+        <v>397</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="16"/>
@@ -6432,13 +6816,13 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="19" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>476</v>
+        <v>398</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="16"/>
@@ -6447,13 +6831,13 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="19" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>477</v>
+        <v>399</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="16"/>
@@ -6462,13 +6846,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="19" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>478</v>
+        <v>400</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="16"/>
@@ -6477,13 +6861,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="19" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>492</v>
+        <v>123</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="16"/>
@@ -6491,15 +6875,9 @@
       <c r="G205" s="16"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="B206" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="C206" s="19" t="s">
-        <v>480</v>
-      </c>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
       <c r="D206" s="15"/>
       <c r="E206" s="16"/>
       <c r="F206" s="16"/>
@@ -6507,13 +6885,13 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="19" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="16"/>
@@ -6522,13 +6900,13 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="19" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>495</v>
+        <v>428</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="16"/>
@@ -6537,13 +6915,13 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="19" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="16"/>
@@ -6552,13 +6930,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="19" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="16"/>
@@ -6567,13 +6945,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="19" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="16"/>
@@ -6582,13 +6960,13 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="19" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>123</v>
+        <v>432</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="16"/>
@@ -6596,9 +6974,15 @@
       <c r="G212" s="16"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="19"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
+      <c r="A213" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>420</v>
+      </c>
       <c r="D213" s="15"/>
       <c r="E213" s="16"/>
       <c r="F213" s="16"/>
@@ -6606,13 +6990,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="19" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>513</v>
+        <v>434</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>505</v>
+        <v>421</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="16"/>
@@ -6621,13 +7005,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="19" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>506</v>
+        <v>422</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="16"/>
@@ -6636,13 +7020,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="19" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>515</v>
+        <v>436</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>507</v>
+        <v>423</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="16"/>
@@ -6651,13 +7035,13 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="19" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>516</v>
+        <v>437</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
@@ -6666,13 +7050,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="19" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>517</v>
+        <v>438</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>509</v>
+        <v>425</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="16"/>
@@ -6681,13 +7065,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="19" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>518</v>
+        <v>439</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>510</v>
+        <v>426</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -6696,13 +7080,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="19" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>519</v>
+        <v>123</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>511</v>
+        <v>386</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="16"/>
@@ -6710,15 +7094,9 @@
       <c r="G220" s="16"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="B221" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="C221" s="19" t="s">
-        <v>512</v>
-      </c>
+      <c r="A221" s="19"/>
+      <c r="B221" s="19"/>
+      <c r="C221" s="19"/>
       <c r="D221" s="15"/>
       <c r="E221" s="16"/>
       <c r="F221" s="16"/>
@@ -6726,13 +7104,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="19" t="s">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="16"/>
@@ -6741,13 +7119,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="19" t="s">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="16"/>
@@ -6756,13 +7134,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="19" t="s">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>123</v>
+        <v>454</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="16"/>
@@ -6770,9 +7148,15 @@
       <c r="G224" s="16"/>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="19"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
+      <c r="A225" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>447</v>
+      </c>
       <c r="D225" s="15"/>
       <c r="E225" s="16"/>
       <c r="F225" s="16"/>
@@ -6780,13 +7164,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="19" t="s">
-        <v>540</v>
+        <v>462</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>533</v>
+        <v>456</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>526</v>
+        <v>448</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="16"/>
@@ -6795,13 +7179,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="19" t="s">
-        <v>540</v>
+        <v>462</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>534</v>
+        <v>457</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>527</v>
+        <v>449</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="16"/>
@@ -6810,13 +7194,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="19" t="s">
-        <v>540</v>
+        <v>462</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>535</v>
+        <v>458</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>528</v>
+        <v>450</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="16"/>
@@ -6825,13 +7209,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="19" t="s">
-        <v>540</v>
+        <v>462</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>536</v>
+        <v>459</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>529</v>
+        <v>451</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="16"/>
@@ -6840,13 +7224,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="19" t="s">
-        <v>540</v>
+        <v>462</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>537</v>
+        <v>460</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>530</v>
+        <v>384</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="16"/>
@@ -6855,13 +7239,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="19" t="s">
-        <v>540</v>
+        <v>462</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>538</v>
+        <v>461</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>531</v>
+        <v>385</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="16"/>
@@ -6870,13 +7254,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="19" t="s">
-        <v>540</v>
+        <v>462</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>539</v>
+        <v>123</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>532</v>
+        <v>386</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="16"/>
@@ -6884,87 +7268,129 @@
       <c r="G232" s="16"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="B233" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C233" s="19" t="s">
-        <v>441</v>
-      </c>
+      <c r="A233" s="19"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
       <c r="D233" s="15"/>
       <c r="E233" s="16"/>
       <c r="F233" s="16"/>
       <c r="G233" s="16"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="19"/>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
+      <c r="A234" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>463</v>
+      </c>
       <c r="D234" s="15"/>
       <c r="E234" s="16"/>
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="19"/>
-      <c r="B235" s="19"/>
-      <c r="C235" s="19"/>
+      <c r="A235" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C235" s="19" t="s">
+        <v>464</v>
+      </c>
       <c r="D235" s="15"/>
       <c r="E235" s="16"/>
       <c r="F235" s="16"/>
       <c r="G235" s="16"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="19"/>
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
+      <c r="A236" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B236" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>465</v>
+      </c>
       <c r="D236" s="15"/>
       <c r="E236" s="16"/>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="19"/>
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
+      <c r="A237" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>466</v>
+      </c>
       <c r="D237" s="15"/>
       <c r="E237" s="16"/>
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="19"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="A238" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="C238" s="19" t="s">
+        <v>467</v>
+      </c>
       <c r="D238" s="15"/>
       <c r="E238" s="16"/>
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="19"/>
-      <c r="B239" s="19"/>
-      <c r="C239" s="19"/>
+      <c r="A239" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C239" s="19" t="s">
+        <v>468</v>
+      </c>
       <c r="D239" s="15"/>
       <c r="E239" s="16"/>
       <c r="F239" s="16"/>
       <c r="G239" s="16"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="19"/>
-      <c r="B240" s="19"/>
-      <c r="C240" s="19"/>
+      <c r="A240" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>469</v>
+      </c>
       <c r="D240" s="15"/>
       <c r="E240" s="16"/>
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="19"/>
-      <c r="B241" s="19"/>
-      <c r="C241" s="19"/>
+      <c r="A241" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B241" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>386</v>
+      </c>
       <c r="D241" s="15"/>
       <c r="E241" s="16"/>
       <c r="F241" s="16"/>
@@ -6980,45 +7406,75 @@
       <c r="G242" s="16"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="19"/>
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
+      <c r="A243" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="B243" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C243" s="19" t="s">
+        <v>549</v>
+      </c>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
       <c r="F243" s="16"/>
       <c r="G243" s="16"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="19"/>
-      <c r="B244" s="19"/>
-      <c r="C244" s="19"/>
+      <c r="A244" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>551</v>
+      </c>
       <c r="D244" s="15"/>
       <c r="E244" s="16"/>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="19"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
+      <c r="A245" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>552</v>
+      </c>
       <c r="D245" s="15"/>
       <c r="E245" s="16"/>
       <c r="F245" s="16"/>
       <c r="G245" s="16"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="19"/>
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
+      <c r="A246" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>553</v>
+      </c>
       <c r="D246" s="15"/>
       <c r="E246" s="16"/>
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="19"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="19"/>
+      <c r="A247" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="B247" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>554</v>
+      </c>
       <c r="D247" s="15"/>
       <c r="E247" s="16"/>
       <c r="F247" s="16"/>
@@ -7034,1307 +7490,1522 @@
       <c r="G248" s="16"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="19"/>
-      <c r="B249" s="19"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="15"/>
-      <c r="E249" s="16"/>
-      <c r="F249" s="16"/>
-      <c r="G249" s="16"/>
+      <c r="A249" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="19"/>
-      <c r="B250" s="19"/>
-      <c r="C250" s="19"/>
-      <c r="D250" s="15"/>
-      <c r="E250" s="16"/>
-      <c r="F250" s="16"/>
-      <c r="G250" s="16"/>
+      <c r="A250" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="19"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="15"/>
-      <c r="E251" s="16"/>
-      <c r="F251" s="16"/>
-      <c r="G251" s="16"/>
+      <c r="A251" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="19"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="15"/>
-      <c r="E252" s="16"/>
-      <c r="F252" s="16"/>
-      <c r="G252" s="16"/>
+      <c r="A252" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="19"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="15"/>
-      <c r="E253" s="16"/>
-      <c r="F253" s="16"/>
-      <c r="G253" s="16"/>
+      <c r="A253" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="19"/>
-      <c r="B254" s="19"/>
-      <c r="C254" s="19"/>
-      <c r="D254" s="15"/>
-      <c r="E254" s="16"/>
-      <c r="F254" s="16"/>
-      <c r="G254" s="16"/>
+      <c r="A254" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="19"/>
-      <c r="B255" s="19"/>
-      <c r="C255" s="19"/>
-      <c r="D255" s="15"/>
-      <c r="E255" s="16"/>
-      <c r="F255" s="16"/>
-      <c r="G255" s="16"/>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="19"/>
-      <c r="B256" s="19"/>
-      <c r="C256" s="19"/>
-      <c r="D256" s="15"/>
-      <c r="E256" s="16"/>
-      <c r="F256" s="16"/>
-      <c r="G256" s="16"/>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="19"/>
-      <c r="B257" s="19"/>
-      <c r="C257" s="19"/>
-      <c r="D257" s="15"/>
-      <c r="E257" s="16"/>
-      <c r="F257" s="16"/>
-      <c r="G257" s="16"/>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="19"/>
-      <c r="B258" s="19"/>
-      <c r="C258" s="19"/>
-      <c r="D258" s="15"/>
-      <c r="E258" s="16"/>
-      <c r="F258" s="16"/>
-      <c r="G258" s="16"/>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="19"/>
-      <c r="B259" s="19"/>
-      <c r="C259" s="19"/>
-      <c r="D259" s="15"/>
-      <c r="E259" s="16"/>
-      <c r="F259" s="16"/>
-      <c r="G259" s="16"/>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="19"/>
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
-      <c r="D260" s="15"/>
-      <c r="E260" s="16"/>
-      <c r="F260" s="16"/>
-      <c r="G260" s="16"/>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="19"/>
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="15"/>
-      <c r="E261" s="16"/>
-      <c r="F261" s="16"/>
-      <c r="G261" s="16"/>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="19"/>
-      <c r="B262" s="19"/>
-      <c r="C262" s="19"/>
-      <c r="D262" s="15"/>
-      <c r="E262" s="16"/>
-      <c r="F262" s="16"/>
-      <c r="G262" s="16"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="19"/>
-      <c r="B263" s="19"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="15"/>
-      <c r="E263" s="16"/>
-      <c r="F263" s="16"/>
-      <c r="G263" s="16"/>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="19"/>
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="15"/>
-      <c r="E264" s="16"/>
-      <c r="F264" s="16"/>
-      <c r="G264" s="16"/>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="19"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
-      <c r="D265" s="15"/>
-      <c r="E265" s="16"/>
-      <c r="F265" s="16"/>
-      <c r="G265" s="16"/>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="19"/>
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
-      <c r="D266" s="15"/>
-      <c r="E266" s="16"/>
-      <c r="F266" s="16"/>
-      <c r="G266" s="16"/>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="19"/>
-      <c r="B267" s="19"/>
-      <c r="C267" s="19"/>
-      <c r="D267" s="15"/>
-      <c r="E267" s="16"/>
-      <c r="F267" s="16"/>
-      <c r="G267" s="16"/>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="19"/>
-      <c r="B268" s="19"/>
-      <c r="C268" s="19"/>
-      <c r="D268" s="15"/>
-      <c r="E268" s="16"/>
-      <c r="F268" s="16"/>
-      <c r="G268" s="16"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="19"/>
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="15"/>
-      <c r="E269" s="16"/>
-      <c r="F269" s="16"/>
-      <c r="G269" s="16"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="19"/>
-      <c r="B270" s="19"/>
-      <c r="C270" s="19"/>
-      <c r="D270" s="15"/>
-      <c r="E270" s="16"/>
-      <c r="F270" s="16"/>
-      <c r="G270" s="16"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="19"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="15"/>
-      <c r="E271" s="16"/>
-      <c r="F271" s="16"/>
-      <c r="G271" s="16"/>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="19"/>
-      <c r="B272" s="19"/>
-      <c r="C272" s="19"/>
-      <c r="D272" s="15"/>
-      <c r="E272" s="16"/>
-      <c r="F272" s="16"/>
-      <c r="G272" s="16"/>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="19"/>
-      <c r="B273" s="19"/>
-      <c r="C273" s="19"/>
-      <c r="D273" s="15"/>
-      <c r="E273" s="16"/>
-      <c r="F273" s="16"/>
-      <c r="G273" s="16"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="19"/>
-      <c r="B274" s="19"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="15"/>
-      <c r="E274" s="16"/>
-      <c r="F274" s="16"/>
-      <c r="G274" s="16"/>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="19"/>
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
-      <c r="D275" s="15"/>
-      <c r="E275" s="16"/>
-      <c r="F275" s="16"/>
-      <c r="G275" s="16"/>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="19"/>
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="15"/>
-      <c r="E276" s="16"/>
-      <c r="F276" s="16"/>
-      <c r="G276" s="16"/>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="19"/>
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="15"/>
-      <c r="E277" s="16"/>
-      <c r="F277" s="16"/>
-      <c r="G277" s="16"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="19"/>
-      <c r="B278" s="19"/>
-      <c r="C278" s="19"/>
-      <c r="D278" s="15"/>
-      <c r="E278" s="16"/>
-      <c r="F278" s="16"/>
-      <c r="G278" s="16"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="19"/>
-      <c r="B279" s="19"/>
-      <c r="C279" s="19"/>
-      <c r="D279" s="15"/>
-      <c r="E279" s="16"/>
-      <c r="F279" s="16"/>
-      <c r="G279" s="16"/>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="19"/>
-      <c r="B280" s="19"/>
-      <c r="C280" s="19"/>
-      <c r="D280" s="15"/>
-      <c r="E280" s="16"/>
-      <c r="F280" s="16"/>
-      <c r="G280" s="16"/>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="19"/>
-      <c r="B281" s="19"/>
-      <c r="C281" s="19"/>
-      <c r="D281" s="15"/>
-      <c r="E281" s="16"/>
-      <c r="F281" s="16"/>
-      <c r="G281" s="16"/>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="19"/>
-      <c r="B282" s="19"/>
-      <c r="C282" s="19"/>
-      <c r="D282" s="15"/>
-      <c r="E282" s="16"/>
-      <c r="F282" s="16"/>
-      <c r="G282" s="16"/>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="19"/>
-      <c r="B283" s="19"/>
-      <c r="C283" s="19"/>
-      <c r="D283" s="15"/>
-      <c r="E283" s="16"/>
-      <c r="F283" s="16"/>
-      <c r="G283" s="16"/>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="19"/>
-      <c r="B284" s="19"/>
-      <c r="C284" s="19"/>
-      <c r="D284" s="15"/>
-      <c r="E284" s="16"/>
-      <c r="F284" s="16"/>
-      <c r="G284" s="16"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="19"/>
-      <c r="B285" s="19"/>
-      <c r="C285" s="19"/>
-      <c r="D285" s="15"/>
-      <c r="E285" s="16"/>
-      <c r="F285" s="16"/>
-      <c r="G285" s="16"/>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="19"/>
-      <c r="B286" s="19"/>
-      <c r="C286" s="19"/>
-      <c r="D286" s="15"/>
-      <c r="E286" s="16"/>
-      <c r="F286" s="16"/>
-      <c r="G286" s="16"/>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="19"/>
-      <c r="B287" s="19"/>
-      <c r="C287" s="19"/>
-      <c r="D287" s="15"/>
-      <c r="E287" s="16"/>
-      <c r="F287" s="16"/>
-      <c r="G287" s="16"/>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="19"/>
-      <c r="B288" s="19"/>
-      <c r="C288" s="19"/>
-      <c r="D288" s="15"/>
-      <c r="E288" s="16"/>
-      <c r="F288" s="16"/>
-      <c r="G288" s="16"/>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="19"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="19"/>
-      <c r="D289" s="15"/>
-      <c r="E289" s="16"/>
-      <c r="F289" s="16"/>
-      <c r="G289" s="16"/>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="19"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="19"/>
-      <c r="D290" s="15"/>
-      <c r="E290" s="16"/>
-      <c r="F290" s="16"/>
-      <c r="G290" s="16"/>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="19"/>
-      <c r="B291" s="19"/>
-      <c r="C291" s="19"/>
-      <c r="D291" s="15"/>
-      <c r="E291" s="16"/>
-      <c r="F291" s="16"/>
-      <c r="G291" s="16"/>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="A255" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B297" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E312" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C297" s="5" t="s">
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E313" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D300" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B302" s="5" t="s">
+    <row r="314" spans="1:6">
+      <c r="A314" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E315" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C302" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D302" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D303" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D304" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D305" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D306" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D309" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D310" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C311" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D311" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D312" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D313" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D314" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B317" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B319" s="5">
+        <v>101</v>
+      </c>
+      <c r="C319" s="5">
+        <v>101</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B320" s="5">
+        <v>102</v>
+      </c>
+      <c r="C320" s="5">
+        <v>102</v>
+      </c>
+      <c r="F320" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C317" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E317" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="5" t="s">
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B321" s="5">
+        <v>103</v>
+      </c>
+      <c r="C321" s="5">
+        <v>103</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B322" s="5">
+        <v>104</v>
+      </c>
+      <c r="C322" s="5">
+        <v>104</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B323" s="5">
+        <v>105</v>
+      </c>
+      <c r="C323" s="5">
+        <v>105</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B324" s="5">
+        <v>106</v>
+      </c>
+      <c r="C324" s="5">
+        <v>106</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B325" s="5">
+        <v>107</v>
+      </c>
+      <c r="C325" s="5">
+        <v>107</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B326" s="5">
+        <v>108</v>
+      </c>
+      <c r="C326" s="5">
+        <v>108</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B327" s="5">
+        <v>109</v>
+      </c>
+      <c r="C327" s="5">
+        <v>109</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B328" s="5">
+        <v>110</v>
+      </c>
+      <c r="C328" s="5">
+        <v>110</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B329" s="5">
         <v>111</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E318" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="5" t="s">
+      <c r="C329" s="5">
         <v>111</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="F329" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B330" s="5">
+        <v>112</v>
+      </c>
+      <c r="C330" s="5">
+        <v>112</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B331" s="5">
+        <v>113</v>
+      </c>
+      <c r="C331" s="5">
+        <v>113</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B332" s="5">
+        <v>114</v>
+      </c>
+      <c r="C332" s="5">
+        <v>114</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B333" s="5">
+        <v>115</v>
+      </c>
+      <c r="C333" s="5">
+        <v>115</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B334" s="5">
+        <v>116</v>
+      </c>
+      <c r="C334" s="5">
+        <v>116</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B335" s="5">
+        <v>117</v>
+      </c>
+      <c r="C335" s="5">
+        <v>117</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B336" s="5">
+        <v>118</v>
+      </c>
+      <c r="C336" s="5">
+        <v>118</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B337" s="5">
+        <v>119</v>
+      </c>
+      <c r="C337" s="5">
+        <v>119</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B338" s="5">
+        <v>120</v>
+      </c>
+      <c r="C338" s="5">
+        <v>120</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B339" s="5">
+        <v>121</v>
+      </c>
+      <c r="C339" s="5">
+        <v>121</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B340" s="5">
+        <v>122</v>
+      </c>
+      <c r="C340" s="5">
+        <v>122</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B341" s="5">
+        <v>123</v>
+      </c>
+      <c r="C341" s="5">
+        <v>123</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B342" s="5">
+        <v>124</v>
+      </c>
+      <c r="C342" s="5">
+        <v>124</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B343" s="5">
+        <v>125</v>
+      </c>
+      <c r="C343" s="5">
+        <v>125</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B344" s="5">
+        <v>126</v>
+      </c>
+      <c r="C344" s="5">
+        <v>126</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B345" s="5">
+        <v>127</v>
+      </c>
+      <c r="C345" s="5">
+        <v>127</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B346" s="5">
+        <v>128</v>
+      </c>
+      <c r="C346" s="5">
+        <v>128</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B347" s="5">
+        <v>129</v>
+      </c>
+      <c r="C347" s="5">
+        <v>129</v>
+      </c>
+      <c r="F347" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C319" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E319" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B320" s="5" t="s">
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B348" s="5">
+        <v>130</v>
+      </c>
+      <c r="C348" s="5">
+        <v>130</v>
+      </c>
+      <c r="F348" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E321" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E322" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E323" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E324" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E325" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C326" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E326" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E327" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E328" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E329" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E330" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E331" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E332" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E333" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E334" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E335" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E336" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E337" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E338" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E339" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B340" s="5" t="s">
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B349" s="5">
+        <v>131</v>
+      </c>
+      <c r="C349" s="5">
+        <v>131</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B350" s="5">
+        <v>132</v>
+      </c>
+      <c r="C350" s="5">
+        <v>132</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B351" s="5">
+        <v>133</v>
+      </c>
+      <c r="C351" s="5">
+        <v>133</v>
+      </c>
+      <c r="F351" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C340" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E340" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E341" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E342" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E343" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C344" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E344" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E345" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E346" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E347" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C348" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E348" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E349" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E350" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E351" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E352" s="5" t="s">
-        <v>55</v>
+        <v>114</v>
+      </c>
+      <c r="B352" s="5">
+        <v>134</v>
+      </c>
+      <c r="C352" s="5">
+        <v>134</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E353" s="5" t="s">
-        <v>55</v>
+        <v>114</v>
+      </c>
+      <c r="B353" s="5">
+        <v>135</v>
+      </c>
+      <c r="C353" s="5">
+        <v>135</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E354" s="5" t="s">
-        <v>55</v>
+        <v>114</v>
+      </c>
+      <c r="B354" s="5">
+        <v>136</v>
+      </c>
+      <c r="C354" s="5">
+        <v>136</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E355" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
+      </c>
+      <c r="B355" s="5">
+        <v>137</v>
+      </c>
+      <c r="C355" s="5">
+        <v>137</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E356" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
+      </c>
+      <c r="B356" s="5">
+        <v>138</v>
+      </c>
+      <c r="C356" s="5">
+        <v>138</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E357" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
+      </c>
+      <c r="B357" s="5">
+        <v>139</v>
+      </c>
+      <c r="C357" s="5">
+        <v>139</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E358" s="5" t="s">
-        <v>59</v>
+        <v>114</v>
+      </c>
+      <c r="B358" s="5">
+        <v>140</v>
+      </c>
+      <c r="C358" s="5">
+        <v>140</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B359" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E359" s="5" t="s">
-        <v>59</v>
+        <v>114</v>
+      </c>
+      <c r="B359" s="5">
+        <v>141</v>
+      </c>
+      <c r="C359" s="5">
+        <v>141</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E360" s="5" t="s">
-        <v>59</v>
+        <v>114</v>
+      </c>
+      <c r="B360" s="5">
+        <v>142</v>
+      </c>
+      <c r="C360" s="5">
+        <v>142</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B361" s="5">
+        <v>143</v>
+      </c>
+      <c r="C361" s="5">
+        <v>143</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -8342,13 +9013,13 @@
         <v>114</v>
       </c>
       <c r="B362" s="5">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C362" s="5">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -8356,619 +9027,17 @@
         <v>114</v>
       </c>
       <c r="B363" s="5">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C363" s="5">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B364" s="5">
-        <v>103</v>
-      </c>
-      <c r="C364" s="5">
-        <v>103</v>
-      </c>
-      <c r="F364" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="A365" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B365" s="5">
-        <v>104</v>
-      </c>
-      <c r="C365" s="5">
-        <v>104</v>
-      </c>
-      <c r="F365" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="A366" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B366" s="5">
         <v>105</v>
       </c>
-      <c r="C366" s="5">
-        <v>105</v>
-      </c>
-      <c r="F366" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B367" s="5">
-        <v>106</v>
-      </c>
-      <c r="C367" s="5">
-        <v>106</v>
-      </c>
-      <c r="F367" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="A368" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B368" s="5">
-        <v>107</v>
-      </c>
-      <c r="C368" s="5">
-        <v>107</v>
-      </c>
-      <c r="F368" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
-      <c r="A369" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B369" s="5">
-        <v>108</v>
-      </c>
-      <c r="C369" s="5">
-        <v>108</v>
-      </c>
-      <c r="F369" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B370" s="5">
-        <v>109</v>
-      </c>
-      <c r="C370" s="5">
-        <v>109</v>
-      </c>
-      <c r="F370" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="A371" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B371" s="5">
-        <v>110</v>
-      </c>
-      <c r="C371" s="5">
-        <v>110</v>
-      </c>
-      <c r="F371" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
-      <c r="A372" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B372" s="5">
-        <v>111</v>
-      </c>
-      <c r="C372" s="5">
-        <v>111</v>
-      </c>
-      <c r="F372" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
-      <c r="A373" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B373" s="5">
-        <v>112</v>
-      </c>
-      <c r="C373" s="5">
-        <v>112</v>
-      </c>
-      <c r="F373" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B374" s="5">
-        <v>113</v>
-      </c>
-      <c r="C374" s="5">
-        <v>113</v>
-      </c>
-      <c r="F374" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="A375" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B375" s="5">
-        <v>114</v>
-      </c>
-      <c r="C375" s="5">
-        <v>114</v>
-      </c>
-      <c r="F375" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="A376" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B376" s="5">
-        <v>115</v>
-      </c>
-      <c r="C376" s="5">
-        <v>115</v>
-      </c>
-      <c r="F376" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="A377" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B377" s="5">
-        <v>116</v>
-      </c>
-      <c r="C377" s="5">
-        <v>116</v>
-      </c>
-      <c r="F377" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
-      <c r="A378" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B378" s="5">
-        <v>117</v>
-      </c>
-      <c r="C378" s="5">
-        <v>117</v>
-      </c>
-      <c r="F378" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="A379" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B379" s="5">
-        <v>118</v>
-      </c>
-      <c r="C379" s="5">
-        <v>118</v>
-      </c>
-      <c r="F379" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
-      <c r="A380" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B380" s="5">
-        <v>119</v>
-      </c>
-      <c r="C380" s="5">
-        <v>119</v>
-      </c>
-      <c r="F380" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
-      <c r="A381" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B381" s="5">
-        <v>120</v>
-      </c>
-      <c r="C381" s="5">
-        <v>120</v>
-      </c>
-      <c r="F381" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B382" s="5">
-        <v>121</v>
-      </c>
-      <c r="C382" s="5">
-        <v>121</v>
-      </c>
-      <c r="F382" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="A383" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B383" s="5">
-        <v>122</v>
-      </c>
-      <c r="C383" s="5">
-        <v>122</v>
-      </c>
-      <c r="F383" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B384" s="5">
-        <v>123</v>
-      </c>
-      <c r="C384" s="5">
-        <v>123</v>
-      </c>
-      <c r="F384" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
-      <c r="A385" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B385" s="5">
-        <v>124</v>
-      </c>
-      <c r="C385" s="5">
-        <v>124</v>
-      </c>
-      <c r="F385" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
-      <c r="A386" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B386" s="5">
-        <v>125</v>
-      </c>
-      <c r="C386" s="5">
-        <v>125</v>
-      </c>
-      <c r="F386" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="A387" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B387" s="5">
-        <v>126</v>
-      </c>
-      <c r="C387" s="5">
-        <v>126</v>
-      </c>
-      <c r="F387" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B388" s="5">
-        <v>127</v>
-      </c>
-      <c r="C388" s="5">
-        <v>127</v>
-      </c>
-      <c r="F388" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B389" s="5">
-        <v>128</v>
-      </c>
-      <c r="C389" s="5">
-        <v>128</v>
-      </c>
-      <c r="F389" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="A390" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B390" s="5">
-        <v>129</v>
-      </c>
-      <c r="C390" s="5">
-        <v>129</v>
-      </c>
-      <c r="F390" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
-      <c r="A391" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B391" s="5">
-        <v>130</v>
-      </c>
-      <c r="C391" s="5">
-        <v>130</v>
-      </c>
-      <c r="F391" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6">
-      <c r="A392" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B392" s="5">
-        <v>131</v>
-      </c>
-      <c r="C392" s="5">
-        <v>131</v>
-      </c>
-      <c r="F392" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="A393" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B393" s="5">
-        <v>132</v>
-      </c>
-      <c r="C393" s="5">
-        <v>132</v>
-      </c>
-      <c r="F393" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
-      <c r="A394" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B394" s="5">
-        <v>133</v>
-      </c>
-      <c r="C394" s="5">
-        <v>133</v>
-      </c>
-      <c r="F394" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6">
-      <c r="A395" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B395" s="5">
-        <v>134</v>
-      </c>
-      <c r="C395" s="5">
-        <v>134</v>
-      </c>
-      <c r="F395" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
-      <c r="A396" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B396" s="5">
-        <v>135</v>
-      </c>
-      <c r="C396" s="5">
-        <v>135</v>
-      </c>
-      <c r="F396" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6">
-      <c r="A397" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B397" s="5">
-        <v>136</v>
-      </c>
-      <c r="C397" s="5">
-        <v>136</v>
-      </c>
-      <c r="F397" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6">
-      <c r="A398" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B398" s="5">
-        <v>137</v>
-      </c>
-      <c r="C398" s="5">
-        <v>137</v>
-      </c>
-      <c r="F398" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
-      <c r="A399" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B399" s="5">
-        <v>138</v>
-      </c>
-      <c r="C399" s="5">
-        <v>138</v>
-      </c>
-      <c r="F399" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6">
-      <c r="A400" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B400" s="5">
-        <v>139</v>
-      </c>
-      <c r="C400" s="5">
-        <v>139</v>
-      </c>
-      <c r="F400" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6">
-      <c r="A401" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B401" s="5">
-        <v>140</v>
-      </c>
-      <c r="C401" s="5">
-        <v>140</v>
-      </c>
-      <c r="F401" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6">
-      <c r="A402" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B402" s="5">
-        <v>141</v>
-      </c>
-      <c r="C402" s="5">
-        <v>141</v>
-      </c>
-      <c r="F402" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6">
-      <c r="A403" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B403" s="5">
-        <v>142</v>
-      </c>
-      <c r="C403" s="5">
-        <v>142</v>
-      </c>
-      <c r="F403" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6">
-      <c r="A404" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B404" s="5">
-        <v>143</v>
-      </c>
-      <c r="C404" s="5">
-        <v>143</v>
-      </c>
-      <c r="F404" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6">
-      <c r="A405" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B405" s="5">
-        <v>144</v>
-      </c>
-      <c r="C405" s="5">
-        <v>144</v>
-      </c>
-      <c r="F405" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6">
-      <c r="A406" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B406" s="5">
-        <v>145</v>
-      </c>
-      <c r="C406" s="5">
-        <v>145</v>
-      </c>
-      <c r="F406" s="5" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
+++ b/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C8321-A32E-43C5-9C3D-0A5076103D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D5DAF-7ADF-4543-B85B-C6540E9374D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="578">
   <si>
     <t>type</t>
   </si>
@@ -383,12 +383,6 @@
     <t>village_id</t>
   </si>
   <si>
-    <t>bj_sct_lf_1_cov_202406</t>
-  </si>
-  <si>
-    <t>(2024 Juin) - 1. Couverture &amp; CAP</t>
-  </si>
-  <si>
     <t>Date de l’entretien</t>
   </si>
   <si>
@@ -476,99 +470,21 @@
     <t>src_eau_potable_maison</t>
   </si>
   <si>
-    <t>(1) Il n’y a pas d’eau potable à la maison</t>
-  </si>
-  <si>
-    <t>(2) Puits creusé non protégé</t>
-  </si>
-  <si>
-    <t>(3) Puits creusé protégé</t>
-  </si>
-  <si>
-    <t>(4) Pompe à main / puits tubulaire / forage</t>
-  </si>
-  <si>
-    <t>(5) Eau de surface (rivière, ruisseau, barrage, lac, ruisseau, canal)</t>
-  </si>
-  <si>
-    <t>(6) Eau courante publique/robinet/borne fontaine</t>
-  </si>
-  <si>
-    <t>(7) Collecte d'eau de pluie</t>
-  </si>
-  <si>
-    <t>(8) Sac d'eau en plastique ou Bouteille d'eau</t>
-  </si>
-  <si>
-    <t>(9) Citerne à eau mobile</t>
-  </si>
-  <si>
-    <t>(99) Pas de réponse</t>
-  </si>
-  <si>
     <t>Q3.a. Autre source d'eau potable</t>
   </si>
   <si>
-    <t>(1) Toilettes à chasse d'eau</t>
-  </si>
-  <si>
-    <t>(2) Latrines à fosse avec dalle</t>
-  </si>
-  <si>
-    <t>(3) Latrines à fosse sans dalle</t>
-  </si>
-  <si>
-    <t>(4) Latrines sans fosse ni dalle</t>
-  </si>
-  <si>
-    <t>(5) Pas de toilettes / Besoins fait à l’extérieur</t>
-  </si>
-  <si>
     <t>toilette_maison</t>
   </si>
   <si>
     <t>condition_toilette</t>
   </si>
   <si>
-    <t>(1) Mauvaise (présence de mouches, odeur nauséabonde et selles visible au sol, absence de toit/porte)</t>
-  </si>
-  <si>
-    <t>(2) Passable (présence de toit/porte mais sol sale)</t>
-  </si>
-  <si>
-    <t>(3) Modéré (propre, absence de toit/porte)</t>
-  </si>
-  <si>
-    <t>(4) Bon (propre, inodore, pas de mouches, présence de toit et de porte)</t>
-  </si>
-  <si>
-    <t>(5) Excellent (très propre, inodore, présence de porte, toit et disponibilité d'eau)</t>
-  </si>
-  <si>
     <t>existe_dispositif_lavage_main</t>
   </si>
   <si>
-    <t>(1) Pas de dispositif de lavage de mains</t>
-  </si>
-  <si>
-    <t>(2) Eau et savon/cendres</t>
-  </si>
-  <si>
-    <t>(3) Eau uniquement</t>
-  </si>
-  <si>
-    <t>(4) Pas d'eau</t>
-  </si>
-  <si>
     <t>profession</t>
   </si>
   <si>
-    <t xml:space="preserve">8 = Rien - Retraite, chômage, handicap, trop jeune </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 = Autre  </t>
-  </si>
-  <si>
     <t>Q7.a. Autre profession</t>
   </si>
   <si>
@@ -653,15 +569,9 @@
     <t>Q18. Le répondant porte-t-il des chaussures ?</t>
   </si>
   <si>
-    <t>Q21. Quelle est la raison principale pour laquelle le répondant n'était pas dans le village en avril 2024 ?</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>niveau_etude</t>
   </si>
   <si>
@@ -680,9 +590,6 @@
     <t>select_one sex</t>
   </si>
   <si>
-    <t>select_one age</t>
-  </si>
-  <si>
     <t>select_one niveau_etude</t>
   </si>
   <si>
@@ -692,75 +599,9 @@
     <t>select_one raison_repondant_pas_com_2024</t>
   </si>
   <si>
-    <t>1 = Jamais inscrit/Jamais fréquenté l’école</t>
-  </si>
-  <si>
-    <t>2 = Maternelle</t>
-  </si>
-  <si>
-    <t>3 = École primaire</t>
-  </si>
-  <si>
-    <t>4 = École secondaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 = École coranique </t>
-  </si>
-  <si>
-    <t>6 = Autres (précisez)</t>
-  </si>
-  <si>
-    <t>1 = Rarement/non inscrit</t>
-  </si>
-  <si>
-    <t>2 = Parfois</t>
-  </si>
-  <si>
-    <t>3 = Fréquemment</t>
-  </si>
-  <si>
-    <t>4 = Toujours</t>
-  </si>
-  <si>
-    <t>Q19.a. Est-ce que le répondant est né dans cet communauté?</t>
-  </si>
-  <si>
-    <t>Q19.c. Depuis combien de mois le répondant vit-il dans cette communauté ?</t>
-  </si>
-  <si>
-    <t>Q19.d. Depuis combien d'année le répondant vit-il dans cette communauté ?</t>
-  </si>
-  <si>
-    <t>Q19.b. Le répondant vis dans la communauté depuis moins d'une année? ?</t>
-  </si>
-  <si>
     <t>Q20. Le répondant était-il dans la communauté en avril 2024 ?</t>
   </si>
   <si>
-    <t>0 = Ecole/Formation</t>
-  </si>
-  <si>
-    <t>1 = Occupation/Activité professionnelle (surveillance bétail, Agriculture, pêche, commerce</t>
-  </si>
-  <si>
-    <t>2 = N'étais pas membre de la famille</t>
-  </si>
-  <si>
-    <t>3 = Voyage de funérailles/visite à des parents</t>
-  </si>
-  <si>
-    <t>4 = Soins de santé</t>
-  </si>
-  <si>
-    <t>5 = Insécurité</t>
-  </si>
-  <si>
-    <t>6 = Ne sait pas</t>
-  </si>
-  <si>
-    <t>7 = Autres (à préciser)</t>
-  </si>
-  <si>
     <t>raison_repondant_pas_com_2025</t>
   </si>
   <si>
@@ -839,18 +680,6 @@
     <t>Q33. Quelles sont les effets secondaires que le répondant a eus après avoir avalé les médicaments ?</t>
   </si>
   <si>
-    <t xml:space="preserve">1 = Plus d’une semaine avant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 = Moins d’une semaine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 = Le jour même de la distribution </t>
-  </si>
-  <si>
-    <t>99 = Ne sait pas / pas de réponse</t>
-  </si>
-  <si>
     <t>select_one moment_recu_info</t>
   </si>
   <si>
@@ -863,96 +692,12 @@
     <t>select_one comment_entendu_tdm</t>
   </si>
   <si>
-    <t>1 = membre de la famille / ami / voisin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 = personnel de santé /agent de santé </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 = distributeur communautaire </t>
-  </si>
-  <si>
-    <t>4 = chef communautaire ou religieux</t>
-  </si>
-  <si>
-    <t>5 = crieur public</t>
-  </si>
-  <si>
-    <t>6 = brochures/dépliants</t>
-  </si>
-  <si>
-    <t>7 = affiches/bannières</t>
-  </si>
-  <si>
-    <t>8 = radio</t>
-  </si>
-  <si>
-    <t>9 = TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 = Autre (spécifiez) </t>
-  </si>
-  <si>
     <t>Q24.a. Veuillez préciser les autres moyen d'information ?</t>
   </si>
   <si>
     <t>raison_pas_propose_pzq</t>
   </si>
   <si>
-    <t>0 = N’a aucune connaissance du TDM</t>
-  </si>
-  <si>
-    <t>1 = Je suis en bonne santé et je ne suis pas à risque pour cette maladie</t>
-  </si>
-  <si>
-    <t>2 = Le distributeur n'est pas venu chez moi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 = Peur des effets secondaires </t>
-  </si>
-  <si>
-    <t>4 = Je n'aime pas le goût ou la taille du comprimé</t>
-  </si>
-  <si>
-    <t>5 = Parent/enseignant/chef de ménage a refusé</t>
-  </si>
-  <si>
-    <t>6 = N'a pas aimé le distributeur de médicaments</t>
-  </si>
-  <si>
-    <t>7 = Raisons culturelles et/ou religieuses</t>
-  </si>
-  <si>
-    <t>8 = Médicaments insuffisants</t>
-  </si>
-  <si>
-    <t>9 = Enceinte/allaitante</t>
-  </si>
-  <si>
-    <t>10 = Malade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11= Trop jeune </t>
-  </si>
-  <si>
-    <t>12 = Les médicaments ne marchent pas</t>
-  </si>
-  <si>
-    <t>13 = J’étais occupé/absent/trop loin</t>
-  </si>
-  <si>
-    <t>14 = J’ai oublié la période de la campagne</t>
-  </si>
-  <si>
-    <t>15 = Le distributeur est venu mais ne m’a pas donné</t>
-  </si>
-  <si>
-    <t>16 = Peur de COVID-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 = Autres (spécifiez) </t>
-  </si>
-  <si>
     <t>select_one raison_pas_propose_pzq</t>
   </si>
   <si>
@@ -965,114 +710,21 @@
     <t>select_one qui_a_donne_pzq</t>
   </si>
   <si>
-    <t>(10) Autre, Spécifiez</t>
-  </si>
-  <si>
-    <t>(6) Autre, Spécifiez</t>
-  </si>
-  <si>
-    <t>1= Membre de la famille</t>
-  </si>
-  <si>
-    <t>2 = Agent de santé/infirmier</t>
-  </si>
-  <si>
-    <t>3 = Distributeur communautaire</t>
-  </si>
-  <si>
-    <t>4 = Chef communautaire ou religieux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 = Professeur </t>
-  </si>
-  <si>
-    <t>66 = autre (spécifiez) ______________</t>
-  </si>
-  <si>
-    <t>99 = pas de réponse</t>
-  </si>
-  <si>
     <t>raison_pas_avale_pzq</t>
   </si>
   <si>
-    <t xml:space="preserve">2 = Peur des effets secondaires </t>
-  </si>
-  <si>
-    <t>3 = Je n'aime pas le goût ou la taille du comprimé</t>
-  </si>
-  <si>
-    <t>4 = Parent/prof/chef de ménage a refusé</t>
-  </si>
-  <si>
-    <t>5 = N'a pas aimé le distributeur de médicaments</t>
-  </si>
-  <si>
-    <t>6 = Raisons culturelles et/ou religieuses</t>
-  </si>
-  <si>
-    <t>7= Enceinte/allaitante</t>
-  </si>
-  <si>
-    <t>8 = Malade</t>
-  </si>
-  <si>
-    <t>9 = Trop jeune</t>
-  </si>
-  <si>
-    <t>10= les médicaments ne marchent pas</t>
-  </si>
-  <si>
-    <t>11 = J’étais occupé/absent/trop loin</t>
-  </si>
-  <si>
-    <t>12 = j’ai oublié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 =Autre (spécifiez) </t>
-  </si>
-  <si>
     <t>select_one raison_pas_avale_pzq</t>
   </si>
   <si>
     <t>raison_avale_pzq</t>
   </si>
   <si>
-    <t>1 = Pour être en bonne santé / traiter schistosomiase (bilharziose)</t>
-  </si>
-  <si>
-    <t>2 = Parce que d'autres l'ont pris</t>
-  </si>
-  <si>
-    <t>3 = J’ai été forcé à les prendre par mon enseignant</t>
-  </si>
-  <si>
-    <t>4 = J’ai été obligé de les prendre à cause d’un parent/quelqu’un de ma famille</t>
-  </si>
-  <si>
-    <t>5 = Médicaments sont gratuits</t>
-  </si>
-  <si>
-    <t>6 = Je ne sais pas</t>
-  </si>
-  <si>
-    <t>7 = Pas de réponse</t>
-  </si>
-  <si>
     <t>effet_secondaire_pzq</t>
   </si>
   <si>
     <t>select_one effet_secondaire_pzq</t>
   </si>
   <si>
-    <t>1=léger (n'interfère pas avec les activités quotidiennes)</t>
-  </si>
-  <si>
-    <t>2= modéré (interféré avec les activités quotidiennes)</t>
-  </si>
-  <si>
-    <t>3=grave (hospitalisation nécessaire)</t>
-  </si>
-  <si>
     <t>select_one raison_avale_pzq</t>
   </si>
   <si>
@@ -1091,15 +743,6 @@
     <t xml:space="preserve">Q35. Pourquoi ?  </t>
   </si>
   <si>
-    <t xml:space="preserve">0 = Jamais </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 = Une fois </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 = Plus d'une fois </t>
-  </si>
-  <si>
     <t>nb_fois_participe_tdm_sch</t>
   </si>
   <si>
@@ -1112,24 +755,6 @@
     <t>select_one pourquoi_jamais_participe</t>
   </si>
   <si>
-    <t xml:space="preserve">1 = Absent pendant le TDM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 = Peur des effets secondaires  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 = Je n'étais pas au courant du TDM  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 = Le distributeur n'est pas venu chez moi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 = Autre (à préciser) </t>
-  </si>
-  <si>
-    <t>99 = Ne sait pas/Pas de réponse</t>
-  </si>
-  <si>
     <t>Q35.a. Veuillez spécifier les autres raison</t>
   </si>
   <si>
@@ -1151,54 +776,12 @@
     <t xml:space="preserve">Q41. Comment pouvez-vous traiter la schistosomiase (bilharziose) ? </t>
   </si>
   <si>
-    <t xml:space="preserve">(1) Oui </t>
-  </si>
-  <si>
-    <t>(2) Non</t>
-  </si>
-  <si>
-    <t>(77) Je ne sais pas</t>
-  </si>
-  <si>
     <t>entendu_parler_sch</t>
   </si>
   <si>
     <t>select_one entendu_parler_sch</t>
   </si>
   <si>
-    <t>(1) École (hors du TDM)</t>
-  </si>
-  <si>
-    <t>(2) École (pendant TDM)</t>
-  </si>
-  <si>
-    <t>(3) Poste de santé/hôpital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4) Agent de santé </t>
-  </si>
-  <si>
-    <t>(5) Télévision</t>
-  </si>
-  <si>
-    <t>(6) Supports imprimés (ex : affiche, journal, etc.)</t>
-  </si>
-  <si>
-    <t>(7) Membre de la famille</t>
-  </si>
-  <si>
-    <t>(8) Ami</t>
-  </si>
-  <si>
-    <t>(9) Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10) Pas de réponse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(66) Autre ; Spécifiez </t>
-  </si>
-  <si>
     <t>ou_entendu_parler_sch</t>
   </si>
   <si>
@@ -1208,156 +791,12 @@
     <t>Q37.a. Veuillez préciser les autres lieux</t>
   </si>
   <si>
-    <t>(1) Défécation en plein air / ne pas utiliser les latrines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) Manger quelque chose de tombé au sol </t>
-  </si>
-  <si>
-    <t>(3) Boire de l'eau non potable</t>
-  </si>
-  <si>
-    <t>(4) Manger des légumes/fruits insuffisamment cuits ou non lavés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5) Mettre les mains sales dans la bouche </t>
-  </si>
-  <si>
-    <t>(6) Nager dans l'eau</t>
-  </si>
-  <si>
-    <t>(7) Marcher pieds nus</t>
-  </si>
-  <si>
-    <t>(8) Travail dans les rizières / champs agricoles</t>
-  </si>
-  <si>
-    <t>(9) Destin/malédiction</t>
-  </si>
-  <si>
-    <t>(10) Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11) Pas de réponse </t>
-  </si>
-  <si>
-    <t>1.Défécation.en.plein.air./.ne.pas.utiliser.les.latrines</t>
-  </si>
-  <si>
-    <t>2.Manger.quelque.chose.de.tombé.au.sol.</t>
-  </si>
-  <si>
-    <t>3.Boire.de.l'eau.non.potable</t>
-  </si>
-  <si>
-    <t>4.Manger.des.légumes/fruits.insuffisamment.cuits.ou.non.lavés</t>
-  </si>
-  <si>
-    <t>5.Mettre.les.mains.sales.dans.la.bouche.</t>
-  </si>
-  <si>
-    <t>6.Nager.dans.l'eau</t>
-  </si>
-  <si>
-    <t>7.Marcher.pieds.nus</t>
-  </si>
-  <si>
-    <t>8.Travail.dans.les.rizières./.champs.agricoles</t>
-  </si>
-  <si>
-    <t>9.Destin/malédiction</t>
-  </si>
-  <si>
-    <t>10.Je.ne.sais.pas</t>
-  </si>
-  <si>
-    <t>11.Pas.de.réponse.</t>
-  </si>
-  <si>
     <t>transmission_sch</t>
   </si>
   <si>
     <t>select_multiple transmission_sch</t>
   </si>
   <si>
-    <t>(1) Pas de symptômes</t>
-  </si>
-  <si>
-    <t>(2) La diarrhée</t>
-  </si>
-  <si>
-    <t>(3) Sang dans les selles/urines</t>
-  </si>
-  <si>
-    <t>(4) Douleur abdominale</t>
-  </si>
-  <si>
-    <t>(5) Miction d’urine douloureuse</t>
-  </si>
-  <si>
-    <t>(6) Miction d’urine fréquente</t>
-  </si>
-  <si>
-    <t>(7) Nausées / Vomissements</t>
-  </si>
-  <si>
-    <t>(8) Fatigue</t>
-  </si>
-  <si>
-    <t>(9) Fièvre</t>
-  </si>
-  <si>
-    <t>(10) Estomac élargi</t>
-  </si>
-  <si>
-    <t>(11) Démangeaisons cutanées</t>
-  </si>
-  <si>
-    <t>(12) Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13) Pas de réponse </t>
-  </si>
-  <si>
-    <t>1.Pas.de.symptômes</t>
-  </si>
-  <si>
-    <t>2.La.diarrhée</t>
-  </si>
-  <si>
-    <t>3.Sang.dans.les.selles/urines</t>
-  </si>
-  <si>
-    <t>4.Douleur.abdominale</t>
-  </si>
-  <si>
-    <t>5.Miction.d’urine.douloureuse</t>
-  </si>
-  <si>
-    <t>6.Miction.d’urine.fréquente</t>
-  </si>
-  <si>
-    <t>7.Nausées./.Vomissements</t>
-  </si>
-  <si>
-    <t>8.Fatigue</t>
-  </si>
-  <si>
-    <t>9.Fièvre</t>
-  </si>
-  <si>
-    <t>10.Estomac.élargi</t>
-  </si>
-  <si>
-    <t>11.Démangeaisons.cutanées</t>
-  </si>
-  <si>
-    <t>12.Je.ne.sais.pas</t>
-  </si>
-  <si>
-    <t>13.Pas.de.réponse.</t>
-  </si>
-  <si>
     <t>symptome_sch</t>
   </si>
   <si>
@@ -1370,105 +809,9 @@
     <t>Q39.a Veuillez énoncer les autres symptômes</t>
   </si>
   <si>
-    <t>(1) Cette maladie ne peut être empêchée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) Se laver les mains avec du savon (après défécation/miction, avant et après les repas) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3) Se laver les mains pas forcément au savon (après défécation/urination, avant et après les repas) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4) Utilisation des latrines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5) Boire de l'eau potable/propre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6) Manger la nourriture bien cuite ou des aliments bien nettoyés </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7) Portez des chaussures </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8) Évitez de nager dans l’eau ou d’avoir un contact avec de l'eau contaminée </t>
-  </si>
-  <si>
-    <t>1.Cette.maladie.ne.peut.être.empêchée</t>
-  </si>
-  <si>
-    <t>2.Se.laver.les.mains.avec.du.savon.après.défécation/miction,.avant.et.après.les.repas.</t>
-  </si>
-  <si>
-    <t>3.Se.laver.les.mains.pas.forcément.au.savon.après.défécation/urination,.avant.et.après.les.repas.</t>
-  </si>
-  <si>
-    <t>4.Utilisation.des.latrines.</t>
-  </si>
-  <si>
-    <t>5.Boire.de.l'eau.potable/propre.</t>
-  </si>
-  <si>
-    <t>6.Manger.la.nourriture.bien.cuite.ou.des.aliments.bien.nettoyés.</t>
-  </si>
-  <si>
-    <t>7.Portez.des.chaussures.</t>
-  </si>
-  <si>
-    <t>8.Évitez.de.nager.dans.l’eau.ou.d’avoir.un.contact.avec.de.l'eau.contaminée.</t>
-  </si>
-  <si>
-    <t>9.Je.ne.sais.pas</t>
-  </si>
-  <si>
-    <t>10.Pas.de.réponse.</t>
-  </si>
-  <si>
     <t>prevention_sch</t>
   </si>
   <si>
-    <t xml:space="preserve">(1) Ne peut pas être traité </t>
-  </si>
-  <si>
-    <t>(2) Médicament d'un centre de santé/pharmacie</t>
-  </si>
-  <si>
-    <t>(3) Traitement de masse à l’école/communautaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4) Médecine traditionnelle/herbes </t>
-  </si>
-  <si>
-    <t>(5) Pratiques religieuses</t>
-  </si>
-  <si>
-    <t>(6) Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7) Pas de réponse </t>
-  </si>
-  <si>
-    <t>1.Ne.peut.pas.être.traité.</t>
-  </si>
-  <si>
-    <t>2.Médicament.d'un.centre.de.santé/pharmacie</t>
-  </si>
-  <si>
-    <t>3.Traitement.de.masse.à.l’école/communautaire</t>
-  </si>
-  <si>
-    <t>4.Médecine.traditionnelle/herbes.</t>
-  </si>
-  <si>
-    <t>5.Pratiques.religieuses</t>
-  </si>
-  <si>
-    <t>6.Je.ne.sais.pas</t>
-  </si>
-  <si>
-    <t>7.Pas.de.réponse.</t>
-  </si>
-  <si>
     <t>traitement_pzq</t>
   </si>
   <si>
@@ -1484,15 +827,9 @@
     <t>Q41.a. Veuillez préciser les autres traitements</t>
   </si>
   <si>
-    <t>Q42. L'enfant est-il sélectionner pour le test à la bandelette urinaire</t>
-  </si>
-  <si>
     <t>select_one grading</t>
   </si>
   <si>
-    <t>Q43. Graduation de la microhématurie</t>
-  </si>
-  <si>
     <t>q0_numero_menage</t>
   </si>
   <si>
@@ -1565,15 +902,6 @@
     <t>q19_repondant_ne_dans_com</t>
   </si>
   <si>
-    <t>q19_vis_dans_com_moins_1_an</t>
-  </si>
-  <si>
-    <t>q19_mois_repondant_est_dans_com</t>
-  </si>
-  <si>
-    <t>q19_annee_repondant_est_dans_com</t>
-  </si>
-  <si>
     <t>q20_repondant_dans_com_2024</t>
   </si>
   <si>
@@ -1703,12 +1031,6 @@
     <t>+++</t>
   </si>
   <si>
-    <t>(1) Moins de 15 minutes aller-retour</t>
-  </si>
-  <si>
-    <t>(2) Plus de 15 minutes aller-retour</t>
-  </si>
-  <si>
     <t>${q3_src_eau_potable_maison} = 'Autre'</t>
   </si>
   <si>
@@ -1721,12 +1043,6 @@
     <t>${q19_repondant_ne_dans_com} = 'Oui'</t>
   </si>
   <si>
-    <t>${q19_repondant_ne_dans_com} = 'Oui' and ${q19_vis_dans_com_moins_1_an} = 'Non'</t>
-  </si>
-  <si>
-    <t>${q19_repondant_ne_dans_com} = 'Oui' and ${q19_vis_dans_com_moins_1_an} = 'Oui'</t>
-  </si>
-  <si>
     <t>${q20_repondant_dans_com_2024} = 'Oui'</t>
   </si>
   <si>
@@ -1754,9 +1070,6 @@
     <t>${q32_effet_secondaire_pzq} = 'Oui'</t>
   </si>
   <si>
-    <t>${q32_effet_secondaire_pzq} = 'Non'</t>
-  </si>
-  <si>
     <t>${q35_pourquoi_jamais_participe} = 'Autre'</t>
   </si>
   <si>
@@ -1799,33 +1112,9 @@
     <t>${q4_toilette_maison} = 'Autre'</t>
   </si>
   <si>
-    <t>1= Étudiant ;</t>
-  </si>
-  <si>
-    <t>2 = agriculteur ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 = Berger ; </t>
-  </si>
-  <si>
-    <t>4 = Pêcheur ;</t>
-  </si>
-  <si>
-    <t>6 = commerçant ;</t>
-  </si>
-  <si>
-    <t>7 = ménagère ;</t>
-  </si>
-  <si>
-    <t>5 = travail de bureau (y compris Gouvernement/secteur public/ONG) ;</t>
-  </si>
-  <si>
     <t>${q25_propose_pzq} = 'Oui'</t>
   </si>
   <si>
-    <t>0 = Jamais</t>
-  </si>
-  <si>
     <t>${q34_nb_fois_participe_tdm_sch} = '0 = Jamais'</t>
   </si>
   <si>
@@ -1838,9 +1127,6 @@
     <t>begin repeat</t>
   </si>
   <si>
-    <t>tg_sch_p_2404_v3_1</t>
-  </si>
-  <si>
     <t>Participants</t>
   </si>
   <si>
@@ -1856,9 +1142,6 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>${q1_nbre_eas_ds_menage}</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -1869,18 +1152,643 @@
   </si>
   <si>
     <t>Le nombre d'enfant dâge scolaire ne peut pas dépasser le nombre de personnes vivant dans le ménage</t>
+  </si>
+  <si>
+    <t>(2024 Juin) - 1. Couverture &amp; CAP V2</t>
+  </si>
+  <si>
+    <t>bj_sct_lf_1_cov_2406_v2</t>
+  </si>
+  <si>
+    <t>bj_c_2406_v2</t>
+  </si>
+  <si>
+    <t>Il n’y a pas d’eau potable à la maison</t>
+  </si>
+  <si>
+    <t>Toilettes à chasse d'eau</t>
+  </si>
+  <si>
+    <t>Mauvaise (présence de mouches, odeur nauséabonde et selles visible au sol, absence de toit/porte)</t>
+  </si>
+  <si>
+    <t>Pas de dispositif de lavage de mains</t>
+  </si>
+  <si>
+    <t>Moins de 15 minutes aller-retour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui </t>
+  </si>
+  <si>
+    <t>École (hors du TDM)</t>
+  </si>
+  <si>
+    <t>Défécation en plein air / ne pas utiliser les latrines</t>
+  </si>
+  <si>
+    <t>Pas de symptômes</t>
+  </si>
+  <si>
+    <t>Cette maladie ne peut être empêchée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne peut pas être traité </t>
+  </si>
+  <si>
+    <t>Puits creusé non protégé</t>
+  </si>
+  <si>
+    <t>Latrines à fosse avec dalle</t>
+  </si>
+  <si>
+    <t>Passable (présence de toit/porte mais sol sale)</t>
+  </si>
+  <si>
+    <t>Eau et savon/cendres</t>
+  </si>
+  <si>
+    <t>Plus de 15 minutes aller-retour</t>
+  </si>
+  <si>
+    <t>École (pendant TDM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manger quelque chose de tombé au sol </t>
+  </si>
+  <si>
+    <t>La diarrhée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se laver les mains avec du savon (après défécation/miction, avant et après les repas) </t>
+  </si>
+  <si>
+    <t>Médicament d'un centre de santé/pharmacie</t>
+  </si>
+  <si>
+    <t>Puits creusé protégé</t>
+  </si>
+  <si>
+    <t>Latrines à fosse sans dalle</t>
+  </si>
+  <si>
+    <t>Modéré (propre, absence de toit/porte)</t>
+  </si>
+  <si>
+    <t>Eau uniquement</t>
+  </si>
+  <si>
+    <t>Poste de santé/hôpital</t>
+  </si>
+  <si>
+    <t>Boire de l'eau non potable</t>
+  </si>
+  <si>
+    <t>Sang dans les selles/urines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se laver les mains pas forcément au savon (après défécation/urination, avant et après les repas) </t>
+  </si>
+  <si>
+    <t>Traitement de masse à l’école/communautaire</t>
+  </si>
+  <si>
+    <t>Pompe à main / puits tubulaire / forage</t>
+  </si>
+  <si>
+    <t>Latrines sans fosse ni dalle</t>
+  </si>
+  <si>
+    <t>Bon (propre, inodore, pas de mouches, présence de toit et de porte)</t>
+  </si>
+  <si>
+    <t>Pas d'eau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent de santé </t>
+  </si>
+  <si>
+    <t>Manger des légumes/fruits insuffisamment cuits ou non lavés</t>
+  </si>
+  <si>
+    <t>Douleur abdominale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisation des latrines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médecine traditionnelle/herbes </t>
+  </si>
+  <si>
+    <t>Eau de surface (rivière, ruisseau, barrage, lac, ruisseau, canal)</t>
+  </si>
+  <si>
+    <t>Pas de toilettes / Besoins fait à l’extérieur</t>
+  </si>
+  <si>
+    <t>Excellent (très propre, inodore, présence de porte, toit et disponibilité d'eau)</t>
+  </si>
+  <si>
+    <t>Télévision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre les mains sales dans la bouche </t>
+  </si>
+  <si>
+    <t>Miction d’urine douloureuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boire de l'eau potable/propre </t>
+  </si>
+  <si>
+    <t>Pratiques religieuses</t>
+  </si>
+  <si>
+    <t>Eau courante publique/robinet/borne fontaine</t>
+  </si>
+  <si>
+    <t>Autre, Spécifiez</t>
+  </si>
+  <si>
+    <t>Supports imprimés (ex : affiche, journal, etc.)</t>
+  </si>
+  <si>
+    <t>Nager dans l'eau</t>
+  </si>
+  <si>
+    <t>Miction d’urine fréquente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manger la nourriture bien cuite ou des aliments bien nettoyés </t>
+  </si>
+  <si>
+    <t>Je ne sais pas</t>
+  </si>
+  <si>
+    <t>Collecte d'eau de pluie</t>
+  </si>
+  <si>
+    <t>Membre de la famille</t>
+  </si>
+  <si>
+    <t>Marcher pieds nus</t>
+  </si>
+  <si>
+    <t>Nausées / Vomissements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portez des chaussures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de réponse </t>
+  </si>
+  <si>
+    <t>Sac d'eau en plastique ou Bouteille d'eau</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
+    <t>Travail dans les rizières / champs agricoles</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Évitez de nager dans l’eau ou d’avoir un contact avec de l'eau contaminée </t>
+  </si>
+  <si>
+    <t>Citerne à eau mobile</t>
+  </si>
+  <si>
+    <t>Destin/malédiction</t>
+  </si>
+  <si>
+    <t>Fièvre</t>
+  </si>
+  <si>
+    <t>Estomac élargi</t>
+  </si>
+  <si>
+    <t>Jamais inscrit/Jamais fréquenté l’école</t>
+  </si>
+  <si>
+    <t>Rarement/non inscrit</t>
+  </si>
+  <si>
+    <t>Occupation/Activité professionnelle (surveillance bétail, Agriculture, pêche, commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus d’une semaine avant </t>
+  </si>
+  <si>
+    <t>membre de la famille / ami / voisin</t>
+  </si>
+  <si>
+    <t>Je suis en bonne santé et je ne suis pas à risque pour cette maladie</t>
+  </si>
+  <si>
+    <t>Pour être en bonne santé / traiter schistosomiase (bilharziose)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une fois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absent pendant le TDM </t>
+  </si>
+  <si>
+    <t>agriculteur ;</t>
+  </si>
+  <si>
+    <t>Maternelle</t>
+  </si>
+  <si>
+    <t>Parfois</t>
+  </si>
+  <si>
+    <t>N'étais pas membre de la famille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moins d’une semaine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">personnel de santé /agent de santé </t>
+  </si>
+  <si>
+    <t>Le distributeur n'est pas venu chez moi</t>
+  </si>
+  <si>
+    <t>Agent de santé/infirmier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peur des effets secondaires </t>
+  </si>
+  <si>
+    <t>Parce que d'autres l'ont pris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus d'une fois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peur des effets secondaires  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berger ; </t>
+  </si>
+  <si>
+    <t>École primaire</t>
+  </si>
+  <si>
+    <t>Fréquemment</t>
+  </si>
+  <si>
+    <t>Voyage de funérailles/visite à des parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le jour même de la distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">distributeur communautaire </t>
+  </si>
+  <si>
+    <t>Distributeur communautaire</t>
+  </si>
+  <si>
+    <t>Je n'aime pas le goût ou la taille du comprimé</t>
+  </si>
+  <si>
+    <t>J’ai été forcé à les prendre par mon enseignant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je n'étais pas au courant du TDM  </t>
+  </si>
+  <si>
+    <t>Pêcheur ;</t>
+  </si>
+  <si>
+    <t>École secondaire</t>
+  </si>
+  <si>
+    <t>Toujours</t>
+  </si>
+  <si>
+    <t>Soins de santé</t>
+  </si>
+  <si>
+    <t>chef communautaire ou religieux</t>
+  </si>
+  <si>
+    <t>Chef communautaire ou religieux</t>
+  </si>
+  <si>
+    <t>Parent/prof/chef de ménage a refusé</t>
+  </si>
+  <si>
+    <t>J’ai été obligé de les prendre à cause d’un parent/quelqu’un de ma famille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le distributeur n'est pas venu chez moi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">École coranique </t>
+  </si>
+  <si>
+    <t>Insécurité</t>
+  </si>
+  <si>
+    <t>crieur public</t>
+  </si>
+  <si>
+    <t>Parent/enseignant/chef de ménage a refusé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professeur </t>
+  </si>
+  <si>
+    <t>N'a pas aimé le distributeur de médicaments</t>
+  </si>
+  <si>
+    <t>Médicaments sont gratuits</t>
+  </si>
+  <si>
+    <t>Autres (précisez)</t>
+  </si>
+  <si>
+    <t>Ne sait pas</t>
+  </si>
+  <si>
+    <t>brochures/dépliants</t>
+  </si>
+  <si>
+    <t>Raisons culturelles et/ou religieuses</t>
+  </si>
+  <si>
+    <t>Autres (à préciser)</t>
+  </si>
+  <si>
+    <t>affiches/bannières</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rien - Retraite, chômage, handicap, trop jeune </t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>Médicaments insuffisants</t>
+  </si>
+  <si>
+    <t>Malade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre  </t>
+  </si>
+  <si>
+    <t>9Ne sait pas / pas de réponse</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Enceinte/allaitante</t>
+  </si>
+  <si>
+    <t>Trop jeune</t>
+  </si>
+  <si>
+    <t>9Ne sait pas/Pas de réponse</t>
+  </si>
+  <si>
+    <t>Étudiant ;</t>
+  </si>
+  <si>
+    <t>Ecole/Formation</t>
+  </si>
+  <si>
+    <t>N’a aucune connaissance du TDM</t>
+  </si>
+  <si>
+    <t>Jamais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamais </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop jeune </t>
+  </si>
+  <si>
+    <t>Les médicaments ne marchent pas</t>
+  </si>
+  <si>
+    <t>J’étais occupé/absent/trop loin</t>
+  </si>
+  <si>
+    <t>J’ai oublié la période de la campagne</t>
+  </si>
+  <si>
+    <t>Le distributeur est venu mais ne m’a pas donné</t>
+  </si>
+  <si>
+    <t>Peur de COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autres (spécifiez) </t>
+  </si>
+  <si>
+    <t>Travail de bureau (y compris Gouvernement/secteur public/ONG) ;</t>
+  </si>
+  <si>
+    <t>Commerçant ;</t>
+  </si>
+  <si>
+    <t>Ménagère ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre (spécifiez) </t>
+  </si>
+  <si>
+    <t>autre (spécifiez)</t>
+  </si>
+  <si>
+    <t>J’ai oublié</t>
+  </si>
+  <si>
+    <t>Léger (n'interfère pas avec les activités quotidiennes)</t>
+  </si>
+  <si>
+    <t>Modéré (interféré avec les activités quotidiennes)</t>
+  </si>
+  <si>
+    <t>Grave (hospitalisation nécessaire)</t>
+  </si>
+  <si>
+    <t>Ne sait pas / pas de réponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre (à préciser) </t>
+  </si>
+  <si>
+    <t>Ne sait pas/Pas de réponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre ; Spécifiez </t>
+  </si>
+  <si>
+    <t>Pas.de.réponse.</t>
+  </si>
+  <si>
+    <t>Démangeaisons.cutanées</t>
+  </si>
+  <si>
+    <t>Je.ne.sais.pas</t>
+  </si>
+  <si>
+    <t>Estomac.élargi</t>
+  </si>
+  <si>
+    <t>Travail.dans.les.rizières./.champs.agricoles</t>
+  </si>
+  <si>
+    <t>Évitez.de.nager.dans.l’eau.ou.d’avoir.un.contact.avec.de.l'eau.contaminée.</t>
+  </si>
+  <si>
+    <t>Marcher.pieds.nus</t>
+  </si>
+  <si>
+    <t>Nausées./.Vomissements</t>
+  </si>
+  <si>
+    <t>Portez.des.chaussures.</t>
+  </si>
+  <si>
+    <t>Nager.dans.l'eau</t>
+  </si>
+  <si>
+    <t>Miction.d’urine.fréquente</t>
+  </si>
+  <si>
+    <t>Manger.la.nourriture.bien.cuite.ou.des.aliments.bien.nettoyés.</t>
+  </si>
+  <si>
+    <t>Mettre.les.mains.sales.dans.la.bouche.</t>
+  </si>
+  <si>
+    <t>Miction.d’urine.douloureuse</t>
+  </si>
+  <si>
+    <t>Boire.de.l'eau.potable/propre.</t>
+  </si>
+  <si>
+    <t>Pratiques.religieuses</t>
+  </si>
+  <si>
+    <t>Manger.des.légumes/fruits.insuffisamment.cuits.ou.non.lavés</t>
+  </si>
+  <si>
+    <t>Douleur.abdominale</t>
+  </si>
+  <si>
+    <t>Utilisation.des.latrines.</t>
+  </si>
+  <si>
+    <t>Médecine.traditionnelle/herbes.</t>
+  </si>
+  <si>
+    <t>Boire.de.l'eau.non.potable</t>
+  </si>
+  <si>
+    <t>Sang.dans.les.selles/urines</t>
+  </si>
+  <si>
+    <t>Se.laver.les.mains.pas.forcément.au.savon.après.défécation/urination,.avant.et.après.les.repas.</t>
+  </si>
+  <si>
+    <t>Traitement.de.masse.à.l’école/communautaire</t>
+  </si>
+  <si>
+    <t>Manger.quelque.chose.de.tombé.au.sol.</t>
+  </si>
+  <si>
+    <t>La.diarrhée</t>
+  </si>
+  <si>
+    <t>Se.laver.les.mains.avec.du.savon.après.défécation/miction,.avant.et.après.les.repas.</t>
+  </si>
+  <si>
+    <t>Médicament.d'un.centre.de.santé/pharmacie</t>
+  </si>
+  <si>
+    <t>Défécation.en.plein.air./.ne.pas.utiliser.les.latrines</t>
+  </si>
+  <si>
+    <t>Pas.de.symptômes</t>
+  </si>
+  <si>
+    <t>Cette.maladie.ne.peut.être.empêchée</t>
+  </si>
+  <si>
+    <t>Ne.peut.pas.être.traité.</t>
+  </si>
+  <si>
+    <t>Démangeaisons cutanées</t>
+  </si>
+  <si>
+    <t>${type_soumission} != 'Refus de participer'</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 14</t>
+  </si>
+  <si>
+    <t>Q19.a. Est-ce que le répondant est né dans cette communauté ?</t>
+  </si>
+  <si>
+    <t>q19_tps_vis_dans_com</t>
+  </si>
+  <si>
+    <t>Q19.b. Depuis combien de temps le répondant vit dans cette communauté ?</t>
+  </si>
+  <si>
+    <t>Années ou mois</t>
+  </si>
+  <si>
+    <t>${q20_repondant_dans_com_2024} = 'Non'</t>
+  </si>
+  <si>
+    <t>q21_raison_repondant_pas_com_2024_autre</t>
+  </si>
+  <si>
+    <t>Q21.b. Veuillez préciser les autres raisons</t>
+  </si>
+  <si>
+    <t>${q21_raison_repondant_pas_com_2024} = 'Autre'</t>
+  </si>
+  <si>
+    <t>Q21.a. Quelle est la raison principale pour laquelle le répondant n'était pas dans le village en avril 2024 ?</t>
+  </si>
+  <si>
+    <t>Q42. L’enfant est-il sélectionné pour le test à la bandelette urinaire ?</t>
+  </si>
+  <si>
+    <t>Q43. Quel est le résultat du test à la bandelette à la bandelette urinaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2099,55 +2007,55 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2156,25 +2064,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2473,11 +2381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -2534,19 +2442,19 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
-        <v>605</v>
+      <c r="M1" s="31" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -2563,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
@@ -2586,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -2620,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2637,7 +2545,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2660,7 +2568,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2668,7 +2576,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -2682,13 +2590,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -2696,36 +2604,38 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="21" t="s">
+        <v>565</v>
+      </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -2733,19 +2643,22 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>485</v>
+        <v>264</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>565</v>
+      </c>
       <c r="I13" s="5" t="s">
-        <v>598</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2753,13 +2666,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>486</v>
+        <v>265</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2767,36 +2683,42 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>582</v>
+        <v>353</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>583</v>
+        <v>354</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>609</v>
+        <v>370</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>610</v>
+        <v>371</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>487</v>
+        <v>266</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="H16" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2810,134 +2732,149 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>488</v>
+        <v>267</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="H18" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>489</v>
+        <v>268</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>490</v>
+        <v>269</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="H20" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>584</v>
+        <v>355</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>585</v>
+        <v>356</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>491</v>
+        <v>270</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="H22" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>492</v>
+        <v>271</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="H23" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>493</v>
+        <v>272</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="H24" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>494</v>
+        <v>273</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -2951,975 +2888,998 @@
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>495</v>
+        <v>274</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="H27" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>496</v>
+        <v>275</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="H28" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>497</v>
+        <v>276</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="H29" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>498</v>
+        <v>277</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="H30" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>499</v>
+        <v>278</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:13" s="24" customFormat="1">
-      <c r="A33" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="24" customFormat="1" ht="31.5">
-      <c r="A34" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="31" t="s">
-        <v>608</v>
-      </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="30"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="H31" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="24" customFormat="1">
+      <c r="A32" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" s="24" customFormat="1" ht="31.5">
+      <c r="A33" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="5" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>604</v>
+        <v>172</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="F35" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>501</v>
+        <v>281</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="H36" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="5" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>502</v>
+        <v>282</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="H37" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="5" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>503</v>
+        <v>283</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>504</v>
+        <v>284</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="H39" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>505</v>
+        <v>285</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="H40" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="H41" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>507</v>
+        <v>287</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>204</v>
+        <v>567</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="H42" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="5" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>228</v>
+        <v>569</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>570</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="H43" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>510</v>
+        <v>289</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>229</v>
+        <v>575</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="5" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>230</v>
+        <v>573</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>513</v>
+        <v>290</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-    </row>
-    <row r="50" spans="1:12">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>514</v>
+        <v>292</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="H50" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="5" t="s">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>515</v>
+        <v>293</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="5" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>516</v>
+        <v>294</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>249</v>
+        <v>198</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>517</v>
+        <v>295</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="5" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>518</v>
+        <v>296</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="H54" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="5" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>519</v>
+        <v>297</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>520</v>
+        <v>298</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="5" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>521</v>
+        <v>299</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>260</v>
+        <v>208</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="5" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>522</v>
+        <v>300</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="5" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>523</v>
+        <v>301</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="5" t="s">
-        <v>331</v>
+        <v>229</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>524</v>
+        <v>302</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>525</v>
+        <v>303</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="5" t="s">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>526</v>
+        <v>304</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="5" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>527</v>
+        <v>305</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>347</v>
+        <v>212</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="5" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>570</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>570</v>
-      </c>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="5" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>530</v>
+        <v>307</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>266</v>
+        <v>233</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="5" t="s">
-        <v>571</v>
-      </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
+      <c r="A67" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="5" t="s">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>531</v>
+        <v>309</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>572</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>596</v>
-      </c>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="5" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>533</v>
+        <v>310</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
+      <c r="A71" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="5" t="s">
-        <v>375</v>
+        <v>133</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>534</v>
+        <v>312</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H72" s="5" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="5" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>535</v>
+        <v>313</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>574</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>536</v>
+        <v>314</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>389</v>
+        <v>255</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>581</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="5" t="s">
-        <v>413</v>
+        <v>254</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>537</v>
+        <v>315</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>367</v>
+        <v>243</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>574</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>538</v>
+        <v>316</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>442</v>
+        <v>256</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>575</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="5" t="s">
-        <v>441</v>
+        <v>260</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>539</v>
+        <v>317</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>368</v>
+        <v>244</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>574</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>540</v>
+        <v>318</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>443</v>
+        <v>261</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>576</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="5" t="s">
-        <v>479</v>
+        <v>259</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>541</v>
+        <v>319</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>369</v>
+        <v>245</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>574</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>542</v>
+        <v>320</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>480</v>
+        <v>262</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>580</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="5" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>543</v>
+        <v>321</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>370</v>
+        <v>576</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="5" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>544</v>
+        <v>322</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>14</v>
+        <v>577</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>577</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="5" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>545</v>
+        <v>169</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>597</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3931,11 +3891,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C196" sqref="C196"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -4026,13 +3986,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
@@ -4041,13 +4001,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -4056,13 +4016,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
@@ -4071,13 +4031,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -4086,13 +4046,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -4110,13 +4070,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -4125,13 +4085,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -4149,13 +4109,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>146</v>
+        <v>375</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>146</v>
+        <v>375</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -4164,13 +4124,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -4179,13 +4139,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>148</v>
+        <v>396</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>148</v>
+        <v>396</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -4194,13 +4154,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>149</v>
+        <v>405</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>149</v>
+        <v>405</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -4209,13 +4169,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>150</v>
+        <v>414</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>150</v>
+        <v>414</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -4224,13 +4184,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>151</v>
+        <v>422</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>151</v>
+        <v>422</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -4239,13 +4199,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>152</v>
+        <v>429</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>152</v>
+        <v>429</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -4254,13 +4214,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>153</v>
+        <v>435</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>153</v>
+        <v>435</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -4269,13 +4229,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>154</v>
+        <v>440</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>154</v>
+        <v>440</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -4284,13 +4244,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>309</v>
+        <v>423</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -4299,13 +4259,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
@@ -4323,13 +4283,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="19" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>157</v>
+        <v>376</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>157</v>
+        <v>376</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
@@ -4338,13 +4298,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="19" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>158</v>
+        <v>387</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>158</v>
+        <v>387</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
@@ -4353,13 +4313,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="19" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>159</v>
+        <v>397</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>159</v>
+        <v>397</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
@@ -4368,13 +4328,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>160</v>
+        <v>406</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>160</v>
+        <v>406</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
@@ -4383,13 +4343,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>161</v>
+        <v>415</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>161</v>
+        <v>415</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
@@ -4398,13 +4358,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>310</v>
+        <v>423</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="20"/>
@@ -4413,13 +4373,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
@@ -4437,13 +4397,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="19" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>164</v>
+        <v>377</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>164</v>
+        <v>377</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
@@ -4452,13 +4412,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="19" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>165</v>
+        <v>388</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>165</v>
+        <v>388</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="20"/>
@@ -4467,13 +4427,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="19" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>166</v>
+        <v>398</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>166</v>
+        <v>398</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
@@ -4482,13 +4442,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="19" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
@@ -4497,13 +4457,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="19" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>168</v>
+        <v>416</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>168</v>
+        <v>416</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
@@ -4512,13 +4472,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="19" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
@@ -4536,13 +4496,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
@@ -4551,13 +4511,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>171</v>
+        <v>389</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>171</v>
+        <v>389</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
@@ -4566,13 +4526,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="20"/>
@@ -4581,13 +4541,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
@@ -4596,13 +4556,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
@@ -4620,13 +4580,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>587</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>587</v>
+        <v>507</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>507</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
@@ -4635,13 +4595,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>588</v>
+        <v>453</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>588</v>
+        <v>453</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
@@ -4650,13 +4610,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="19" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>589</v>
+        <v>465</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>589</v>
+        <v>465</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
@@ -4665,13 +4625,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="19" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>590</v>
+        <v>475</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>590</v>
+        <v>475</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
@@ -4680,13 +4640,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>593</v>
+        <v>148</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>519</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
@@ -4695,13 +4655,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>591</v>
+        <v>148</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>520</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
@@ -4710,13 +4670,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>592</v>
+        <v>148</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>521</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="20"/>
@@ -4725,13 +4685,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="19" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>175</v>
+        <v>497</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>175</v>
+        <v>497</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
@@ -4740,13 +4700,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="19" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>176</v>
+        <v>501</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="20"/>
@@ -4764,13 +4724,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="19" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="20"/>
@@ -4779,13 +4739,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="19" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="20"/>
@@ -4794,13 +4754,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="19" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="20"/>
@@ -4818,13 +4778,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="19" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>555</v>
+        <v>379</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>555</v>
+        <v>379</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="20"/>
@@ -4833,13 +4793,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="19" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>556</v>
+        <v>390</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>556</v>
+        <v>390</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="20"/>
@@ -4848,13 +4808,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="19" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="20"/>
@@ -4872,13 +4832,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="19" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="20"/>
@@ -4887,13 +4847,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="19" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="20"/>
@@ -4911,13 +4871,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B69" s="19">
-        <v>5</v>
-      </c>
-      <c r="C69" s="19">
-        <v>5</v>
+        <v>178</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="20"/>
@@ -4926,13 +4886,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B70" s="19">
-        <v>6</v>
-      </c>
-      <c r="C70" s="19">
-        <v>6</v>
+        <v>178</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>454</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="20"/>
@@ -4941,13 +4901,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="19">
-        <v>7</v>
-      </c>
-      <c r="C71" s="19">
-        <v>7</v>
+        <v>178</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>466</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="20"/>
@@ -4955,9 +4915,15 @@
       <c r="G71" s="20"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>476</v>
+      </c>
       <c r="D72" s="19"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -4965,13 +4931,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="19" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>218</v>
+        <v>484</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>218</v>
+        <v>484</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="20"/>
@@ -4980,13 +4946,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="19" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>219</v>
+        <v>491</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="20"/>
@@ -4994,15 +4960,9 @@
       <c r="G74" s="20"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>220</v>
-      </c>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -5010,13 +4970,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="19" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="20"/>
@@ -5025,13 +4985,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="19" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>222</v>
+        <v>455</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>222</v>
+        <v>455</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="20"/>
@@ -5040,13 +5000,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="19" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>123</v>
+        <v>467</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>223</v>
+        <v>467</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="20"/>
@@ -5054,24 +5014,24 @@
       <c r="G78" s="20"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>477</v>
+      </c>
       <c r="D79" s="19"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>224</v>
-      </c>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -5079,13 +5039,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="19" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>225</v>
+        <v>508</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>508</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="20"/>
@@ -5094,13 +5054,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="19" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>226</v>
+        <v>446</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>226</v>
+        <v>446</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="20"/>
@@ -5109,13 +5069,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="19" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>227</v>
+        <v>456</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>227</v>
+        <v>456</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="20"/>
@@ -5123,9 +5083,15 @@
       <c r="G83" s="20"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
+      <c r="A84" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>468</v>
+      </c>
       <c r="D84" s="19"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -5133,13 +5099,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="19" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>233</v>
+        <v>478</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>233</v>
+        <v>478</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="20"/>
@@ -5148,13 +5114,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="19" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>234</v>
+        <v>485</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>234</v>
+        <v>485</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="20"/>
@@ -5163,13 +5129,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="19" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>235</v>
+        <v>492</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>235</v>
+        <v>492</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="20"/>
@@ -5178,13 +5144,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>236</v>
+        <v>194</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>236</v>
+        <v>495</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="20"/>
@@ -5192,15 +5158,9 @@
       <c r="G88" s="20"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>237</v>
-      </c>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -5208,13 +5168,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="19" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>238</v>
+        <v>447</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>238</v>
+        <v>447</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="20"/>
@@ -5223,13 +5183,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="19" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>239</v>
+        <v>457</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>239</v>
+        <v>457</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="20"/>
@@ -5238,13 +5198,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="19" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>123</v>
+        <v>469</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>240</v>
+        <v>469</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="20"/>
@@ -5252,24 +5212,24 @@
       <c r="G92" s="20"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
+      <c r="A93" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>502</v>
+      </c>
       <c r="D93" s="19"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>267</v>
-      </c>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -5277,13 +5237,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="19" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>268</v>
+        <v>448</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>268</v>
+        <v>448</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="20"/>
@@ -5292,13 +5252,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="19" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="20"/>
@@ -5307,13 +5267,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="19" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="20"/>
@@ -5321,9 +5281,15 @@
       <c r="G97" s="20"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
+      <c r="A98" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>479</v>
+      </c>
       <c r="D98" s="19"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -5331,13 +5297,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="19" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>275</v>
+        <v>486</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>275</v>
+        <v>486</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="20"/>
@@ -5346,13 +5312,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="19" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>276</v>
+        <v>493</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>276</v>
+        <v>493</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="20"/>
@@ -5361,13 +5327,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="19" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>277</v>
+        <v>496</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>277</v>
+        <v>496</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="20"/>
@@ -5376,13 +5342,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="19" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>278</v>
+        <v>498</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>278</v>
+        <v>498</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="20"/>
@@ -5391,13 +5357,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="19" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>279</v>
+        <v>503</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>279</v>
+        <v>503</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="20"/>
@@ -5406,13 +5372,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="19" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>280</v>
+        <v>121</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="20"/>
@@ -5420,15 +5386,9 @@
       <c r="G104" s="20"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>281</v>
-      </c>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -5436,13 +5396,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="19" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>282</v>
+        <v>509</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>282</v>
+        <v>509</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="20"/>
@@ -5451,13 +5411,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="19" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>283</v>
+        <v>449</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>283</v>
+        <v>449</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="20"/>
@@ -5466,13 +5426,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="19" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>123</v>
+        <v>459</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>284</v>
+        <v>459</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="20"/>
@@ -5480,9 +5440,15 @@
       <c r="G108" s="20"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="19"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
+      <c r="A109" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>461</v>
+      </c>
       <c r="D109" s="19"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -5490,13 +5456,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="19" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>287</v>
+        <v>472</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>287</v>
+        <v>472</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="20"/>
@@ -5505,13 +5471,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="19" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>288</v>
+        <v>487</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>288</v>
+        <v>487</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="20"/>
@@ -5520,13 +5486,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="19" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="20"/>
@@ -5535,13 +5501,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="19" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>290</v>
+        <v>494</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>290</v>
+        <v>494</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="20"/>
@@ -5550,13 +5516,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="19" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>291</v>
+        <v>499</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>291</v>
+        <v>499</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="20"/>
@@ -5565,13 +5531,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="19" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>292</v>
+        <v>504</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>292</v>
+        <v>504</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="20"/>
@@ -5580,13 +5546,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>293</v>
+        <v>219</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>500</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="20"/>
@@ -5595,13 +5561,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>294</v>
+        <v>219</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>512</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="20"/>
@@ -5610,13 +5576,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>295</v>
+        <v>219</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>513</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="20"/>
@@ -5625,13 +5591,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>296</v>
+        <v>219</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>514</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="20"/>
@@ -5640,13 +5606,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>297</v>
+        <v>219</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>515</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="20"/>
@@ -5655,13 +5621,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>298</v>
+        <v>219</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>516</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="20"/>
@@ -5670,13 +5636,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>299</v>
+        <v>219</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>517</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="20"/>
@@ -5685,73 +5651,67 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="19" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
+        <v>121</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="D123" s="15"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="19" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
+        <v>430</v>
+      </c>
+      <c r="D125" s="15"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="19" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>303</v>
+        <v>460</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="D126" s="19"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
+        <v>460</v>
+      </c>
+      <c r="D126" s="15"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="19" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>123</v>
+        <v>471</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>304</v>
+        <v>471</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="16"/>
@@ -5759,9 +5719,15 @@
       <c r="G127" s="16"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
+      <c r="A128" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>480</v>
+      </c>
       <c r="D128" s="15"/>
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
@@ -5769,13 +5735,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="19" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>311</v>
+        <v>488</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>311</v>
+        <v>488</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
@@ -5784,13 +5750,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="19" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>312</v>
+        <v>121</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>523</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="16"/>
@@ -5799,13 +5765,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>313</v>
+        <v>222</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="16"/>
@@ -5813,15 +5779,9 @@
       <c r="G131" s="16"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>314</v>
-      </c>
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
       <c r="D132" s="15"/>
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
@@ -5829,13 +5789,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="19" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>315</v>
+        <v>509</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>315</v>
+        <v>509</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="16"/>
@@ -5844,13 +5804,13 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="19" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>123</v>
+        <v>449</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>316</v>
+        <v>449</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="16"/>
@@ -5859,13 +5819,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="19" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>317</v>
+        <v>461</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>317</v>
+        <v>461</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -5873,9 +5833,15 @@
       <c r="G135" s="16"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="19"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
+      <c r="A136" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>472</v>
+      </c>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
@@ -5883,13 +5849,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="19" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>287</v>
+        <v>481</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>287</v>
+        <v>481</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="16"/>
@@ -5898,13 +5864,13 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="19" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>288</v>
+        <v>489</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>288</v>
+        <v>489</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -5913,13 +5879,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="19" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>319</v>
+        <v>494</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>319</v>
+        <v>494</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="16"/>
@@ -5928,13 +5894,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="19" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>320</v>
+        <v>504</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>504</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="16"/>
@@ -5943,13 +5909,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="19" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="16"/>
@@ -5958,13 +5924,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="19" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>322</v>
+        <v>505</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>322</v>
+        <v>505</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="16"/>
@@ -5973,13 +5939,13 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>323</v>
+        <v>224</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>513</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="16"/>
@@ -5988,13 +5954,13 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>324</v>
+        <v>224</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>514</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="16"/>
@@ -6003,13 +5969,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>325</v>
+        <v>224</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>524</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="16"/>
@@ -6018,13 +5984,13 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="19" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>326</v>
+        <v>121</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="16"/>
@@ -6032,15 +5998,9 @@
       <c r="G146" s="16"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>327</v>
-      </c>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
       <c r="D147" s="15"/>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
@@ -6048,13 +6008,13 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="19" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>328</v>
+        <v>450</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>328</v>
+        <v>450</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="16"/>
@@ -6063,13 +6023,13 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="19" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="16"/>
@@ -6078,13 +6038,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="19" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>330</v>
+        <v>473</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="16"/>
@@ -6092,9 +6052,15 @@
       <c r="G150" s="16"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
+      <c r="A151" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>482</v>
+      </c>
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
@@ -6102,13 +6068,13 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="19" t="s">
-        <v>332</v>
+        <v>226</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>333</v>
+        <v>490</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>333</v>
+        <v>490</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="16"/>
@@ -6117,13 +6083,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="19" t="s">
-        <v>332</v>
+        <v>226</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>334</v>
+        <v>428</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>334</v>
+        <v>428</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="16"/>
@@ -6132,13 +6098,13 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="19" t="s">
-        <v>332</v>
+        <v>226</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>335</v>
+        <v>157</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>335</v>
+        <v>157</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="16"/>
@@ -6147,13 +6113,13 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="19" t="s">
-        <v>332</v>
+        <v>226</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>336</v>
+        <v>121</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="16"/>
@@ -6161,15 +6127,9 @@
       <c r="G155" s="16"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>337</v>
-      </c>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="15"/>
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
@@ -6177,13 +6137,13 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>338</v>
+        <v>227</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>525</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="16"/>
@@ -6192,13 +6152,13 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>339</v>
+        <v>227</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>526</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="16"/>
@@ -6207,13 +6167,13 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>284</v>
+        <v>227</v>
+      </c>
+      <c r="B159" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="C159" s="32" t="s">
+        <v>527</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="16"/>
@@ -6231,13 +6191,13 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>342</v>
+        <v>235</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>510</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>342</v>
+        <v>511</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="16"/>
@@ -6246,13 +6206,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="19" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -6261,13 +6221,13 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="19" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -6275,24 +6235,24 @@
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="19"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
+      <c r="A164" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B164" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>528</v>
+      </c>
       <c r="D164" s="15"/>
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="B165" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>351</v>
-      </c>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
@@ -6300,13 +6260,13 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="19" t="s">
-        <v>354</v>
+        <v>237</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="16"/>
@@ -6315,13 +6275,13 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="19" t="s">
-        <v>354</v>
+        <v>237</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="16"/>
@@ -6330,13 +6290,13 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="19" t="s">
-        <v>354</v>
+        <v>237</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>270</v>
+        <v>474</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>270</v>
+        <v>474</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="16"/>
@@ -6344,9 +6304,15 @@
       <c r="G168" s="16"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="19"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
+      <c r="A169" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>483</v>
+      </c>
       <c r="D169" s="15"/>
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
@@ -6354,13 +6320,13 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="19" t="s">
-        <v>356</v>
+        <v>237</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>358</v>
+        <v>121</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>529</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="16"/>
@@ -6369,13 +6335,13 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="19" t="s">
-        <v>356</v>
+        <v>237</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>359</v>
+        <v>506</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>530</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="16"/>
@@ -6383,15 +6349,9 @@
       <c r="G171" s="16"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>360</v>
-      </c>
+      <c r="A172" s="19"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="15"/>
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
@@ -6399,13 +6359,13 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="19" t="s">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="16"/>
@@ -6414,13 +6374,13 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="19" t="s">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>362</v>
+        <v>156</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="16"/>
@@ -6429,13 +6389,13 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B175" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>363</v>
+        <v>246</v>
+      </c>
+      <c r="B175" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="C175" s="32" t="s">
+        <v>428</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="16"/>
@@ -6443,24 +6403,24 @@
       <c r="G175" s="16"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="19"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
+      <c r="A176" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="D176" s="15"/>
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="B177" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>371</v>
-      </c>
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="15"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
@@ -6468,13 +6428,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="19" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="16"/>
@@ -6483,13 +6443,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="19" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="16"/>
@@ -6498,13 +6458,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="19" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="16"/>
@@ -6512,9 +6472,15 @@
       <c r="G180" s="16"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="19"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
+      <c r="A181" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>409</v>
+      </c>
       <c r="D181" s="15"/>
       <c r="E181" s="16"/>
       <c r="F181" s="16"/>
@@ -6522,13 +6488,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="19" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="16"/>
@@ -6537,13 +6503,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="19" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="16"/>
@@ -6552,13 +6518,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="19" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="16"/>
@@ -6567,13 +6533,13 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="19" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="16"/>
@@ -6582,13 +6548,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="19" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="16"/>
@@ -6597,13 +6563,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="19" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="16"/>
@@ -6612,13 +6578,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="19" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="C188" s="19" t="s">
-        <v>382</v>
+        <v>121</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>531</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="16"/>
@@ -6626,15 +6592,9 @@
       <c r="G188" s="16"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="B189" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="C189" s="19" t="s">
-        <v>383</v>
-      </c>
+      <c r="A189" s="19"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
@@ -6642,13 +6602,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="19" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>384</v>
+        <v>560</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -6657,13 +6617,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="19" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>385</v>
+        <v>556</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="16"/>
@@ -6672,13 +6632,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="19" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>123</v>
+        <v>552</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -6686,9 +6646,15 @@
       <c r="G192" s="16"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="19"/>
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
+      <c r="A193" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>410</v>
+      </c>
       <c r="D193" s="15"/>
       <c r="E193" s="16"/>
       <c r="F193" s="16"/>
@@ -6696,13 +6662,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="19" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>401</v>
+        <v>544</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="16"/>
@@ -6711,13 +6677,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="19" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>402</v>
+        <v>541</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
@@ -6726,13 +6692,13 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="19" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>403</v>
+        <v>538</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="16"/>
@@ -6741,13 +6707,13 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="19" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>404</v>
+        <v>536</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="16"/>
@@ -6756,13 +6722,13 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="19" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="16"/>
@@ -6771,13 +6737,13 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="19" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>406</v>
+        <v>534</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="16"/>
@@ -6786,13 +6752,13 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="19" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>396</v>
+        <v>532</v>
+      </c>
+      <c r="C200" s="32" t="s">
+        <v>434</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="16"/>
@@ -6801,13 +6767,13 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="19" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="C201" s="19" t="s">
-        <v>397</v>
+        <v>121</v>
+      </c>
+      <c r="C201" s="32" t="s">
+        <v>531</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="16"/>
@@ -6815,15 +6781,9 @@
       <c r="G201" s="16"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>398</v>
-      </c>
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
       <c r="D202" s="15"/>
       <c r="E202" s="16"/>
       <c r="F202" s="16"/>
@@ -6831,13 +6791,13 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="19" t="s">
-        <v>412</v>
+        <v>253</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>410</v>
+        <v>561</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="16"/>
@@ -6846,13 +6806,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="19" t="s">
-        <v>412</v>
+        <v>253</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>411</v>
+        <v>557</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="16"/>
@@ -6861,13 +6821,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="19" t="s">
-        <v>412</v>
+        <v>253</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>123</v>
+        <v>553</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="16"/>
@@ -6875,9 +6835,15 @@
       <c r="G205" s="16"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
+      <c r="A206" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="D206" s="15"/>
       <c r="E206" s="16"/>
       <c r="F206" s="16"/>
@@ -6885,13 +6851,13 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>427</v>
+        <v>545</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="16"/>
@@ -6900,13 +6866,13 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>428</v>
+        <v>542</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="16"/>
@@ -6915,13 +6881,13 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>429</v>
+        <v>539</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="16"/>
@@ -6930,13 +6896,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="16"/>
@@ -6945,13 +6911,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="16"/>
@@ -6960,13 +6926,13 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>432</v>
+        <v>535</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="16"/>
@@ -6975,13 +6941,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C213" s="19" t="s">
-        <v>420</v>
+        <v>533</v>
+      </c>
+      <c r="C213" s="32" t="s">
+        <v>564</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="16"/>
@@ -6990,13 +6956,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>434</v>
+        <v>534</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="16"/>
@@ -7005,13 +6971,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>435</v>
+        <v>532</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="16"/>
@@ -7020,13 +6986,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="19" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>436</v>
+        <v>121</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>423</v>
+        <v>531</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="16"/>
@@ -7034,15 +7000,9 @@
       <c r="G216" s="16"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="B217" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="C217" s="19" t="s">
-        <v>424</v>
-      </c>
+      <c r="A217" s="19"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="19"/>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
       <c r="F217" s="16"/>
@@ -7050,13 +7010,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="19" t="s">
-        <v>440</v>
+        <v>257</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="16"/>
@@ -7065,13 +7025,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="19" t="s">
-        <v>440</v>
+        <v>257</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -7080,13 +7040,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="19" t="s">
-        <v>440</v>
+        <v>257</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>123</v>
+        <v>554</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="16"/>
@@ -7094,9 +7054,15 @@
       <c r="G220" s="16"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="19"/>
-      <c r="B221" s="19"/>
-      <c r="C221" s="19"/>
+      <c r="A221" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>412</v>
+      </c>
       <c r="D221" s="15"/>
       <c r="E221" s="16"/>
       <c r="F221" s="16"/>
@@ -7104,13 +7070,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="19" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="16"/>
@@ -7119,13 +7085,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="19" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>453</v>
+        <v>543</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="16"/>
@@ -7134,13 +7100,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="19" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="16"/>
@@ -7149,13 +7115,13 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="19" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>455</v>
+        <v>537</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="16"/>
@@ -7164,13 +7130,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="19" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="16"/>
@@ -7179,13 +7145,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="19" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>457</v>
+        <v>532</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="16"/>
@@ -7194,13 +7160,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="19" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>458</v>
+        <v>121</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="16"/>
@@ -7208,15 +7174,9 @@
       <c r="G228" s="16"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="B229" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="C229" s="19" t="s">
-        <v>451</v>
-      </c>
+      <c r="A229" s="19"/>
+      <c r="B229" s="19"/>
+      <c r="C229" s="19"/>
       <c r="D229" s="15"/>
       <c r="E229" s="16"/>
       <c r="F229" s="16"/>
@@ -7224,13 +7184,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="19" t="s">
-        <v>462</v>
+        <v>258</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>460</v>
+        <v>563</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="16"/>
@@ -7239,13 +7199,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="19" t="s">
-        <v>462</v>
+        <v>258</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>461</v>
+        <v>559</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="16"/>
@@ -7254,13 +7214,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="19" t="s">
-        <v>462</v>
+        <v>258</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>123</v>
+        <v>555</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="16"/>
@@ -7268,9 +7228,15 @@
       <c r="G232" s="16"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="19"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
+      <c r="A233" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>413</v>
+      </c>
       <c r="D233" s="15"/>
       <c r="E233" s="16"/>
       <c r="F233" s="16"/>
@@ -7278,13 +7244,13 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="19" t="s">
-        <v>477</v>
+        <v>258</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>470</v>
+        <v>547</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="16"/>
@@ -7293,13 +7259,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="19" t="s">
-        <v>477</v>
+        <v>258</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="16"/>
@@ -7308,13 +7274,13 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="19" t="s">
-        <v>477</v>
+        <v>258</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="16"/>
@@ -7323,13 +7289,13 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="19" t="s">
-        <v>477</v>
+        <v>258</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>473</v>
+        <v>121</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="16"/>
@@ -7337,15 +7303,9 @@
       <c r="G237" s="16"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="B238" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="C238" s="19" t="s">
-        <v>467</v>
-      </c>
+      <c r="A238" s="19"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
       <c r="D238" s="15"/>
       <c r="E238" s="16"/>
       <c r="F238" s="16"/>
@@ -7353,13 +7313,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="19" t="s">
-        <v>477</v>
+        <v>323</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>475</v>
+        <v>324</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>468</v>
+        <v>325</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="16"/>
@@ -7368,13 +7328,13 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="19" t="s">
-        <v>477</v>
+        <v>323</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>476</v>
+        <v>326</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>469</v>
+        <v>327</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="16"/>
@@ -7383,13 +7343,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="19" t="s">
-        <v>477</v>
+        <v>323</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>123</v>
+        <v>328</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="16"/>
@@ -7397,9 +7357,15 @@
       <c r="G241" s="16"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="19"/>
-      <c r="B242" s="19"/>
-      <c r="C242" s="19"/>
+      <c r="A242" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C242" s="19" t="s">
+        <v>329</v>
+      </c>
       <c r="D242" s="15"/>
       <c r="E242" s="16"/>
       <c r="F242" s="16"/>
@@ -7407,13 +7373,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="19" t="s">
-        <v>547</v>
+        <v>323</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>548</v>
+        <v>330</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>549</v>
+        <v>330</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
@@ -7421,83 +7387,67 @@
       <c r="G243" s="16"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="B244" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="C244" s="19" t="s">
-        <v>551</v>
-      </c>
+      <c r="A244" s="19"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
       <c r="D244" s="15"/>
       <c r="E244" s="16"/>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="B245" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="C245" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="D245" s="15"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="16"/>
+      <c r="A245" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="B246" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="C246" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="D246" s="15"/>
-      <c r="E246" s="16"/>
-      <c r="F246" s="16"/>
-      <c r="G246" s="16"/>
+      <c r="A246" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="B247" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="C247" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="D247" s="15"/>
-      <c r="E247" s="16"/>
-      <c r="F247" s="16"/>
-      <c r="G247" s="16"/>
+      <c r="A247" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="19"/>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="15"/>
-      <c r="E248" s="16"/>
-      <c r="F248" s="16"/>
-      <c r="G248" s="16"/>
+      <c r="A248" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7505,10 +7455,10 @@
         <v>107</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7516,264 +7466,276 @@
         <v>107</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B267" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E269" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C267" s="5" t="s">
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E270" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D267" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7781,13 +7743,13 @@
         <v>111</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7795,13 +7757,13 @@
         <v>111</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7809,13 +7771,13 @@
         <v>111</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7823,13 +7785,13 @@
         <v>111</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7837,13 +7799,13 @@
         <v>111</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7851,13 +7813,13 @@
         <v>111</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7865,13 +7827,13 @@
         <v>111</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7879,13 +7841,13 @@
         <v>111</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7893,13 +7855,13 @@
         <v>111</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7907,13 +7869,13 @@
         <v>111</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7921,13 +7883,13 @@
         <v>111</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7935,13 +7897,13 @@
         <v>111</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7949,13 +7911,13 @@
         <v>111</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7963,13 +7925,13 @@
         <v>111</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7977,13 +7939,13 @@
         <v>111</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7991,13 +7953,13 @@
         <v>111</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8005,13 +7967,13 @@
         <v>111</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8019,13 +7981,13 @@
         <v>111</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8033,13 +7995,13 @@
         <v>111</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8047,13 +8009,13 @@
         <v>111</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8061,13 +8023,13 @@
         <v>111</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8075,13 +8037,13 @@
         <v>111</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8089,13 +8051,13 @@
         <v>111</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8103,13 +8065,13 @@
         <v>111</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8117,13 +8079,13 @@
         <v>111</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8131,13 +8093,13 @@
         <v>111</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8145,13 +8107,13 @@
         <v>111</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8159,13 +8121,13 @@
         <v>111</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8173,13 +8135,13 @@
         <v>111</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8187,13 +8149,13 @@
         <v>111</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8201,13 +8163,13 @@
         <v>111</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8215,13 +8177,13 @@
         <v>111</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -8229,13 +8191,13 @@
         <v>111</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -8243,13 +8205,13 @@
         <v>111</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -8257,13 +8219,13 @@
         <v>111</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -8271,13 +8233,13 @@
         <v>111</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -8285,13 +8247,13 @@
         <v>111</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -8299,13 +8261,13 @@
         <v>111</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -8313,13 +8275,13 @@
         <v>111</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -8327,13 +8289,13 @@
         <v>111</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -8341,69 +8303,69 @@
         <v>111</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="A314" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E314" s="5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E315" s="5" t="s">
-        <v>59</v>
+        <v>114</v>
+      </c>
+      <c r="B315" s="5">
+        <v>101</v>
+      </c>
+      <c r="C315" s="5">
+        <v>101</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E316" s="5" t="s">
-        <v>59</v>
+        <v>114</v>
+      </c>
+      <c r="B316" s="5">
+        <v>102</v>
+      </c>
+      <c r="C316" s="5">
+        <v>102</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E317" s="5" t="s">
-        <v>59</v>
+        <v>114</v>
+      </c>
+      <c r="B317" s="5">
+        <v>103</v>
+      </c>
+      <c r="C317" s="5">
+        <v>103</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B318" s="5">
+        <v>104</v>
+      </c>
+      <c r="C318" s="5">
+        <v>104</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8411,13 +8373,13 @@
         <v>114</v>
       </c>
       <c r="B319" s="5">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C319" s="5">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8425,13 +8387,13 @@
         <v>114</v>
       </c>
       <c r="B320" s="5">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C320" s="5">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -8439,13 +8401,13 @@
         <v>114</v>
       </c>
       <c r="B321" s="5">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C321" s="5">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -8453,13 +8415,13 @@
         <v>114</v>
       </c>
       <c r="B322" s="5">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C322" s="5">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -8467,13 +8429,13 @@
         <v>114</v>
       </c>
       <c r="B323" s="5">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C323" s="5">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -8481,13 +8443,13 @@
         <v>114</v>
       </c>
       <c r="B324" s="5">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C324" s="5">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -8495,13 +8457,13 @@
         <v>114</v>
       </c>
       <c r="B325" s="5">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C325" s="5">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -8509,13 +8471,13 @@
         <v>114</v>
       </c>
       <c r="B326" s="5">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C326" s="5">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -8523,13 +8485,13 @@
         <v>114</v>
       </c>
       <c r="B327" s="5">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C327" s="5">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -8537,13 +8499,13 @@
         <v>114</v>
       </c>
       <c r="B328" s="5">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C328" s="5">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -8551,13 +8513,13 @@
         <v>114</v>
       </c>
       <c r="B329" s="5">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C329" s="5">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -8565,13 +8527,13 @@
         <v>114</v>
       </c>
       <c r="B330" s="5">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C330" s="5">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8579,13 +8541,13 @@
         <v>114</v>
       </c>
       <c r="B331" s="5">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C331" s="5">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -8593,13 +8555,13 @@
         <v>114</v>
       </c>
       <c r="B332" s="5">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C332" s="5">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -8607,13 +8569,13 @@
         <v>114</v>
       </c>
       <c r="B333" s="5">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C333" s="5">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -8621,13 +8583,13 @@
         <v>114</v>
       </c>
       <c r="B334" s="5">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C334" s="5">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -8635,13 +8597,13 @@
         <v>114</v>
       </c>
       <c r="B335" s="5">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C335" s="5">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8649,13 +8611,13 @@
         <v>114</v>
       </c>
       <c r="B336" s="5">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C336" s="5">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8663,13 +8625,13 @@
         <v>114</v>
       </c>
       <c r="B337" s="5">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C337" s="5">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8677,13 +8639,13 @@
         <v>114</v>
       </c>
       <c r="B338" s="5">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C338" s="5">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8691,13 +8653,13 @@
         <v>114</v>
       </c>
       <c r="B339" s="5">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C339" s="5">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -8705,13 +8667,13 @@
         <v>114</v>
       </c>
       <c r="B340" s="5">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C340" s="5">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8719,13 +8681,13 @@
         <v>114</v>
       </c>
       <c r="B341" s="5">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C341" s="5">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8733,13 +8695,13 @@
         <v>114</v>
       </c>
       <c r="B342" s="5">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C342" s="5">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8747,13 +8709,13 @@
         <v>114</v>
       </c>
       <c r="B343" s="5">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C343" s="5">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8761,13 +8723,13 @@
         <v>114</v>
       </c>
       <c r="B344" s="5">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C344" s="5">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8775,13 +8737,13 @@
         <v>114</v>
       </c>
       <c r="B345" s="5">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C345" s="5">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8789,13 +8751,13 @@
         <v>114</v>
       </c>
       <c r="B346" s="5">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C346" s="5">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8803,13 +8765,13 @@
         <v>114</v>
       </c>
       <c r="B347" s="5">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C347" s="5">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8817,13 +8779,13 @@
         <v>114</v>
       </c>
       <c r="B348" s="5">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C348" s="5">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8831,13 +8793,13 @@
         <v>114</v>
       </c>
       <c r="B349" s="5">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C349" s="5">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8845,13 +8807,13 @@
         <v>114</v>
       </c>
       <c r="B350" s="5">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C350" s="5">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8859,13 +8821,13 @@
         <v>114</v>
       </c>
       <c r="B351" s="5">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C351" s="5">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8873,13 +8835,13 @@
         <v>114</v>
       </c>
       <c r="B352" s="5">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C352" s="5">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8887,13 +8849,13 @@
         <v>114</v>
       </c>
       <c r="B353" s="5">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C353" s="5">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8901,13 +8863,13 @@
         <v>114</v>
       </c>
       <c r="B354" s="5">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C354" s="5">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8915,13 +8877,13 @@
         <v>114</v>
       </c>
       <c r="B355" s="5">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C355" s="5">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8929,13 +8891,13 @@
         <v>114</v>
       </c>
       <c r="B356" s="5">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C356" s="5">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8943,13 +8905,13 @@
         <v>114</v>
       </c>
       <c r="B357" s="5">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C357" s="5">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8957,13 +8919,13 @@
         <v>114</v>
       </c>
       <c r="B358" s="5">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C358" s="5">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8971,73 +8933,17 @@
         <v>114</v>
       </c>
       <c r="B359" s="5">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C359" s="5">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B360" s="5">
-        <v>142</v>
-      </c>
-      <c r="C360" s="5">
-        <v>142</v>
-      </c>
-      <c r="F360" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B361" s="5">
-        <v>143</v>
-      </c>
-      <c r="C361" s="5">
-        <v>143</v>
-      </c>
-      <c r="F361" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B362" s="5">
-        <v>144</v>
-      </c>
-      <c r="C362" s="5">
-        <v>144</v>
-      </c>
-      <c r="F362" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B363" s="5">
-        <v>145</v>
-      </c>
-      <c r="C363" s="5">
-        <v>145</v>
-      </c>
-      <c r="F363" s="5" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9048,7 +8954,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -9071,10 +8977,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>373</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>

--- a/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
+++ b/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D5DAF-7ADF-4543-B85B-C6540E9374D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E05BDAA-D470-463A-81CE-A13127EA00D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="580">
   <si>
     <t>type</t>
   </si>
@@ -1770,6 +1770,12 @@
   </si>
   <si>
     <t>Q43. Quel est le résultat du test à la bandelette à la bandelette urinaire</t>
+  </si>
+  <si>
+    <t>Trace non hémolysée</t>
+  </si>
+  <si>
+    <t>Trace.non.hémolysée</t>
   </si>
 </sst>
 </file>
@@ -2383,9 +2389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -3584,6 +3590,9 @@
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H66" s="5" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="5" t="s">
@@ -3861,6 +3870,9 @@
       <c r="C83" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="H83" s="5" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5" t="s">
@@ -3891,11 +3903,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G359"/>
+  <dimension ref="A1:G360"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -7346,10 +7358,10 @@
         <v>323</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>328</v>
+        <v>579</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>328</v>
+        <v>578</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="16"/>
@@ -7361,10 +7373,10 @@
         <v>323</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="16"/>
@@ -7376,10 +7388,10 @@
         <v>323</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
@@ -7387,34 +7399,38 @@
       <c r="G243" s="16"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="19"/>
-      <c r="B244" s="19"/>
-      <c r="C244" s="19"/>
+      <c r="A244" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>330</v>
+      </c>
       <c r="D244" s="15"/>
       <c r="E244" s="16"/>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A245" s="19"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="16"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="16"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7422,10 +7438,10 @@
         <v>107</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7433,10 +7449,10 @@
         <v>107</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7444,10 +7460,10 @@
         <v>107</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7455,10 +7471,10 @@
         <v>107</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7466,24 +7482,21 @@
         <v>107</v>
       </c>
       <c r="B251" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C251" s="5" t="s">
+      <c r="C252" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7491,10 +7504,10 @@
         <v>108</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>56</v>
@@ -7505,10 +7518,10 @@
         <v>108</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>56</v>
@@ -7519,13 +7532,13 @@
         <v>108</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7533,13 +7546,13 @@
         <v>108</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7547,10 +7560,10 @@
         <v>108</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>60</v>
@@ -7561,10 +7574,10 @@
         <v>108</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>60</v>
@@ -7575,13 +7588,13 @@
         <v>108</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7589,10 +7602,10 @@
         <v>108</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>49</v>
@@ -7603,13 +7616,13 @@
         <v>108</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7617,13 +7630,13 @@
         <v>108</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7631,10 +7644,10 @@
         <v>108</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>44</v>
@@ -7645,10 +7658,10 @@
         <v>108</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>44</v>
@@ -7659,13 +7672,13 @@
         <v>108</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7673,27 +7686,27 @@
         <v>108</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>45</v>
+    <row r="268" spans="1:5">
+      <c r="A268" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7701,10 +7714,10 @@
         <v>111</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>45</v>
@@ -7715,10 +7728,10 @@
         <v>111</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E271" s="5" t="s">
         <v>45</v>
@@ -7729,13 +7742,13 @@
         <v>111</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7743,10 +7756,10 @@
         <v>111</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>57</v>
@@ -7757,10 +7770,10 @@
         <v>111</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>57</v>
@@ -7771,13 +7784,13 @@
         <v>111</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7785,10 +7798,10 @@
         <v>111</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>52</v>
@@ -7799,10 +7812,10 @@
         <v>111</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>52</v>
@@ -7813,13 +7826,13 @@
         <v>111</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7827,10 +7840,10 @@
         <v>111</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>48</v>
@@ -7841,10 +7854,10 @@
         <v>111</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>48</v>
@@ -7855,13 +7868,13 @@
         <v>111</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7869,10 +7882,10 @@
         <v>111</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>61</v>
@@ -7883,10 +7896,10 @@
         <v>111</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>61</v>
@@ -7897,13 +7910,13 @@
         <v>111</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7911,10 +7924,10 @@
         <v>111</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>50</v>
@@ -7925,10 +7938,10 @@
         <v>111</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>50</v>
@@ -7939,13 +7952,13 @@
         <v>111</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7953,10 +7966,10 @@
         <v>111</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>54</v>
@@ -7967,10 +7980,10 @@
         <v>111</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>54</v>
@@ -7981,13 +7994,13 @@
         <v>111</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7995,10 +8008,10 @@
         <v>111</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>46</v>
@@ -8009,10 +8022,10 @@
         <v>111</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>46</v>
@@ -8023,13 +8036,13 @@
         <v>111</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8037,10 +8050,10 @@
         <v>111</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>58</v>
@@ -8051,10 +8064,10 @@
         <v>111</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>58</v>
@@ -8065,13 +8078,13 @@
         <v>111</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8079,10 +8092,10 @@
         <v>111</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>62</v>
@@ -8093,10 +8106,10 @@
         <v>111</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E298" s="5" t="s">
         <v>62</v>
@@ -8107,13 +8120,13 @@
         <v>111</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8121,10 +8134,10 @@
         <v>111</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>63</v>
@@ -8135,10 +8148,10 @@
         <v>111</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E301" s="5" t="s">
         <v>63</v>
@@ -8149,13 +8162,13 @@
         <v>111</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8163,10 +8176,10 @@
         <v>111</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E303" s="5" t="s">
         <v>51</v>
@@ -8177,10 +8190,10 @@
         <v>111</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>51</v>
@@ -8191,13 +8204,13 @@
         <v>111</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -8205,10 +8218,10 @@
         <v>111</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E306" s="5" t="s">
         <v>55</v>
@@ -8219,10 +8232,10 @@
         <v>111</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>55</v>
@@ -8233,13 +8246,13 @@
         <v>111</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -8247,10 +8260,10 @@
         <v>111</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E309" s="5" t="s">
         <v>44</v>
@@ -8261,10 +8274,10 @@
         <v>111</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>44</v>
@@ -8275,13 +8288,13 @@
         <v>111</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -8289,10 +8302,10 @@
         <v>111</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>59</v>
@@ -8303,27 +8316,27 @@
         <v>111</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
-      <c r="A315" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B315" s="5">
-        <v>101</v>
-      </c>
-      <c r="C315" s="5">
-        <v>101</v>
-      </c>
-      <c r="F315" s="5" t="s">
-        <v>65</v>
+    <row r="314" spans="1:6">
+      <c r="A314" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -8331,13 +8344,13 @@
         <v>114</v>
       </c>
       <c r="B316" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C316" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -8345,13 +8358,13 @@
         <v>114</v>
       </c>
       <c r="B317" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C317" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -8359,13 +8372,13 @@
         <v>114</v>
       </c>
       <c r="B318" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C318" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8373,13 +8386,13 @@
         <v>114</v>
       </c>
       <c r="B319" s="5">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C319" s="5">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8387,13 +8400,13 @@
         <v>114</v>
       </c>
       <c r="B320" s="5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C320" s="5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -8401,13 +8414,13 @@
         <v>114</v>
       </c>
       <c r="B321" s="5">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C321" s="5">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -8415,13 +8428,13 @@
         <v>114</v>
       </c>
       <c r="B322" s="5">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C322" s="5">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -8429,13 +8442,13 @@
         <v>114</v>
       </c>
       <c r="B323" s="5">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C323" s="5">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -8443,13 +8456,13 @@
         <v>114</v>
       </c>
       <c r="B324" s="5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C324" s="5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -8457,13 +8470,13 @@
         <v>114</v>
       </c>
       <c r="B325" s="5">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C325" s="5">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -8471,13 +8484,13 @@
         <v>114</v>
       </c>
       <c r="B326" s="5">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C326" s="5">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -8485,13 +8498,13 @@
         <v>114</v>
       </c>
       <c r="B327" s="5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C327" s="5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -8499,13 +8512,13 @@
         <v>114</v>
       </c>
       <c r="B328" s="5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C328" s="5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -8513,13 +8526,13 @@
         <v>114</v>
       </c>
       <c r="B329" s="5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C329" s="5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -8527,13 +8540,13 @@
         <v>114</v>
       </c>
       <c r="B330" s="5">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C330" s="5">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8541,13 +8554,13 @@
         <v>114</v>
       </c>
       <c r="B331" s="5">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C331" s="5">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -8555,13 +8568,13 @@
         <v>114</v>
       </c>
       <c r="B332" s="5">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C332" s="5">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -8569,13 +8582,13 @@
         <v>114</v>
       </c>
       <c r="B333" s="5">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C333" s="5">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -8583,13 +8596,13 @@
         <v>114</v>
       </c>
       <c r="B334" s="5">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C334" s="5">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -8597,13 +8610,13 @@
         <v>114</v>
       </c>
       <c r="B335" s="5">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C335" s="5">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8611,13 +8624,13 @@
         <v>114</v>
       </c>
       <c r="B336" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C336" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8625,13 +8638,13 @@
         <v>114</v>
       </c>
       <c r="B337" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C337" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8639,13 +8652,13 @@
         <v>114</v>
       </c>
       <c r="B338" s="5">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C338" s="5">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8653,13 +8666,13 @@
         <v>114</v>
       </c>
       <c r="B339" s="5">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C339" s="5">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -8667,13 +8680,13 @@
         <v>114</v>
       </c>
       <c r="B340" s="5">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C340" s="5">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8681,13 +8694,13 @@
         <v>114</v>
       </c>
       <c r="B341" s="5">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C341" s="5">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8695,13 +8708,13 @@
         <v>114</v>
       </c>
       <c r="B342" s="5">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C342" s="5">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8709,13 +8722,13 @@
         <v>114</v>
       </c>
       <c r="B343" s="5">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C343" s="5">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8723,13 +8736,13 @@
         <v>114</v>
       </c>
       <c r="B344" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C344" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8737,13 +8750,13 @@
         <v>114</v>
       </c>
       <c r="B345" s="5">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C345" s="5">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8751,13 +8764,13 @@
         <v>114</v>
       </c>
       <c r="B346" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C346" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8765,13 +8778,13 @@
         <v>114</v>
       </c>
       <c r="B347" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C347" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8779,13 +8792,13 @@
         <v>114</v>
       </c>
       <c r="B348" s="5">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C348" s="5">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8793,13 +8806,13 @@
         <v>114</v>
       </c>
       <c r="B349" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C349" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8807,13 +8820,13 @@
         <v>114</v>
       </c>
       <c r="B350" s="5">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C350" s="5">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8821,13 +8834,13 @@
         <v>114</v>
       </c>
       <c r="B351" s="5">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C351" s="5">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8835,13 +8848,13 @@
         <v>114</v>
       </c>
       <c r="B352" s="5">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C352" s="5">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8849,13 +8862,13 @@
         <v>114</v>
       </c>
       <c r="B353" s="5">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C353" s="5">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8863,13 +8876,13 @@
         <v>114</v>
       </c>
       <c r="B354" s="5">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C354" s="5">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8877,13 +8890,13 @@
         <v>114</v>
       </c>
       <c r="B355" s="5">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C355" s="5">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8891,13 +8904,13 @@
         <v>114</v>
       </c>
       <c r="B356" s="5">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C356" s="5">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8905,13 +8918,13 @@
         <v>114</v>
       </c>
       <c r="B357" s="5">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C357" s="5">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8919,13 +8932,13 @@
         <v>114</v>
       </c>
       <c r="B358" s="5">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C358" s="5">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8933,12 +8946,26 @@
         <v>114</v>
       </c>
       <c r="B359" s="5">
+        <v>144</v>
+      </c>
+      <c r="C359" s="5">
+        <v>144</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B360" s="5">
         <v>145</v>
       </c>
-      <c r="C359" s="5">
+      <c r="C360" s="5">
         <v>145</v>
       </c>
-      <c r="F359" s="5" t="s">
+      <c r="F360" s="5" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
+++ b/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E05BDAA-D470-463A-81CE-A13127EA00D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E98E6-E3E3-4113-B3C7-862018A76FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="570">
   <si>
     <t>type</t>
   </si>
@@ -398,9 +398,6 @@
     <t>Refus de participer</t>
   </si>
   <si>
-    <t>Autre (préciser)</t>
-  </si>
-  <si>
     <t>Autre</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>Q7. Quelle est votre profession principale ?</t>
   </si>
   <si>
-    <t>Autre type de soumission d’enregistrement</t>
-  </si>
-  <si>
     <t>select_one src_eau_potable_maison</t>
   </si>
   <si>
@@ -488,12 +482,6 @@
     <t>Q7.a. Autre profession</t>
   </si>
   <si>
-    <t>Q7. Y a-t-il un plan d’eau douce dans cette communauté qui est utilisé pour les baignades, la douche ou encore la lessive</t>
-  </si>
-  <si>
-    <t>Q8. Combien de temps cela prend en aller-retour pour aller vers le point d’eau douce ?</t>
-  </si>
-  <si>
     <t>Q9. Cette source d’eau se dessèche-t-elle pendant la saison sèche ?</t>
   </si>
   <si>
@@ -536,12 +524,6 @@
     <t>gps</t>
   </si>
   <si>
-    <t>type_soumission_autre</t>
-  </si>
-  <si>
-    <t>${type_soumission} = 'Autre'</t>
-  </si>
-  <si>
     <t>note2</t>
   </si>
   <si>
@@ -602,27 +584,6 @@
     <t>Q20. Le répondant était-il dans la communauté en avril 2024 ?</t>
   </si>
   <si>
-    <t>raison_repondant_pas_com_2025</t>
-  </si>
-  <si>
-    <t>raison_repondant_pas_com_2026</t>
-  </si>
-  <si>
-    <t>raison_repondant_pas_com_2027</t>
-  </si>
-  <si>
-    <t>raison_repondant_pas_com_2028</t>
-  </si>
-  <si>
-    <t>raison_repondant_pas_com_2029</t>
-  </si>
-  <si>
-    <t>raison_repondant_pas_com_2030</t>
-  </si>
-  <si>
-    <t>raison_repondant_pas_com_2031</t>
-  </si>
-  <si>
     <t>Q23. À quel moment est-ce que le répondant a reçu l’information ?</t>
   </si>
   <si>
@@ -860,12 +821,6 @@
     <t>q7_profession_autre</t>
   </si>
   <si>
-    <t>q7_plan_eau_douce_com</t>
-  </si>
-  <si>
-    <t>q8_tps_allez_retout_eau_douce</t>
-  </si>
-  <si>
     <t>q9_src_eau_se_desseche</t>
   </si>
   <si>
@@ -1040,9 +995,6 @@
     <t>${q14_niveau_etude} = 'Autre'</t>
   </si>
   <si>
-    <t>${q19_repondant_ne_dans_com} = 'Oui'</t>
-  </si>
-  <si>
     <t>${q20_repondant_dans_com_2024} = 'Oui'</t>
   </si>
   <si>
@@ -1115,9 +1067,6 @@
     <t>${q25_propose_pzq} = 'Oui'</t>
   </si>
   <si>
-    <t>${q34_nb_fois_participe_tdm_sch} = '0 = Jamais'</t>
-  </si>
-  <si>
     <t>${q42_selectionner_bandelette} = 'Oui'</t>
   </si>
   <si>
@@ -1154,12 +1103,6 @@
     <t>Le nombre d'enfant dâge scolaire ne peut pas dépasser le nombre de personnes vivant dans le ménage</t>
   </si>
   <si>
-    <t>(2024 Juin) - 1. Couverture &amp; CAP V2</t>
-  </si>
-  <si>
-    <t>bj_sct_lf_1_cov_2406_v2</t>
-  </si>
-  <si>
     <t>bj_c_2406_v2</t>
   </si>
   <si>
@@ -1397,9 +1340,6 @@
     <t xml:space="preserve">Absent pendant le TDM </t>
   </si>
   <si>
-    <t>agriculteur ;</t>
-  </si>
-  <si>
     <t>Maternelle</t>
   </si>
   <si>
@@ -1433,9 +1373,6 @@
     <t xml:space="preserve">Peur des effets secondaires  </t>
   </si>
   <si>
-    <t xml:space="preserve">Berger ; </t>
-  </si>
-  <si>
     <t>École primaire</t>
   </si>
   <si>
@@ -1463,9 +1400,6 @@
     <t xml:space="preserve">Je n'étais pas au courant du TDM  </t>
   </si>
   <si>
-    <t>Pêcheur ;</t>
-  </si>
-  <si>
     <t>École secondaire</t>
   </si>
   <si>
@@ -1559,9 +1493,6 @@
     <t>9Ne sait pas/Pas de réponse</t>
   </si>
   <si>
-    <t>Étudiant ;</t>
-  </si>
-  <si>
     <t>Ecole/Formation</t>
   </si>
   <si>
@@ -1595,15 +1526,6 @@
     <t xml:space="preserve">Autres (spécifiez) </t>
   </si>
   <si>
-    <t>Travail de bureau (y compris Gouvernement/secteur public/ONG) ;</t>
-  </si>
-  <si>
-    <t>Commerçant ;</t>
-  </si>
-  <si>
-    <t>Ménagère ;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Autre (spécifiez) </t>
   </si>
   <si>
@@ -1733,9 +1655,6 @@
     <t>Démangeaisons cutanées</t>
   </si>
   <si>
-    <t>${type_soumission} != 'Refus de participer'</t>
-  </si>
-  <si>
     <t>. &gt;= 5 and . &lt;= 14</t>
   </si>
   <si>
@@ -1776,18 +1695,76 @@
   </si>
   <si>
     <t>Trace.non.hémolysée</t>
+  </si>
+  <si>
+    <t>bj_sct_lf_1_cov_2406_v3</t>
+  </si>
+  <si>
+    <t>(2024 Juin) - 1. Couverture &amp; CAP V3</t>
+  </si>
+  <si>
+    <t>(${type_soumission} != 'Refus de participer' and ${type_soumission} != 'Logement vide/pas de personnes')</t>
+  </si>
+  <si>
+    <t>Étudiant</t>
+  </si>
+  <si>
+    <t>agriculteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berger </t>
+  </si>
+  <si>
+    <t>Pêcheur</t>
+  </si>
+  <si>
+    <t>Travail de bureau (y compris Gouvernement/secteur public/ONG)</t>
+  </si>
+  <si>
+    <t>Commerçant</t>
+  </si>
+  <si>
+    <t>Ménagère</t>
+  </si>
+  <si>
+    <t>Q8.b. Combien de temps cela prend en aller-retour pour aller vers le point d’eau douce ?</t>
+  </si>
+  <si>
+    <t>Q8.a. Y a-t-il un plan d’eau douce dans cette communauté qui est utilisé pour les baignades, la douche ou encore la lessive</t>
+  </si>
+  <si>
+    <t>q8a_plan_eau_douce_com</t>
+  </si>
+  <si>
+    <t>q8b_tps_allez_retout_eau_douce</t>
+  </si>
+  <si>
+    <t>(${type_soumission} != 'Refus de participer' and ${type_soumission} != 'Logement vide/pas de personnes') and ${q8a_plan_eau_douce_com} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${q19_repondant_ne_dans_com} = 'Non'</t>
+  </si>
+  <si>
+    <t>${q34_nb_fois_participe_tdm_sch} = 'Jamais'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2011,57 +1988,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2070,7 +2047,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2082,10 +2059,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2387,11 +2367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -2402,7 +2382,7 @@
     <col min="4" max="4" width="36.125" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="28.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="22.375" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="5" customWidth="1"/>
@@ -2449,18 +2429,18 @@
         <v>11</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -2477,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
@@ -2534,7 +2514,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2551,7 +2531,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2574,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2582,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -2596,75 +2576,75 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="A11" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="H12" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>361</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2672,1033 +2652,1033 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>129</v>
+        <v>338</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="H14" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="H17" s="5" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>565</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>331</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>565</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>356</v>
+        <v>187</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>357</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
+      <c r="H26" s="5" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>274</v>
+        <v>566</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>150</v>
+        <v>563</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="24" customFormat="1">
+      <c r="A31" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" s="24" customFormat="1" ht="31.5">
+      <c r="A32" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="24" customFormat="1">
-      <c r="A32" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" s="24" customFormat="1" ht="31.5">
-      <c r="A33" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
+      <c r="H33" s="5" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="5" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>366</v>
+        <v>166</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F34" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="H34" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="5" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>566</v>
-      </c>
       <c r="H35" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>565</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="5" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>333</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="5" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>176</v>
+        <v>540</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>287</v>
+        <v>541</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>567</v>
+        <v>542</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="5" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>568</v>
+        <v>273</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>570</v>
+        <v>181</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>334</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="5" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>187</v>
+        <v>548</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="5" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>289</v>
+        <v>545</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="H47" s="5" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="5" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="5" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>218</v>
+        <v>185</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="5" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="5" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="5" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="5" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="5" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="5" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="5" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="5" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="5" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="5" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="5" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E64" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
+      <c r="H65" s="5" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="5" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
+      <c r="H69" s="5" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>565</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="5" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="5" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="5" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>242</v>
@@ -3707,32 +3687,32 @@
         <v>14</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="5" t="s">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="5" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>243</v>
@@ -3741,157 +3721,140 @@
         <v>14</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="5" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="5" t="s">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="5" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="5" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>262</v>
+        <v>549</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>348</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="5" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>14</v>
+        <v>550</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>565</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="5" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>322</v>
+        <v>163</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>577</v>
+        <v>26</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>360</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>565</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5" t="s">
-        <v>368</v>
+        <v>27</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3903,16 +3866,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C241" sqref="C241"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="5" bestFit="1" customWidth="1"/>
@@ -3998,7 +3961,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>116</v>
@@ -4013,7 +3976,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>117</v>
@@ -4028,9 +3991,9 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -4043,7 +4006,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>119</v>
@@ -4057,24 +4020,24 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -4082,13 +4045,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -4096,24 +4059,24 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>156</v>
-      </c>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>356</v>
+      </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -4121,13 +4084,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -4136,13 +4099,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -4151,13 +4114,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -4166,13 +4129,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -4181,13 +4144,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -4196,13 +4159,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -4211,13 +4174,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -4226,13 +4189,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -4241,13 +4204,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -4256,13 +4219,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>423</v>
+        <v>153</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -4270,24 +4233,24 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>357</v>
+      </c>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -4295,13 +4258,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
@@ -4310,13 +4273,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
@@ -4325,13 +4288,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
@@ -4340,13 +4303,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
@@ -4355,13 +4318,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>415</v>
+        <v>120</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
@@ -4370,13 +4333,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>423</v>
+        <v>153</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="20"/>
@@ -4384,24 +4347,24 @@
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
+      <c r="A34" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="D34" s="19"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -4409,13 +4372,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
@@ -4424,28 +4387,28 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+        <v>379</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
@@ -4454,13 +4417,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
@@ -4469,13 +4432,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>416</v>
+        <v>153</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>416</v>
+        <v>153</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
@@ -4483,24 +4446,24 @@
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+      <c r="A41" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>359</v>
+      </c>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -4508,13 +4471,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
@@ -4523,13 +4486,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
@@ -4538,13 +4501,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="20"/>
@@ -4553,13 +4516,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>408</v>
+        <v>153</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>408</v>
+        <v>153</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
@@ -4567,24 +4530,24 @@
       <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="A47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>556</v>
+      </c>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -4592,13 +4555,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>507</v>
+        <v>557</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
@@ -4607,13 +4570,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>453</v>
+        <v>146</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>558</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
@@ -4622,13 +4585,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>465</v>
+        <v>559</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>465</v>
+        <v>559</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
@@ -4637,13 +4600,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>475</v>
+        <v>146</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>560</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
@@ -4652,13 +4615,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
@@ -4667,13 +4630,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
@@ -4682,13 +4645,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>521</v>
+        <v>146</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>475</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="20"/>
@@ -4697,13 +4660,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>497</v>
+        <v>120</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
@@ -4711,24 +4674,24 @@
       <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>501</v>
-      </c>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -4736,13 +4699,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="20"/>
@@ -4751,13 +4714,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="20"/>
@@ -4765,24 +4728,24 @@
       <c r="G59" s="20"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+      <c r="A61" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>360</v>
+      </c>
       <c r="D61" s="19"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -4790,13 +4753,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="20"/>
@@ -4805,13 +4768,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="20"/>
@@ -4819,24 +4782,24 @@
       <c r="G63" s="20"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -4844,13 +4807,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="20"/>
@@ -4858,24 +4821,24 @@
       <c r="G66" s="20"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>182</v>
-      </c>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
+      <c r="A68" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>425</v>
+      </c>
       <c r="D68" s="19"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -4883,13 +4846,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="20"/>
@@ -4898,13 +4861,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="20"/>
@@ -4913,13 +4876,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="20"/>
@@ -4928,13 +4891,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="20"/>
@@ -4943,13 +4906,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>484</v>
+        <v>120</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="20"/>
@@ -4957,24 +4920,24 @@
       <c r="G73" s="20"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>491</v>
-      </c>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
+      <c r="A75" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>426</v>
+      </c>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -4982,13 +4945,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="20"/>
@@ -4997,13 +4960,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="20"/>
@@ -5012,13 +4975,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="20"/>
@@ -5026,24 +4989,24 @@
       <c r="G78" s="20"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>477</v>
-      </c>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>485</v>
+      </c>
       <c r="D80" s="19"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -5051,13 +5014,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>508</v>
+        <v>427</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>427</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="20"/>
@@ -5066,13 +5029,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="19" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="20"/>
@@ -5081,13 +5044,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="20"/>
@@ -5096,13 +5059,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="19" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="20"/>
@@ -5111,13 +5074,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="19" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="20"/>
@@ -5126,13 +5089,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="19" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="20"/>
@@ -5141,13 +5104,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>492</v>
+        <v>174</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="20"/>
@@ -5155,24 +5118,24 @@
       <c r="G87" s="20"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B88" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>495</v>
-      </c>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
+      <c r="A89" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>428</v>
+      </c>
       <c r="D89" s="19"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -5180,13 +5143,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="19" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="20"/>
@@ -5195,13 +5158,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="19" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="20"/>
@@ -5210,13 +5173,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="19" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="20"/>
@@ -5224,24 +5187,24 @@
       <c r="G92" s="20"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>502</v>
-      </c>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
+      <c r="A94" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>429</v>
+      </c>
       <c r="D94" s="19"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -5249,13 +5212,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="20"/>
@@ -5264,13 +5227,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="20"/>
@@ -5279,13 +5242,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="20"/>
@@ -5294,13 +5257,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="20"/>
@@ -5309,13 +5272,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="20"/>
@@ -5324,13 +5287,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="20"/>
@@ -5339,13 +5302,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="20"/>
@@ -5354,13 +5317,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="20"/>
@@ -5369,13 +5332,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>503</v>
+        <v>120</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>496</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="20"/>
@@ -5383,24 +5346,24 @@
       <c r="G103" s="20"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>522</v>
-      </c>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
+      <c r="A105" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="D105" s="19"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -5408,13 +5371,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="20"/>
@@ -5423,13 +5386,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="20"/>
@@ -5438,13 +5401,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="20"/>
@@ -5453,13 +5416,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="20"/>
@@ -5468,13 +5431,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="20"/>
@@ -5483,13 +5446,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="20"/>
@@ -5498,13 +5461,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="20"/>
@@ -5513,13 +5476,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="20"/>
@@ -5528,13 +5491,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="20"/>
@@ -5543,13 +5506,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>504</v>
+        <v>206</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>478</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="20"/>
@@ -5558,13 +5521,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="20"/>
@@ -5573,13 +5536,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="20"/>
@@ -5588,13 +5551,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="20"/>
@@ -5603,13 +5566,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="20"/>
@@ -5618,13 +5581,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="20"/>
@@ -5633,13 +5596,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="20"/>
@@ -5648,38 +5611,38 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B122" s="32" t="s">
-        <v>517</v>
+        <v>206</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
+        <v>495</v>
+      </c>
+      <c r="D122" s="15"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>518</v>
-      </c>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
       <c r="D123" s="15"/>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
+      <c r="A124" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="D124" s="15"/>
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
@@ -5687,13 +5650,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="19" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="16"/>
@@ -5702,13 +5665,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="19" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="16"/>
@@ -5717,13 +5680,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="19" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="16"/>
@@ -5732,13 +5695,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="19" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="16"/>
@@ -5747,13 +5710,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="19" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>488</v>
+        <v>120</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>497</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
@@ -5762,13 +5725,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>121</v>
+        <v>209</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>523</v>
+        <v>153</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="16"/>
@@ -5776,24 +5739,24 @@
       <c r="G130" s="16"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B131" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
       <c r="D131" s="15"/>
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="19"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
+      <c r="A132" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="D132" s="15"/>
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
@@ -5801,13 +5764,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="16"/>
@@ -5816,13 +5779,13 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="16"/>
@@ -5831,13 +5794,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -5846,13 +5809,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
@@ -5861,13 +5824,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="16"/>
@@ -5876,13 +5839,13 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -5891,13 +5854,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>494</v>
+        <v>482</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>482</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="16"/>
@@ -5906,13 +5869,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>504</v>
+        <v>478</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>478</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="16"/>
@@ -5921,13 +5884,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="16"/>
@@ -5936,13 +5899,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>505</v>
+        <v>211</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>490</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="16"/>
@@ -5951,13 +5914,13 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="16"/>
@@ -5966,13 +5929,13 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="16"/>
@@ -5981,13 +5944,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>524</v>
+        <v>211</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="16"/>
@@ -5995,24 +5958,24 @@
       <c r="G145" s="16"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>522</v>
-      </c>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
       <c r="D146" s="15"/>
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="19"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
+      <c r="A147" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>431</v>
+      </c>
       <c r="D147" s="15"/>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
@@ -6020,13 +5983,13 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="19" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="16"/>
@@ -6035,13 +5998,13 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="19" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="16"/>
@@ -6050,13 +6013,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="19" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="16"/>
@@ -6065,13 +6028,13 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="19" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
@@ -6080,13 +6043,13 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="19" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>490</v>
+        <v>409</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>490</v>
+        <v>409</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="16"/>
@@ -6095,13 +6058,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="19" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>428</v>
+        <v>153</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>428</v>
+        <v>153</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="16"/>
@@ -6110,13 +6073,13 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="19" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>157</v>
+        <v>120</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>496</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="16"/>
@@ -6124,24 +6087,24 @@
       <c r="G154" s="16"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C155" s="32" t="s">
-        <v>522</v>
-      </c>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
       <c r="D155" s="15"/>
       <c r="E155" s="16"/>
       <c r="F155" s="16"/>
       <c r="G155" s="16"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
+      <c r="A156" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>499</v>
+      </c>
       <c r="D156" s="15"/>
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
@@ -6149,13 +6112,13 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="19" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="16"/>
@@ -6164,13 +6127,13 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="19" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="16"/>
@@ -6178,24 +6141,24 @@
       <c r="G158" s="16"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B159" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="C159" s="32" t="s">
-        <v>527</v>
-      </c>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
       <c r="D159" s="15"/>
       <c r="E159" s="16"/>
       <c r="F159" s="16"/>
       <c r="G159" s="16"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="19"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
+      <c r="A160" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>488</v>
+      </c>
       <c r="D160" s="15"/>
       <c r="E160" s="16"/>
       <c r="F160" s="16"/>
@@ -6203,13 +6166,13 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B161" s="23" t="s">
-        <v>510</v>
+        <v>222</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>432</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>511</v>
+        <v>432</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="16"/>
@@ -6218,13 +6181,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="19" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -6233,13 +6196,13 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B163" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>463</v>
+        <v>222</v>
+      </c>
+      <c r="B163" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C163" s="32" t="s">
+        <v>502</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -6247,24 +6210,24 @@
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B164" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="C164" s="32" t="s">
-        <v>528</v>
-      </c>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="15"/>
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="19"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
+      <c r="A165" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>433</v>
+      </c>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
@@ -6272,13 +6235,13 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="16"/>
@@ -6287,13 +6250,13 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="16"/>
@@ -6302,13 +6265,13 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="16"/>
@@ -6317,13 +6280,13 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>483</v>
+        <v>120</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>503</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="16"/>
@@ -6332,13 +6295,13 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>121</v>
+        <v>484</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="16"/>
@@ -6346,24 +6309,24 @@
       <c r="G170" s="16"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="C171" s="32" t="s">
-        <v>530</v>
-      </c>
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="15"/>
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="19"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
+      <c r="A172" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>361</v>
+      </c>
       <c r="D172" s="15"/>
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
@@ -6371,13 +6334,13 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="19" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>380</v>
+        <v>152</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>380</v>
+        <v>152</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="16"/>
@@ -6386,13 +6349,13 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>156</v>
+        <v>233</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>409</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="16"/>
@@ -6401,13 +6364,13 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B175" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="C175" s="32" t="s">
-        <v>428</v>
+        <v>233</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="16"/>
@@ -6415,24 +6378,24 @@
       <c r="G175" s="16"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="15"/>
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="19"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="A177" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>362</v>
+      </c>
       <c r="D177" s="15"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
@@ -6440,13 +6403,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="16"/>
@@ -6455,13 +6418,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="16"/>
@@ -6470,13 +6433,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="16"/>
@@ -6485,13 +6448,13 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="16"/>
@@ -6500,13 +6463,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="16"/>
@@ -6515,13 +6478,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="16"/>
@@ -6530,13 +6493,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="16"/>
@@ -6545,13 +6508,13 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="16"/>
@@ -6560,13 +6523,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="16"/>
@@ -6575,13 +6538,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>434</v>
+        <v>120</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>505</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="16"/>
@@ -6589,24 +6552,24 @@
       <c r="G187" s="16"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>531</v>
-      </c>
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
       <c r="D188" s="15"/>
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="19"/>
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
+      <c r="A189" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>363</v>
+      </c>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
@@ -6614,13 +6577,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -6629,13 +6592,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="16"/>
@@ -6644,13 +6607,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -6659,13 +6622,13 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="16"/>
@@ -6674,13 +6637,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="16"/>
@@ -6689,13 +6652,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
@@ -6704,13 +6667,13 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="16"/>
@@ -6719,13 +6682,13 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>536</v>
+        <v>422</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="16"/>
@@ -6734,13 +6697,13 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="16"/>
@@ -6749,13 +6712,13 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="C199" s="19" t="s">
-        <v>428</v>
+        <v>506</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>415</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="16"/>
@@ -6764,13 +6727,13 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>532</v>
+        <v>120</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="16"/>
@@ -6778,24 +6741,24 @@
       <c r="G200" s="16"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B201" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C201" s="32" t="s">
-        <v>531</v>
-      </c>
+      <c r="A201" s="19"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
       <c r="D201" s="15"/>
       <c r="E201" s="16"/>
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="19"/>
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
+      <c r="A202" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>364</v>
+      </c>
       <c r="D202" s="15"/>
       <c r="E202" s="16"/>
       <c r="F202" s="16"/>
@@ -6803,13 +6766,13 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="16"/>
@@ -6818,13 +6781,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="16"/>
@@ -6833,13 +6796,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="16"/>
@@ -6848,13 +6811,13 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="16"/>
@@ -6863,13 +6826,13 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="16"/>
@@ -6878,13 +6841,13 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="16"/>
@@ -6893,13 +6856,13 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>539</v>
+        <v>419</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="16"/>
@@ -6908,13 +6871,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="16"/>
@@ -6923,13 +6886,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="16"/>
@@ -6938,13 +6901,13 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="C212" s="19" t="s">
-        <v>443</v>
+        <v>507</v>
+      </c>
+      <c r="C212" s="32" t="s">
+        <v>538</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="16"/>
@@ -6953,13 +6916,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="C213" s="32" t="s">
-        <v>564</v>
+        <v>508</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>409</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="16"/>
@@ -6968,13 +6931,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="16"/>
@@ -6983,13 +6946,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>532</v>
+        <v>120</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="16"/>
@@ -6997,24 +6960,24 @@
       <c r="G215" s="16"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B216" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C216" s="19" t="s">
-        <v>531</v>
-      </c>
+      <c r="A216" s="19"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
       <c r="D216" s="15"/>
       <c r="E216" s="16"/>
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="19"/>
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
+      <c r="A217" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>365</v>
+      </c>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
       <c r="F217" s="16"/>
@@ -7022,13 +6985,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="16"/>
@@ -7037,13 +7000,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -7052,13 +7015,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="16"/>
@@ -7067,13 +7030,13 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="16"/>
@@ -7082,13 +7045,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="16"/>
@@ -7097,13 +7060,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="16"/>
@@ -7112,13 +7075,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="16"/>
@@ -7127,13 +7090,13 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="16"/>
@@ -7142,13 +7105,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="16"/>
@@ -7157,13 +7120,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>532</v>
+        <v>120</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="16"/>
@@ -7171,24 +7134,24 @@
       <c r="G227" s="16"/>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B228" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C228" s="19" t="s">
-        <v>531</v>
-      </c>
+      <c r="A228" s="19"/>
+      <c r="B228" s="19"/>
+      <c r="C228" s="19"/>
       <c r="D228" s="15"/>
       <c r="E228" s="16"/>
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="19"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
+      <c r="A229" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="D229" s="15"/>
       <c r="E229" s="16"/>
       <c r="F229" s="16"/>
@@ -7196,13 +7159,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="19" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="16"/>
@@ -7211,13 +7174,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="19" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="16"/>
@@ -7226,13 +7189,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="19" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="16"/>
@@ -7241,13 +7204,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="19" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="16"/>
@@ -7256,13 +7219,13 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="19" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="16"/>
@@ -7271,13 +7234,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="19" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="16"/>
@@ -7286,13 +7249,13 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="19" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>532</v>
+        <v>120</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="16"/>
@@ -7300,24 +7263,24 @@
       <c r="G236" s="16"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B237" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C237" s="19" t="s">
-        <v>531</v>
-      </c>
+      <c r="A237" s="19"/>
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
       <c r="D237" s="15"/>
       <c r="E237" s="16"/>
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="19"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="A238" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C238" s="19" t="s">
+        <v>310</v>
+      </c>
       <c r="D238" s="15"/>
       <c r="E238" s="16"/>
       <c r="F238" s="16"/>
@@ -7325,13 +7288,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="19" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="16"/>
@@ -7340,13 +7303,13 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="19" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>326</v>
+        <v>552</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>327</v>
+        <v>551</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="16"/>
@@ -7355,13 +7318,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="19" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>579</v>
+        <v>313</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>578</v>
+        <v>313</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="16"/>
@@ -7370,13 +7333,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="19" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="16"/>
@@ -7385,13 +7348,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="19" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
@@ -7399,38 +7362,34 @@
       <c r="G243" s="16"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="B244" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C244" s="19" t="s">
-        <v>330</v>
-      </c>
+      <c r="A244" s="19"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
       <c r="D244" s="15"/>
       <c r="E244" s="16"/>
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="19"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
-      <c r="D245" s="15"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="16"/>
+      <c r="A245" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7438,10 +7397,10 @@
         <v>107</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7449,10 +7408,10 @@
         <v>107</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7460,10 +7419,10 @@
         <v>107</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7471,10 +7430,10 @@
         <v>107</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7482,21 +7441,24 @@
         <v>107</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B252" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C252" s="5" t="s">
-        <v>53</v>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7504,10 +7466,10 @@
         <v>108</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>56</v>
@@ -7518,10 +7480,10 @@
         <v>108</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>56</v>
@@ -7532,13 +7494,13 @@
         <v>108</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7546,13 +7508,13 @@
         <v>108</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7560,10 +7522,10 @@
         <v>108</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>60</v>
@@ -7574,10 +7536,10 @@
         <v>108</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>60</v>
@@ -7588,13 +7550,13 @@
         <v>108</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7602,10 +7564,10 @@
         <v>108</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>49</v>
@@ -7616,13 +7578,13 @@
         <v>108</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7630,13 +7592,13 @@
         <v>108</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7644,10 +7606,10 @@
         <v>108</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>44</v>
@@ -7658,10 +7620,10 @@
         <v>108</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>44</v>
@@ -7672,13 +7634,13 @@
         <v>108</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7686,27 +7648,27 @@
         <v>108</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>53</v>
+    <row r="269" spans="1:5">
+      <c r="A269" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7714,10 +7676,10 @@
         <v>111</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>45</v>
@@ -7728,10 +7690,10 @@
         <v>111</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E271" s="5" t="s">
         <v>45</v>
@@ -7742,13 +7704,13 @@
         <v>111</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7756,10 +7718,10 @@
         <v>111</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>57</v>
@@ -7770,10 +7732,10 @@
         <v>111</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>57</v>
@@ -7784,13 +7746,13 @@
         <v>111</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7798,10 +7760,10 @@
         <v>111</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>52</v>
@@ -7812,10 +7774,10 @@
         <v>111</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>52</v>
@@ -7826,13 +7788,13 @@
         <v>111</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7840,10 +7802,10 @@
         <v>111</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>48</v>
@@ -7854,10 +7816,10 @@
         <v>111</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>48</v>
@@ -7868,13 +7830,13 @@
         <v>111</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7882,10 +7844,10 @@
         <v>111</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>61</v>
@@ -7896,10 +7858,10 @@
         <v>111</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>61</v>
@@ -7910,13 +7872,13 @@
         <v>111</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7924,10 +7886,10 @@
         <v>111</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>50</v>
@@ -7938,10 +7900,10 @@
         <v>111</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>50</v>
@@ -7952,13 +7914,13 @@
         <v>111</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7966,10 +7928,10 @@
         <v>111</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>54</v>
@@ -7980,10 +7942,10 @@
         <v>111</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>54</v>
@@ -7994,13 +7956,13 @@
         <v>111</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8008,10 +7970,10 @@
         <v>111</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>46</v>
@@ -8022,10 +7984,10 @@
         <v>111</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>46</v>
@@ -8036,13 +7998,13 @@
         <v>111</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8050,10 +8012,10 @@
         <v>111</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>58</v>
@@ -8064,10 +8026,10 @@
         <v>111</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>58</v>
@@ -8078,13 +8040,13 @@
         <v>111</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8092,10 +8054,10 @@
         <v>111</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>62</v>
@@ -8106,10 +8068,10 @@
         <v>111</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E298" s="5" t="s">
         <v>62</v>
@@ -8120,13 +8082,13 @@
         <v>111</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8134,10 +8096,10 @@
         <v>111</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>63</v>
@@ -8148,10 +8110,10 @@
         <v>111</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E301" s="5" t="s">
         <v>63</v>
@@ -8162,13 +8124,13 @@
         <v>111</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8176,10 +8138,10 @@
         <v>111</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E303" s="5" t="s">
         <v>51</v>
@@ -8190,10 +8152,10 @@
         <v>111</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>51</v>
@@ -8204,13 +8166,13 @@
         <v>111</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -8218,10 +8180,10 @@
         <v>111</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E306" s="5" t="s">
         <v>55</v>
@@ -8232,10 +8194,10 @@
         <v>111</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>55</v>
@@ -8246,13 +8208,13 @@
         <v>111</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -8260,10 +8222,10 @@
         <v>111</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E309" s="5" t="s">
         <v>44</v>
@@ -8274,10 +8236,10 @@
         <v>111</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>44</v>
@@ -8288,13 +8250,13 @@
         <v>111</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -8302,10 +8264,10 @@
         <v>111</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>59</v>
@@ -8316,27 +8278,27 @@
         <v>111</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
-      <c r="A314" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E314" s="5" t="s">
-        <v>59</v>
+    <row r="315" spans="1:6">
+      <c r="A315" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B315" s="5">
+        <v>101</v>
+      </c>
+      <c r="C315" s="5">
+        <v>101</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -8344,13 +8306,13 @@
         <v>114</v>
       </c>
       <c r="B316" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C316" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -8358,13 +8320,13 @@
         <v>114</v>
       </c>
       <c r="B317" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C317" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -8372,13 +8334,13 @@
         <v>114</v>
       </c>
       <c r="B318" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C318" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8386,13 +8348,13 @@
         <v>114</v>
       </c>
       <c r="B319" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C319" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8400,13 +8362,13 @@
         <v>114</v>
       </c>
       <c r="B320" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C320" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -8414,13 +8376,13 @@
         <v>114</v>
       </c>
       <c r="B321" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C321" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -8428,13 +8390,13 @@
         <v>114</v>
       </c>
       <c r="B322" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C322" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -8442,13 +8404,13 @@
         <v>114</v>
       </c>
       <c r="B323" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C323" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -8456,13 +8418,13 @@
         <v>114</v>
       </c>
       <c r="B324" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C324" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -8470,13 +8432,13 @@
         <v>114</v>
       </c>
       <c r="B325" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C325" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -8484,13 +8446,13 @@
         <v>114</v>
       </c>
       <c r="B326" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C326" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -8498,13 +8460,13 @@
         <v>114</v>
       </c>
       <c r="B327" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C327" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -8512,13 +8474,13 @@
         <v>114</v>
       </c>
       <c r="B328" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C328" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -8526,13 +8488,13 @@
         <v>114</v>
       </c>
       <c r="B329" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C329" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -8540,13 +8502,13 @@
         <v>114</v>
       </c>
       <c r="B330" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C330" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8554,13 +8516,13 @@
         <v>114</v>
       </c>
       <c r="B331" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C331" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -8568,13 +8530,13 @@
         <v>114</v>
       </c>
       <c r="B332" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C332" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -8582,13 +8544,13 @@
         <v>114</v>
       </c>
       <c r="B333" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C333" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -8596,13 +8558,13 @@
         <v>114</v>
       </c>
       <c r="B334" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C334" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -8610,13 +8572,13 @@
         <v>114</v>
       </c>
       <c r="B335" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C335" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8624,13 +8586,13 @@
         <v>114</v>
       </c>
       <c r="B336" s="5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C336" s="5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8638,13 +8600,13 @@
         <v>114</v>
       </c>
       <c r="B337" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C337" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8652,13 +8614,13 @@
         <v>114</v>
       </c>
       <c r="B338" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C338" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8666,13 +8628,13 @@
         <v>114</v>
       </c>
       <c r="B339" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C339" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -8680,13 +8642,13 @@
         <v>114</v>
       </c>
       <c r="B340" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C340" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8694,13 +8656,13 @@
         <v>114</v>
       </c>
       <c r="B341" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C341" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8708,13 +8670,13 @@
         <v>114</v>
       </c>
       <c r="B342" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C342" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8722,13 +8684,13 @@
         <v>114</v>
       </c>
       <c r="B343" s="5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C343" s="5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8736,13 +8698,13 @@
         <v>114</v>
       </c>
       <c r="B344" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C344" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8750,13 +8712,13 @@
         <v>114</v>
       </c>
       <c r="B345" s="5">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C345" s="5">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8764,13 +8726,13 @@
         <v>114</v>
       </c>
       <c r="B346" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C346" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8778,13 +8740,13 @@
         <v>114</v>
       </c>
       <c r="B347" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C347" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8792,13 +8754,13 @@
         <v>114</v>
       </c>
       <c r="B348" s="5">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C348" s="5">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8806,13 +8768,13 @@
         <v>114</v>
       </c>
       <c r="B349" s="5">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C349" s="5">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8820,13 +8782,13 @@
         <v>114</v>
       </c>
       <c r="B350" s="5">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C350" s="5">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8834,13 +8796,13 @@
         <v>114</v>
       </c>
       <c r="B351" s="5">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C351" s="5">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8848,13 +8810,13 @@
         <v>114</v>
       </c>
       <c r="B352" s="5">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C352" s="5">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8862,13 +8824,13 @@
         <v>114</v>
       </c>
       <c r="B353" s="5">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C353" s="5">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8876,13 +8838,13 @@
         <v>114</v>
       </c>
       <c r="B354" s="5">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C354" s="5">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8890,13 +8852,13 @@
         <v>114</v>
       </c>
       <c r="B355" s="5">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C355" s="5">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8904,13 +8866,13 @@
         <v>114</v>
       </c>
       <c r="B356" s="5">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C356" s="5">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8918,13 +8880,13 @@
         <v>114</v>
       </c>
       <c r="B357" s="5">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C357" s="5">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8932,13 +8894,13 @@
         <v>114</v>
       </c>
       <c r="B358" s="5">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C358" s="5">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8946,31 +8908,17 @@
         <v>114</v>
       </c>
       <c r="B359" s="5">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C359" s="5">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B360" s="5">
-        <v>145</v>
-      </c>
-      <c r="C360" s="5">
-        <v>145</v>
-      </c>
-      <c r="F360" s="5" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -8981,7 +8929,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -9004,10 +8952,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>372</v>
+        <v>554</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>373</v>
+        <v>553</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>

--- a/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
+++ b/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E98E6-E3E3-4113-B3C7-862018A76FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AAC39-B7AE-422A-8C42-8C4A1B828414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="571">
   <si>
     <t>type</t>
   </si>
@@ -1070,9 +1070,6 @@
     <t>${q42_selectionner_bandelette} = 'Oui'</t>
   </si>
   <si>
-    <t>concat(substr(${arrondissement} , 0, 2), '_', if(${last-saved#q0_numero_menage}!=null,${last-saved#q0_numero_menage} + 1,1))</t>
-  </si>
-  <si>
     <t>begin repeat</t>
   </si>
   <si>
@@ -1478,9 +1475,6 @@
     <t xml:space="preserve">Autre  </t>
   </si>
   <si>
-    <t>9Ne sait pas / pas de réponse</t>
-  </si>
-  <si>
     <t>TV</t>
   </si>
   <si>
@@ -1490,9 +1484,6 @@
     <t>Trop jeune</t>
   </si>
   <si>
-    <t>9Ne sait pas/Pas de réponse</t>
-  </si>
-  <si>
     <t>Ecole/Formation</t>
   </si>
   <si>
@@ -1697,12 +1688,6 @@
     <t>Trace.non.hémolysée</t>
   </si>
   <si>
-    <t>bj_sct_lf_1_cov_2406_v3</t>
-  </si>
-  <si>
-    <t>(2024 Juin) - 1. Couverture &amp; CAP V3</t>
-  </si>
-  <si>
     <t>(${type_soumission} != 'Refus de participer' and ${type_soumission} != 'Logement vide/pas de personnes')</t>
   </si>
   <si>
@@ -1746,6 +1731,24 @@
   </si>
   <si>
     <t>${q34_nb_fois_participe_tdm_sch} = 'Jamais'</t>
+  </si>
+  <si>
+    <t>q0_index_menage</t>
+  </si>
+  <si>
+    <t>Index du numéro de ménage</t>
+  </si>
+  <si>
+    <t>if(${last-saved#q0_index_menage}!=null,${last-saved#q0_index_menage} + 1,1)</t>
+  </si>
+  <si>
+    <t>bj_sct_lf_1_cov_2406_v3_1</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) - 1. Couverture &amp; CAP V3.1</t>
+  </si>
+  <si>
+    <t>concat(${recorder_id}, '_', substr(${arrondissement} , 0, 2), '_', ${q0_index_menage})</t>
   </si>
 </sst>
 </file>
@@ -2367,11 +2370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -2429,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2603,7 +2606,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -2612,39 +2615,48 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>251</v>
+        <v>565</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>127</v>
+        <v>566</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>344</v>
+        <v>567</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>128</v>
+        <v>251</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2652,260 +2664,260 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>129</v>
+        <v>338</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F15" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="H15" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="A16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>316</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>555</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>341</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>555</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>135</v>
+        <v>189</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-    </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>261</v>
+        <v>561</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>148</v>
+        <v>558</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2913,16 +2925,16 @@
         <v>155</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2930,120 +2942,122 @@
         <v>155</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="24" customFormat="1">
-      <c r="A31" s="25" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="24" customFormat="1">
+      <c r="A32" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" s="24" customFormat="1" ht="31.5">
+      <c r="A33" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" s="24" customFormat="1" ht="31.5">
-      <c r="A32" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="28" t="s">
+      <c r="C33" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="D33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="5" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>166</v>
+        <v>348</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>539</v>
-      </c>
       <c r="H34" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="5" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F35" s="5" t="s">
+        <v>536</v>
+      </c>
       <c r="H35" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>167</v>
@@ -3052,41 +3066,41 @@
         <v>14</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>318</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="5" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>555</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="5" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3094,19 +3108,16 @@
         <v>131</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3114,16 +3125,19 @@
         <v>131</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>170</v>
+        <v>191</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3131,146 +3145,146 @@
         <v>131</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>540</v>
+        <v>170</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>541</v>
+        <v>272</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="5" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>273</v>
+        <v>538</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>181</v>
+        <v>539</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="5" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>548</v>
+        <v>181</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="5" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>546</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
+      <c r="A46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>319</v>
-      </c>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -3279,100 +3293,100 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="5" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="5" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="5" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>194</v>
@@ -3381,123 +3395,123 @@
         <v>14</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="5" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="5" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="5" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="5" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
@@ -3506,355 +3520,372 @@
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:8">
       <c r="A63" s="5" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-    </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="5" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-    </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>329</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="5" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="5" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="5" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="5" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="5" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="5" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="5" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="5" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="5" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>549</v>
+        <v>249</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>555</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="5" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="5" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>26</v>
+        <v>547</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>555</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="5" t="s">
-        <v>351</v>
+        <v>25</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>27</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3869,8 +3900,8 @@
   <dimension ref="A1:G359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -4072,10 +4103,10 @@
         <v>141</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -4087,10 +4118,10 @@
         <v>141</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -4102,10 +4133,10 @@
         <v>141</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -4117,10 +4148,10 @@
         <v>141</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -4132,10 +4163,10 @@
         <v>141</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -4147,10 +4178,10 @@
         <v>141</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -4162,10 +4193,10 @@
         <v>141</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -4177,10 +4208,10 @@
         <v>141</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -4192,10 +4223,10 @@
         <v>141</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -4210,7 +4241,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -4246,10 +4277,10 @@
         <v>143</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
@@ -4261,10 +4292,10 @@
         <v>143</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
@@ -4276,10 +4307,10 @@
         <v>143</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
@@ -4291,10 +4322,10 @@
         <v>143</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
@@ -4306,10 +4337,10 @@
         <v>143</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
@@ -4324,7 +4355,7 @@
         <v>120</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
@@ -4360,10 +4391,10 @@
         <v>144</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="20"/>
@@ -4375,10 +4406,10 @@
         <v>144</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
@@ -4390,10 +4421,10 @@
         <v>144</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="16"/>
@@ -4405,10 +4436,10 @@
         <v>144</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
@@ -4420,10 +4451,10 @@
         <v>144</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
@@ -4459,10 +4490,10 @@
         <v>145</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
@@ -4474,10 +4505,10 @@
         <v>145</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
@@ -4489,10 +4520,10 @@
         <v>145</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
@@ -4504,10 +4535,10 @@
         <v>145</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="20"/>
@@ -4543,10 +4574,10 @@
         <v>146</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
@@ -4558,10 +4589,10 @@
         <v>146</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
@@ -4573,10 +4604,10 @@
         <v>146</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
@@ -4588,10 +4619,10 @@
         <v>146</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
@@ -4603,10 +4634,10 @@
         <v>146</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
@@ -4618,10 +4649,10 @@
         <v>146</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
@@ -4633,10 +4664,10 @@
         <v>146</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
@@ -4648,10 +4679,10 @@
         <v>146</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="20"/>
@@ -4666,7 +4697,7 @@
         <v>120</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
@@ -4741,10 +4772,10 @@
         <v>164</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="20"/>
@@ -4756,10 +4787,10 @@
         <v>164</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="20"/>
@@ -4834,10 +4865,10 @@
         <v>172</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="20"/>
@@ -4849,10 +4880,10 @@
         <v>172</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="20"/>
@@ -4864,10 +4895,10 @@
         <v>172</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="20"/>
@@ -4879,10 +4910,10 @@
         <v>172</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="20"/>
@@ -4894,10 +4925,10 @@
         <v>172</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="20"/>
@@ -4912,7 +4943,7 @@
         <v>120</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="20"/>
@@ -4933,10 +4964,10 @@
         <v>173</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
@@ -4948,10 +4979,10 @@
         <v>173</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="20"/>
@@ -4963,10 +4994,10 @@
         <v>173</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="20"/>
@@ -4978,10 +5009,10 @@
         <v>173</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="20"/>
@@ -5002,10 +5033,10 @@
         <v>174</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="20"/>
@@ -5017,10 +5048,10 @@
         <v>174</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="20"/>
@@ -5032,10 +5063,10 @@
         <v>174</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="20"/>
@@ -5047,10 +5078,10 @@
         <v>174</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="20"/>
@@ -5062,10 +5093,10 @@
         <v>174</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="20"/>
@@ -5077,10 +5108,10 @@
         <v>174</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="20"/>
@@ -5092,10 +5123,10 @@
         <v>174</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="20"/>
@@ -5110,7 +5141,7 @@
         <v>120</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="20"/>
@@ -5131,10 +5162,10 @@
         <v>202</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="20"/>
@@ -5146,10 +5177,10 @@
         <v>202</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="20"/>
@@ -5161,10 +5192,10 @@
         <v>202</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="20"/>
@@ -5176,10 +5207,10 @@
         <v>202</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="20"/>
@@ -5200,10 +5231,10 @@
         <v>203</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="20"/>
@@ -5215,10 +5246,10 @@
         <v>203</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="20"/>
@@ -5230,10 +5261,10 @@
         <v>203</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="20"/>
@@ -5245,10 +5276,10 @@
         <v>203</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="20"/>
@@ -5260,10 +5291,10 @@
         <v>203</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="20"/>
@@ -5275,10 +5306,10 @@
         <v>203</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="20"/>
@@ -5290,10 +5321,10 @@
         <v>203</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="20"/>
@@ -5305,10 +5336,10 @@
         <v>203</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="20"/>
@@ -5320,10 +5351,10 @@
         <v>203</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="20"/>
@@ -5338,7 +5369,7 @@
         <v>120</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="20"/>
@@ -5359,10 +5390,10 @@
         <v>206</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="20"/>
@@ -5374,10 +5405,10 @@
         <v>206</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="20"/>
@@ -5389,10 +5420,10 @@
         <v>206</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="20"/>
@@ -5404,10 +5435,10 @@
         <v>206</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="20"/>
@@ -5419,10 +5450,10 @@
         <v>206</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="20"/>
@@ -5434,10 +5465,10 @@
         <v>206</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="20"/>
@@ -5449,10 +5480,10 @@
         <v>206</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="20"/>
@@ -5464,10 +5495,10 @@
         <v>206</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="20"/>
@@ -5479,10 +5510,10 @@
         <v>206</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="20"/>
@@ -5494,10 +5525,10 @@
         <v>206</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="20"/>
@@ -5509,10 +5540,10 @@
         <v>206</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="20"/>
@@ -5524,10 +5555,10 @@
         <v>206</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="20"/>
@@ -5539,10 +5570,10 @@
         <v>206</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="20"/>
@@ -5554,10 +5585,10 @@
         <v>206</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="20"/>
@@ -5569,10 +5600,10 @@
         <v>206</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="20"/>
@@ -5584,10 +5615,10 @@
         <v>206</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="20"/>
@@ -5599,10 +5630,10 @@
         <v>206</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="20"/>
@@ -5617,7 +5648,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="16"/>
@@ -5638,10 +5669,10 @@
         <v>209</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="16"/>
@@ -5653,10 +5684,10 @@
         <v>209</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="16"/>
@@ -5668,10 +5699,10 @@
         <v>209</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="16"/>
@@ -5683,10 +5714,10 @@
         <v>209</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="16"/>
@@ -5698,10 +5729,10 @@
         <v>209</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="16"/>
@@ -5716,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
@@ -5752,10 +5783,10 @@
         <v>211</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="16"/>
@@ -5767,10 +5798,10 @@
         <v>211</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="16"/>
@@ -5782,10 +5813,10 @@
         <v>211</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="16"/>
@@ -5797,10 +5828,10 @@
         <v>211</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -5812,10 +5843,10 @@
         <v>211</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
@@ -5827,10 +5858,10 @@
         <v>211</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="16"/>
@@ -5842,10 +5873,10 @@
         <v>211</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -5857,10 +5888,10 @@
         <v>211</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="16"/>
@@ -5872,10 +5903,10 @@
         <v>211</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="16"/>
@@ -5887,10 +5918,10 @@
         <v>211</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="16"/>
@@ -5902,10 +5933,10 @@
         <v>211</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="16"/>
@@ -5917,10 +5948,10 @@
         <v>211</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="16"/>
@@ -5932,10 +5963,10 @@
         <v>211</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="16"/>
@@ -5950,7 +5981,7 @@
         <v>120</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="16"/>
@@ -5971,10 +6002,10 @@
         <v>213</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="16"/>
@@ -5986,10 +6017,10 @@
         <v>213</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="16"/>
@@ -6001,10 +6032,10 @@
         <v>213</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="16"/>
@@ -6016,10 +6047,10 @@
         <v>213</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="16"/>
@@ -6031,10 +6062,10 @@
         <v>213</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
@@ -6046,10 +6077,10 @@
         <v>213</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="16"/>
@@ -6079,7 +6110,7 @@
         <v>120</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="16"/>
@@ -6100,10 +6131,10 @@
         <v>214</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="16"/>
@@ -6115,10 +6146,10 @@
         <v>214</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="16"/>
@@ -6130,10 +6161,10 @@
         <v>214</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="16"/>
@@ -6154,10 +6185,10 @@
         <v>222</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="16"/>
@@ -6169,10 +6200,10 @@
         <v>222</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="16"/>
@@ -6184,10 +6215,10 @@
         <v>222</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -6199,10 +6230,10 @@
         <v>222</v>
       </c>
       <c r="B163" s="32" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -6223,10 +6254,10 @@
         <v>224</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
@@ -6238,10 +6269,10 @@
         <v>224</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="16"/>
@@ -6253,10 +6284,10 @@
         <v>224</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="16"/>
@@ -6268,10 +6299,10 @@
         <v>224</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="16"/>
@@ -6286,7 +6317,7 @@
         <v>120</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="16"/>
@@ -6297,11 +6328,11 @@
       <c r="A170" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B170" s="19" t="s">
-        <v>484</v>
+      <c r="B170" s="33" t="s">
+        <v>501</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="16"/>
@@ -6322,10 +6353,10 @@
         <v>233</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="16"/>
@@ -6352,10 +6383,10 @@
         <v>233</v>
       </c>
       <c r="B174" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="16"/>
@@ -6391,10 +6422,10 @@
         <v>235</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="16"/>
@@ -6406,10 +6437,10 @@
         <v>235</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="16"/>
@@ -6421,10 +6452,10 @@
         <v>235</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="16"/>
@@ -6436,10 +6467,10 @@
         <v>235</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="16"/>
@@ -6451,10 +6482,10 @@
         <v>235</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="16"/>
@@ -6466,10 +6497,10 @@
         <v>235</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="16"/>
@@ -6481,10 +6512,10 @@
         <v>235</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="16"/>
@@ -6496,10 +6527,10 @@
         <v>235</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="16"/>
@@ -6511,10 +6542,10 @@
         <v>235</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="16"/>
@@ -6526,10 +6557,10 @@
         <v>235</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="16"/>
@@ -6544,7 +6575,7 @@
         <v>120</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="16"/>
@@ -6565,10 +6596,10 @@
         <v>238</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
@@ -6580,10 +6611,10 @@
         <v>238</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -6595,10 +6626,10 @@
         <v>238</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="16"/>
@@ -6610,10 +6641,10 @@
         <v>238</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -6625,10 +6656,10 @@
         <v>238</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="16"/>
@@ -6640,10 +6671,10 @@
         <v>238</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="16"/>
@@ -6655,10 +6686,10 @@
         <v>238</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
@@ -6670,10 +6701,10 @@
         <v>238</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="16"/>
@@ -6685,10 +6716,10 @@
         <v>238</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="16"/>
@@ -6700,10 +6731,10 @@
         <v>238</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="16"/>
@@ -6715,10 +6746,10 @@
         <v>238</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="16"/>
@@ -6733,7 +6764,7 @@
         <v>120</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="16"/>
@@ -6754,10 +6785,10 @@
         <v>240</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="16"/>
@@ -6769,10 +6800,10 @@
         <v>240</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="16"/>
@@ -6784,10 +6815,10 @@
         <v>240</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="16"/>
@@ -6799,10 +6830,10 @@
         <v>240</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="16"/>
@@ -6814,10 +6845,10 @@
         <v>240</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="16"/>
@@ -6829,10 +6860,10 @@
         <v>240</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="16"/>
@@ -6844,10 +6875,10 @@
         <v>240</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="16"/>
@@ -6859,10 +6890,10 @@
         <v>240</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="16"/>
@@ -6874,10 +6905,10 @@
         <v>240</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="16"/>
@@ -6889,10 +6920,10 @@
         <v>240</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="16"/>
@@ -6904,10 +6935,10 @@
         <v>240</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="16"/>
@@ -6919,10 +6950,10 @@
         <v>240</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="16"/>
@@ -6934,10 +6965,10 @@
         <v>240</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="16"/>
@@ -6952,7 +6983,7 @@
         <v>120</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="16"/>
@@ -6973,10 +7004,10 @@
         <v>244</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
@@ -6988,10 +7019,10 @@
         <v>244</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="16"/>
@@ -7003,10 +7034,10 @@
         <v>244</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -7018,10 +7049,10 @@
         <v>244</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="16"/>
@@ -7033,10 +7064,10 @@
         <v>244</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="16"/>
@@ -7048,10 +7079,10 @@
         <v>244</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="16"/>
@@ -7063,10 +7094,10 @@
         <v>244</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="16"/>
@@ -7078,10 +7109,10 @@
         <v>244</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="16"/>
@@ -7093,10 +7124,10 @@
         <v>244</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="16"/>
@@ -7108,10 +7139,10 @@
         <v>244</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="16"/>
@@ -7126,7 +7157,7 @@
         <v>120</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="16"/>
@@ -7147,10 +7178,10 @@
         <v>245</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="16"/>
@@ -7162,10 +7193,10 @@
         <v>245</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="16"/>
@@ -7177,10 +7208,10 @@
         <v>245</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="16"/>
@@ -7192,10 +7223,10 @@
         <v>245</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="16"/>
@@ -7207,10 +7238,10 @@
         <v>245</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="16"/>
@@ -7222,10 +7253,10 @@
         <v>245</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="16"/>
@@ -7237,10 +7268,10 @@
         <v>245</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="16"/>
@@ -7255,7 +7286,7 @@
         <v>120</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="16"/>
@@ -7306,10 +7337,10 @@
         <v>308</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="16"/>
@@ -8952,10 +8983,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>

--- a/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
+++ b/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AAC39-B7AE-422A-8C42-8C4A1B828414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A12EC9A-95A8-4951-AEA5-C4DB1C669EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="572">
   <si>
     <t>type</t>
   </si>
@@ -1025,9 +1025,6 @@
     <t>${q35_pourquoi_jamais_participe} = 'Autre'</t>
   </si>
   <si>
-    <t>${q36_entendu_parler_sch} = 'Oui'</t>
-  </si>
-  <si>
     <t>selected(${q38_transmission_sch}, 'Autre')</t>
   </si>
   <si>
@@ -1100,9 +1097,6 @@
     <t>Le nombre d'enfant dâge scolaire ne peut pas dépasser le nombre de personnes vivant dans le ménage</t>
   </si>
   <si>
-    <t>bj_c_2406_v2</t>
-  </si>
-  <si>
     <t>Il n’y a pas d’eau potable à la maison</t>
   </si>
   <si>
@@ -1742,13 +1736,22 @@
     <t>if(${last-saved#q0_index_menage}!=null,${last-saved#q0_index_menage} + 1,1)</t>
   </si>
   <si>
-    <t>bj_sct_lf_1_cov_2406_v3_1</t>
-  </si>
-  <si>
-    <t>(2024 Juillet) - 1. Couverture &amp; CAP V3.1</t>
-  </si>
-  <si>
     <t>concat(${recorder_id}, '_', substr(${arrondissement} , 0, 2), '_', ${q0_index_menage})</t>
+  </si>
+  <si>
+    <t>(${type_soumission} != 'Refus de participer' and ${type_soumission} != 'Logement vide/pas de personnes') and ${q17_repondant_repond_lui_meme} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${q36_entendu_parler_sch} = 'Oui' and ${q17_repondant_repond_lui_meme} = 'Oui'</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) - 1. Couverture &amp; CAP V3.2</t>
+  </si>
+  <si>
+    <t>bj_sct_lf_1_cov_2406_v3_2</t>
+  </si>
+  <si>
+    <t>bj_c_2406_v32</t>
   </si>
 </sst>
 </file>
@@ -2373,8 +2376,8 @@
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -2432,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2606,7 +2609,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -2618,19 +2621,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>14</v>
@@ -2650,10 +2653,10 @@
         <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>14</v>
@@ -2673,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2681,22 +2684,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2713,7 +2716,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2744,7 +2747,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2778,7 +2781,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2786,16 +2789,16 @@
         <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2815,7 +2818,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2835,7 +2838,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2852,7 +2855,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2891,16 +2894,16 @@
         <v>155</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2908,16 +2911,16 @@
         <v>165</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2934,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2951,7 +2954,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2968,25 +2971,25 @@
         <v>14</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="24" customFormat="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="24" customFormat="1" ht="94.5">
       <c r="A32" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>344</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>345</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
@@ -2994,23 +2997,23 @@
       <c r="L32" s="25"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:12" s="24" customFormat="1" ht="31.5">
+    <row r="33" spans="1:12" s="24" customFormat="1" ht="94.5">
       <c r="A33" s="28" t="s">
         <v>132</v>
       </c>
       <c r="B33" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>346</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>347</v>
       </c>
       <c r="D33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
@@ -3023,13 +3026,13 @@
         <v>264</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3046,10 +3049,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3066,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3100,7 +3103,7 @@
         <v>14</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3117,7 +3120,7 @@
         <v>14</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3137,7 +3140,7 @@
         <v>14</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3154,7 +3157,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3165,13 +3168,13 @@
         <v>272</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3179,19 +3182,19 @@
         <v>12</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3208,7 +3211,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3219,13 +3222,13 @@
         <v>274</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3233,16 +3236,16 @@
         <v>132</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3344,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3361,7 +3364,7 @@
         <v>14</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3378,7 +3381,7 @@
         <v>14</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3395,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3432,7 +3435,7 @@
         <v>14</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3585,7 +3588,7 @@
         <v>14</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3602,7 +3605,7 @@
         <v>14</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3650,7 +3653,7 @@
         <v>14</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3667,7 +3670,7 @@
         <v>14</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>329</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3684,7 +3687,7 @@
         <v>14</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3701,7 +3704,7 @@
         <v>14</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>329</v>
+        <v>568</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3718,7 +3721,7 @@
         <v>14</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3735,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>329</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3752,7 +3755,7 @@
         <v>14</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3769,7 +3772,7 @@
         <v>14</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>329</v>
+        <v>568</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3786,7 +3789,7 @@
         <v>14</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3803,7 +3806,7 @@
         <v>14</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>329</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3820,7 +3823,7 @@
         <v>14</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3831,13 +3834,13 @@
         <v>306</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3848,10 +3851,10 @@
         <v>307</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3865,12 +3868,12 @@
         <v>26</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4103,10 +4106,10 @@
         <v>141</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -4118,10 +4121,10 @@
         <v>141</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -4133,10 +4136,10 @@
         <v>141</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -4148,10 +4151,10 @@
         <v>141</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -4163,10 +4166,10 @@
         <v>141</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -4178,10 +4181,10 @@
         <v>141</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -4193,10 +4196,10 @@
         <v>141</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -4208,10 +4211,10 @@
         <v>141</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -4223,10 +4226,10 @@
         <v>141</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -4241,7 +4244,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -4277,10 +4280,10 @@
         <v>143</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
@@ -4292,10 +4295,10 @@
         <v>143</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
@@ -4307,10 +4310,10 @@
         <v>143</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
@@ -4322,10 +4325,10 @@
         <v>143</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
@@ -4337,10 +4340,10 @@
         <v>143</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
@@ -4355,7 +4358,7 @@
         <v>120</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
@@ -4391,10 +4394,10 @@
         <v>144</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="20"/>
@@ -4406,10 +4409,10 @@
         <v>144</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
@@ -4421,10 +4424,10 @@
         <v>144</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="16"/>
@@ -4436,10 +4439,10 @@
         <v>144</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
@@ -4451,10 +4454,10 @@
         <v>144</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
@@ -4490,10 +4493,10 @@
         <v>145</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
@@ -4505,10 +4508,10 @@
         <v>145</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
@@ -4520,10 +4523,10 @@
         <v>145</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
@@ -4535,10 +4538,10 @@
         <v>145</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="20"/>
@@ -4574,10 +4577,10 @@
         <v>146</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
@@ -4589,10 +4592,10 @@
         <v>146</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
@@ -4604,10 +4607,10 @@
         <v>146</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
@@ -4619,10 +4622,10 @@
         <v>146</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
@@ -4634,10 +4637,10 @@
         <v>146</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
@@ -4649,10 +4652,10 @@
         <v>146</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
@@ -4664,10 +4667,10 @@
         <v>146</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
@@ -4679,10 +4682,10 @@
         <v>146</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="20"/>
@@ -4697,7 +4700,7 @@
         <v>120</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
@@ -4772,10 +4775,10 @@
         <v>164</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="20"/>
@@ -4787,10 +4790,10 @@
         <v>164</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="20"/>
@@ -4865,10 +4868,10 @@
         <v>172</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="20"/>
@@ -4880,10 +4883,10 @@
         <v>172</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="20"/>
@@ -4895,10 +4898,10 @@
         <v>172</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="20"/>
@@ -4910,10 +4913,10 @@
         <v>172</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="20"/>
@@ -4925,10 +4928,10 @@
         <v>172</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="20"/>
@@ -4943,7 +4946,7 @@
         <v>120</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="20"/>
@@ -4964,10 +4967,10 @@
         <v>173</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
@@ -4979,10 +4982,10 @@
         <v>173</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="20"/>
@@ -4994,10 +4997,10 @@
         <v>173</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="20"/>
@@ -5009,10 +5012,10 @@
         <v>173</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="20"/>
@@ -5033,10 +5036,10 @@
         <v>174</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="20"/>
@@ -5048,10 +5051,10 @@
         <v>174</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="20"/>
@@ -5063,10 +5066,10 @@
         <v>174</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="20"/>
@@ -5078,10 +5081,10 @@
         <v>174</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="20"/>
@@ -5093,10 +5096,10 @@
         <v>174</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="20"/>
@@ -5108,10 +5111,10 @@
         <v>174</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="20"/>
@@ -5123,10 +5126,10 @@
         <v>174</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="20"/>
@@ -5141,7 +5144,7 @@
         <v>120</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="20"/>
@@ -5162,10 +5165,10 @@
         <v>202</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="20"/>
@@ -5177,10 +5180,10 @@
         <v>202</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="20"/>
@@ -5192,10 +5195,10 @@
         <v>202</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="20"/>
@@ -5207,10 +5210,10 @@
         <v>202</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="20"/>
@@ -5231,10 +5234,10 @@
         <v>203</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="20"/>
@@ -5246,10 +5249,10 @@
         <v>203</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="20"/>
@@ -5261,10 +5264,10 @@
         <v>203</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="20"/>
@@ -5276,10 +5279,10 @@
         <v>203</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="20"/>
@@ -5291,10 +5294,10 @@
         <v>203</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="20"/>
@@ -5306,10 +5309,10 @@
         <v>203</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="20"/>
@@ -5321,10 +5324,10 @@
         <v>203</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="20"/>
@@ -5336,10 +5339,10 @@
         <v>203</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="20"/>
@@ -5351,10 +5354,10 @@
         <v>203</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="20"/>
@@ -5369,7 +5372,7 @@
         <v>120</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="20"/>
@@ -5390,10 +5393,10 @@
         <v>206</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="20"/>
@@ -5405,10 +5408,10 @@
         <v>206</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="20"/>
@@ -5420,10 +5423,10 @@
         <v>206</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="20"/>
@@ -5435,10 +5438,10 @@
         <v>206</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="20"/>
@@ -5450,10 +5453,10 @@
         <v>206</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="20"/>
@@ -5465,10 +5468,10 @@
         <v>206</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="20"/>
@@ -5480,10 +5483,10 @@
         <v>206</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="20"/>
@@ -5495,10 +5498,10 @@
         <v>206</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="20"/>
@@ -5510,10 +5513,10 @@
         <v>206</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="20"/>
@@ -5525,10 +5528,10 @@
         <v>206</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="20"/>
@@ -5540,10 +5543,10 @@
         <v>206</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="20"/>
@@ -5555,10 +5558,10 @@
         <v>206</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="20"/>
@@ -5570,10 +5573,10 @@
         <v>206</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="20"/>
@@ -5585,10 +5588,10 @@
         <v>206</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="20"/>
@@ -5600,10 +5603,10 @@
         <v>206</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="20"/>
@@ -5615,10 +5618,10 @@
         <v>206</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="20"/>
@@ -5630,10 +5633,10 @@
         <v>206</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="20"/>
@@ -5648,7 +5651,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="16"/>
@@ -5669,10 +5672,10 @@
         <v>209</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="16"/>
@@ -5684,10 +5687,10 @@
         <v>209</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="16"/>
@@ -5699,10 +5702,10 @@
         <v>209</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="16"/>
@@ -5714,10 +5717,10 @@
         <v>209</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="16"/>
@@ -5729,10 +5732,10 @@
         <v>209</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="16"/>
@@ -5747,7 +5750,7 @@
         <v>120</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
@@ -5783,10 +5786,10 @@
         <v>211</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="16"/>
@@ -5798,10 +5801,10 @@
         <v>211</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="16"/>
@@ -5813,10 +5816,10 @@
         <v>211</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="16"/>
@@ -5828,10 +5831,10 @@
         <v>211</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -5843,10 +5846,10 @@
         <v>211</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
@@ -5858,10 +5861,10 @@
         <v>211</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="16"/>
@@ -5873,10 +5876,10 @@
         <v>211</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -5888,10 +5891,10 @@
         <v>211</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="16"/>
@@ -5903,10 +5906,10 @@
         <v>211</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="16"/>
@@ -5918,10 +5921,10 @@
         <v>211</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="16"/>
@@ -5933,10 +5936,10 @@
         <v>211</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="16"/>
@@ -5948,10 +5951,10 @@
         <v>211</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="16"/>
@@ -5963,10 +5966,10 @@
         <v>211</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="16"/>
@@ -5981,7 +5984,7 @@
         <v>120</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="16"/>
@@ -6002,10 +6005,10 @@
         <v>213</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="16"/>
@@ -6017,10 +6020,10 @@
         <v>213</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="16"/>
@@ -6032,10 +6035,10 @@
         <v>213</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="16"/>
@@ -6047,10 +6050,10 @@
         <v>213</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="16"/>
@@ -6062,10 +6065,10 @@
         <v>213</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
@@ -6077,10 +6080,10 @@
         <v>213</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="16"/>
@@ -6110,7 +6113,7 @@
         <v>120</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="16"/>
@@ -6131,10 +6134,10 @@
         <v>214</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="16"/>
@@ -6146,10 +6149,10 @@
         <v>214</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="16"/>
@@ -6161,10 +6164,10 @@
         <v>214</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="16"/>
@@ -6185,10 +6188,10 @@
         <v>222</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="16"/>
@@ -6200,10 +6203,10 @@
         <v>222</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="16"/>
@@ -6215,10 +6218,10 @@
         <v>222</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -6230,10 +6233,10 @@
         <v>222</v>
       </c>
       <c r="B163" s="32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -6254,10 +6257,10 @@
         <v>224</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
@@ -6269,10 +6272,10 @@
         <v>224</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="16"/>
@@ -6284,10 +6287,10 @@
         <v>224</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="16"/>
@@ -6299,10 +6302,10 @@
         <v>224</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="16"/>
@@ -6317,7 +6320,7 @@
         <v>120</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="16"/>
@@ -6329,10 +6332,10 @@
         <v>224</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="16"/>
@@ -6353,10 +6356,10 @@
         <v>233</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="16"/>
@@ -6383,10 +6386,10 @@
         <v>233</v>
       </c>
       <c r="B174" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="16"/>
@@ -6422,10 +6425,10 @@
         <v>235</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="16"/>
@@ -6437,10 +6440,10 @@
         <v>235</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="16"/>
@@ -6452,10 +6455,10 @@
         <v>235</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="16"/>
@@ -6467,10 +6470,10 @@
         <v>235</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="16"/>
@@ -6482,10 +6485,10 @@
         <v>235</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="16"/>
@@ -6497,10 +6500,10 @@
         <v>235</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="16"/>
@@ -6512,10 +6515,10 @@
         <v>235</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="16"/>
@@ -6527,10 +6530,10 @@
         <v>235</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="16"/>
@@ -6542,10 +6545,10 @@
         <v>235</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="16"/>
@@ -6557,10 +6560,10 @@
         <v>235</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="16"/>
@@ -6575,7 +6578,7 @@
         <v>120</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="16"/>
@@ -6596,10 +6599,10 @@
         <v>238</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
@@ -6611,10 +6614,10 @@
         <v>238</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -6626,10 +6629,10 @@
         <v>238</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="16"/>
@@ -6641,10 +6644,10 @@
         <v>238</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -6656,10 +6659,10 @@
         <v>238</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="16"/>
@@ -6671,10 +6674,10 @@
         <v>238</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="16"/>
@@ -6686,10 +6689,10 @@
         <v>238</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
@@ -6701,10 +6704,10 @@
         <v>238</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="16"/>
@@ -6716,10 +6719,10 @@
         <v>238</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="16"/>
@@ -6731,10 +6734,10 @@
         <v>238</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="16"/>
@@ -6746,10 +6749,10 @@
         <v>238</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="16"/>
@@ -6764,7 +6767,7 @@
         <v>120</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="16"/>
@@ -6785,10 +6788,10 @@
         <v>240</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="16"/>
@@ -6800,10 +6803,10 @@
         <v>240</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="16"/>
@@ -6815,10 +6818,10 @@
         <v>240</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="16"/>
@@ -6830,10 +6833,10 @@
         <v>240</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="16"/>
@@ -6845,10 +6848,10 @@
         <v>240</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="16"/>
@@ -6860,10 +6863,10 @@
         <v>240</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="16"/>
@@ -6875,10 +6878,10 @@
         <v>240</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="16"/>
@@ -6890,10 +6893,10 @@
         <v>240</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="16"/>
@@ -6905,10 +6908,10 @@
         <v>240</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="16"/>
@@ -6920,10 +6923,10 @@
         <v>240</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="16"/>
@@ -6935,10 +6938,10 @@
         <v>240</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="16"/>
@@ -6950,10 +6953,10 @@
         <v>240</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="16"/>
@@ -6965,10 +6968,10 @@
         <v>240</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="16"/>
@@ -6983,7 +6986,7 @@
         <v>120</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="16"/>
@@ -7004,10 +7007,10 @@
         <v>244</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
@@ -7019,10 +7022,10 @@
         <v>244</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="16"/>
@@ -7034,10 +7037,10 @@
         <v>244</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -7049,10 +7052,10 @@
         <v>244</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="16"/>
@@ -7064,10 +7067,10 @@
         <v>244</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="16"/>
@@ -7079,10 +7082,10 @@
         <v>244</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="16"/>
@@ -7094,10 +7097,10 @@
         <v>244</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="16"/>
@@ -7109,10 +7112,10 @@
         <v>244</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="16"/>
@@ -7124,10 +7127,10 @@
         <v>244</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="16"/>
@@ -7139,10 +7142,10 @@
         <v>244</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="16"/>
@@ -7157,7 +7160,7 @@
         <v>120</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="16"/>
@@ -7178,10 +7181,10 @@
         <v>245</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="16"/>
@@ -7193,10 +7196,10 @@
         <v>245</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="16"/>
@@ -7208,10 +7211,10 @@
         <v>245</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="16"/>
@@ -7223,10 +7226,10 @@
         <v>245</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="16"/>
@@ -7238,10 +7241,10 @@
         <v>245</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="16"/>
@@ -7253,10 +7256,10 @@
         <v>245</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="16"/>
@@ -7268,10 +7271,10 @@
         <v>245</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="16"/>
@@ -7286,7 +7289,7 @@
         <v>120</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="16"/>
@@ -7337,10 +7340,10 @@
         <v>308</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="16"/>
@@ -8960,7 +8963,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -8986,7 +8989,7 @@
         <v>569</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>

--- a/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
+++ b/Coverage Survey/Benin/bj_sct_lf_1_cov_202406.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A12EC9A-95A8-4951-AEA5-C4DB1C669EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7FAE5A-3824-4722-88AE-C3D0FB52CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="574">
   <si>
     <t>type</t>
   </si>
@@ -1745,25 +1745,38 @@
     <t>${q36_entendu_parler_sch} = 'Oui' and ${q17_repondant_repond_lui_meme} = 'Oui'</t>
   </si>
   <si>
-    <t>(2024 Juillet) - 1. Couverture &amp; CAP V3.2</t>
-  </si>
-  <si>
-    <t>bj_sct_lf_1_cov_2406_v3_2</t>
-  </si>
-  <si>
-    <t>bj_c_2406_v32</t>
+    <t>(2024 Juillet) - 1. Couverture &amp; CAP V3.3</t>
+  </si>
+  <si>
+    <t>bj_sct_lf_1_cov_2406_v3_3</t>
+  </si>
+  <si>
+    <t>bj_c_2406_v33</t>
+  </si>
+  <si>
+    <t>(${type_soumission} != 'Refus de participer' and ${type_soumission} != 'Logement vide/pas de personnes') and ${q4_toilette_maison} != "Pas de toilettes / Besoins fait à l’extérieur"</t>
+  </si>
+  <si>
+    <t>(${type_soumission} != 'Refus de participer' and ${type_soumission} != 'Logement vide/pas de personnes') and ${q4_toilette_maison} !="Pas de toilettes / Besoins fait à l’extérieur"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1994,57 +2007,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2053,7 +2066,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2065,10 +2078,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2377,7 +2393,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -2818,7 +2834,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2838,7 +2854,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3903,8 +3919,8 @@
   <dimension ref="A1:G359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B170" sqref="B170"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -4339,7 +4355,7 @@
       <c r="A30" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="34" t="s">
         <v>393</v>
       </c>
       <c r="C30" s="19" t="s">
@@ -8952,7 +8968,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
